--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_7_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_7_18.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>497801.8342610184</v>
+        <v>497251.0314343837</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5749145.26131108</v>
+        <v>5749145.261311087</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7713670.519026328</v>
+        <v>7713670.519026326</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>263.2420339516667</v>
       </c>
       <c r="C2" t="n">
-        <v>263.2420339516666</v>
+        <v>231.863583504628</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>263.2420339516667</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>231.863583504628</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.2420339516666</v>
+        <v>263.2420339516667</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>164.8782356221112</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -801,10 +801,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>105.3830043755884</v>
       </c>
     </row>
     <row r="4">
@@ -835,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>154.2024705022108</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>5.63259860476419</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>17.44799951871616</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>142.3870695882588</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>263.2420339516669</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>263.2420339516669</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>24.95442131525689</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>206.9091621893709</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,10 +950,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>231.863583504628</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>263.2420339516669</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -975,19 +975,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>74.98750975107949</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.2940166796957</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>94.89462762832667</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1072,13 +1072,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>51.96190712986733</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>17.44799951871616</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>159.8350691069752</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>21.07650555046315</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>222.6908602868995</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3382516189322</v>
+        <v>231.863583504628</v>
       </c>
       <c r="V8" t="n">
-        <v>263.2420339516669</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="W8" t="n">
-        <v>263.2420339516669</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1263,13 +1263,13 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>158.4738142088524</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>19.19733857974308</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>159.8350691069749</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.68702246598916</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>77.14804664098608</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1370,25 +1370,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>263.2420339516669</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>263.2420339516669</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>113.3675426107375</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1430,10 +1430,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>231.863583504628</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="X11" t="n">
-        <v>263.2420339516669</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,16 +1446,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>123.447256176024</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1503,19 +1503,19 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8573996139459</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>105.4637302318607</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.9207765545704</v>
+        <v>106.2393753097613</v>
       </c>
       <c r="H13" t="n">
         <v>152.7120966692326</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>53.52313961439716</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1604,22 +1604,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="C14" t="n">
-        <v>263.2420339516669</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>231.8635835046281</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>263.2420339516669</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>263.2420339516669</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1661,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>231.863583504628</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
     </row>
     <row r="15">
@@ -1683,10 +1683,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1740,10 +1740,10 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>125.638434068502</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>19.19733857974308</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -1762,31 +1762,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.9207765545704</v>
       </c>
       <c r="H16" t="n">
-        <v>152.7120966692326</v>
+        <v>57.61976326541732</v>
       </c>
       <c r="I16" t="n">
         <v>123.266557879417</v>
       </c>
       <c r="J16" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>14.11214626950335</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1856,10 +1856,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>252.108512051538</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1907,10 +1907,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>124.1345902132814</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1971,7 +1971,7 @@
         <v>20.90078060183509</v>
       </c>
       <c r="S18" t="n">
-        <v>147.9721212459916</v>
+        <v>147.9721212459915</v>
       </c>
       <c r="T18" t="n">
         <v>195.0194028815133</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>14.4823237960833</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>49.9467516048418</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2062,10 +2062,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2081,25 +2081,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>412.9169039459368</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I20" t="n">
-        <v>97.45562492339823</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>31.88117263514149</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>129.1731816677913</v>
+        <v>56.08889633518827</v>
       </c>
       <c r="S22" t="n">
         <v>205.3658819001186</v>
       </c>
       <c r="T22" t="n">
-        <v>134.5710218506654</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>260.9869262902076</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,22 +2369,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.1547862223006</v>
+        <v>202.2892927417211</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2479,10 +2479,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2521,22 +2521,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>22.79825004194933</v>
+        <v>122.1022459852816</v>
       </c>
       <c r="S25" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>326.0346962716454</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>263.7394182836358</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2606,22 +2606,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,16 +2722,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>61.54644304130765</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>106.5654198538185</v>
       </c>
       <c r="U28" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>60.17145215030011</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>315.9324224046641</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>97.87949356960519</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>129.2269245181086</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>316.3081106422943</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3080,22 +3080,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>119.6112442511073</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3187,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3199,16 +3199,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>88.54353342799239</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H34" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3238,13 +3238,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>130.4064310786407</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>201.3054287459128</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>233.5563560011795</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3281,10 +3281,10 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3329,10 +3329,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3396,7 +3396,7 @@
         <v>147.9721212459916</v>
       </c>
       <c r="T36" t="n">
-        <v>195.0194028815133</v>
+        <v>195.0194028815132</v>
       </c>
       <c r="U36" t="n">
         <v>225.8573996139459</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>126.2565614811635</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>198.5622246230542</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3503,25 +3503,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H38" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>56.13378748966224</v>
+        <v>142.9849043349548</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U38" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>20.90078060183545</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S39" t="n">
         <v>147.9721212459916</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>6.980384243200758</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3670,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>44.36734826491956</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3749,13 +3749,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>231.8635835046278</v>
       </c>
       <c r="H41" t="n">
-        <v>263.242033951667</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>231.8635835046282</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>263.242033951667</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>263.242033951667</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
     </row>
     <row r="42">
@@ -3816,16 +3816,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3867,25 +3867,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>147.9721212459916</v>
+        <v>136.3920163904651</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>23.5127502519374</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3898,7 +3898,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3910,16 +3910,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>88.54353342799227</v>
+        <v>34.08517368154414</v>
       </c>
       <c r="H43" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3955,10 +3955,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3983,16 +3983,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>231.8635835046279</v>
       </c>
       <c r="G44" t="n">
-        <v>263.242033951667</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="H44" t="n">
-        <v>263.242033951667</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4034,10 +4034,10 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>231.8635835046282</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>263.242033951667</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4059,7 +4059,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -4104,13 +4104,13 @@
         <v>20.90078060183509</v>
       </c>
       <c r="S45" t="n">
-        <v>13.35997651082448</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>82.35118904545278</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4119,10 +4119,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4132,19 +4132,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4192,16 +4192,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>202.3860496764734</v>
+        <v>100.2305289620074</v>
       </c>
     </row>
   </sheetData>
@@ -4304,10 +4304,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>286.9604071117561</v>
+        <v>521.1660470154209</v>
       </c>
       <c r="C2" t="n">
-        <v>21.05936271613333</v>
+        <v>286.9604071117562</v>
       </c>
       <c r="D2" t="n">
         <v>21.05936271613333</v>
@@ -4349,31 +4349,31 @@
         <v>1052.968135806667</v>
       </c>
       <c r="Q2" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806667</v>
       </c>
       <c r="R2" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806667</v>
       </c>
       <c r="S2" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806667</v>
       </c>
       <c r="T2" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806667</v>
       </c>
       <c r="U2" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806667</v>
       </c>
       <c r="V2" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806667</v>
       </c>
       <c r="W2" t="n">
-        <v>818.7624959030018</v>
+        <v>1052.968135806667</v>
       </c>
       <c r="X2" t="n">
-        <v>552.8614515073789</v>
+        <v>787.0670914110437</v>
       </c>
       <c r="Y2" t="n">
-        <v>286.9604071117561</v>
+        <v>787.0670914110437</v>
       </c>
     </row>
     <row r="3">
@@ -4383,7 +4383,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>187.6030350617002</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="C3" t="n">
         <v>21.05936271613333</v>
@@ -4413,46 +4413,46 @@
         <v>158.2210505399123</v>
       </c>
       <c r="L3" t="n">
-        <v>398.8245784347747</v>
+        <v>195.6857796103269</v>
       </c>
       <c r="M3" t="n">
-        <v>600.5536970360757</v>
+        <v>456.2953932224769</v>
       </c>
       <c r="N3" t="n">
-        <v>600.5536970360757</v>
+        <v>716.9050068346269</v>
       </c>
       <c r="O3" t="n">
-        <v>860.9667611285678</v>
+        <v>977.3180709271189</v>
       </c>
       <c r="P3" t="n">
-        <v>1052.968135806666</v>
+        <v>977.3180709271189</v>
       </c>
       <c r="Q3" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806667</v>
       </c>
       <c r="R3" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806667</v>
       </c>
       <c r="S3" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806667</v>
       </c>
       <c r="T3" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806667</v>
       </c>
       <c r="U3" t="n">
-        <v>1052.968135806666</v>
+        <v>824.7478070488714</v>
       </c>
       <c r="V3" t="n">
-        <v>817.8160275749237</v>
+        <v>589.5956988171288</v>
       </c>
       <c r="W3" t="n">
-        <v>563.5786708467222</v>
+        <v>335.3583420889271</v>
       </c>
       <c r="X3" t="n">
-        <v>563.5786708467222</v>
+        <v>127.5068418833943</v>
       </c>
       <c r="Y3" t="n">
-        <v>355.8183720817682</v>
+        <v>21.05936271613333</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>182.5089274706535</v>
+        <v>38.68360465423046</v>
       </c>
       <c r="C4" t="n">
-        <v>182.5089274706535</v>
+        <v>38.68360465423046</v>
       </c>
       <c r="D4" t="n">
-        <v>182.5089274706535</v>
+        <v>38.68360465423046</v>
       </c>
       <c r="E4" t="n">
-        <v>182.5089274706535</v>
+        <v>38.68360465423046</v>
       </c>
       <c r="F4" t="n">
-        <v>182.5089274706535</v>
+        <v>38.68360465423046</v>
       </c>
       <c r="G4" t="n">
-        <v>182.5089274706535</v>
+        <v>38.68360465423046</v>
       </c>
       <c r="H4" t="n">
-        <v>182.5089274706535</v>
+        <v>38.68360465423046</v>
       </c>
       <c r="I4" t="n">
-        <v>26.74885625629918</v>
+        <v>38.68360465423046</v>
       </c>
       <c r="J4" t="n">
-        <v>21.05936271613333</v>
+        <v>38.68360465423046</v>
       </c>
       <c r="K4" t="n">
         <v>21.05936271613333</v>
@@ -4510,28 +4510,28 @@
         <v>182.5089274706535</v>
       </c>
       <c r="R4" t="n">
-        <v>182.5089274706535</v>
+        <v>38.68360465423046</v>
       </c>
       <c r="S4" t="n">
-        <v>182.5089274706535</v>
+        <v>38.68360465423046</v>
       </c>
       <c r="T4" t="n">
-        <v>182.5089274706535</v>
+        <v>38.68360465423046</v>
       </c>
       <c r="U4" t="n">
-        <v>182.5089274706535</v>
+        <v>38.68360465423046</v>
       </c>
       <c r="V4" t="n">
-        <v>182.5089274706535</v>
+        <v>38.68360465423046</v>
       </c>
       <c r="W4" t="n">
-        <v>182.5089274706535</v>
+        <v>38.68360465423046</v>
       </c>
       <c r="X4" t="n">
-        <v>182.5089274706535</v>
+        <v>38.68360465423046</v>
       </c>
       <c r="Y4" t="n">
-        <v>182.5089274706535</v>
+        <v>38.68360465423046</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>286.9604071117565</v>
+        <v>787.0670914110435</v>
       </c>
       <c r="C5" t="n">
-        <v>286.9604071117565</v>
+        <v>787.0670914110435</v>
       </c>
       <c r="D5" t="n">
-        <v>21.05936271613335</v>
+        <v>787.0670914110435</v>
       </c>
       <c r="E5" t="n">
-        <v>21.05936271613335</v>
+        <v>787.0670914110435</v>
       </c>
       <c r="F5" t="n">
-        <v>21.05936271613335</v>
+        <v>521.1660470154206</v>
       </c>
       <c r="G5" t="n">
-        <v>21.05936271613335</v>
+        <v>255.2650026197978</v>
       </c>
       <c r="H5" t="n">
-        <v>21.05936271613335</v>
+        <v>230.0585164427707</v>
       </c>
       <c r="I5" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J5" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K5" t="n">
-        <v>135.7250809573683</v>
+        <v>135.7250809573682</v>
       </c>
       <c r="L5" t="n">
-        <v>330.2546714142364</v>
+        <v>330.254671414236</v>
       </c>
       <c r="M5" t="n">
-        <v>563.3128681098028</v>
+        <v>563.3128681098021</v>
       </c>
       <c r="N5" t="n">
-        <v>785.5101925369336</v>
+        <v>785.5101925369327</v>
       </c>
       <c r="O5" t="n">
-        <v>950.1371873885148</v>
+        <v>950.1371873885138</v>
       </c>
       <c r="P5" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Q5" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R5" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S5" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T5" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="U5" t="n">
-        <v>818.7624959030029</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="V5" t="n">
-        <v>552.8614515073797</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="W5" t="n">
-        <v>552.8614515073797</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="X5" t="n">
-        <v>552.8614515073797</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Y5" t="n">
-        <v>552.8614515073797</v>
+        <v>1052.968135806666</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>788.8996395660675</v>
+        <v>256.0417770661136</v>
       </c>
       <c r="C6" t="n">
-        <v>614.4466102849406</v>
+        <v>256.0417770661136</v>
       </c>
       <c r="D6" t="n">
-        <v>465.5122006236894</v>
+        <v>180.2968177215888</v>
       </c>
       <c r="E6" t="n">
-        <v>306.2747456182339</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F6" t="n">
-        <v>159.7401876451189</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G6" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H6" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I6" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J6" t="n">
-        <v>21.05936271613335</v>
+        <v>24.9501803568321</v>
       </c>
       <c r="K6" t="n">
-        <v>21.05936271613335</v>
+        <v>158.2210505399123</v>
       </c>
       <c r="L6" t="n">
-        <v>21.05936271613335</v>
+        <v>398.8245784347747</v>
       </c>
       <c r="M6" t="n">
-        <v>264.2940185443786</v>
+        <v>659.4341920469246</v>
       </c>
       <c r="N6" t="n">
-        <v>524.9036321565288</v>
+        <v>920.0438056590746</v>
       </c>
       <c r="O6" t="n">
-        <v>785.316696249021</v>
+        <v>977.3180709271187</v>
       </c>
       <c r="P6" t="n">
-        <v>977.3180709271197</v>
+        <v>977.3180709271187</v>
       </c>
       <c r="Q6" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R6" t="n">
-        <v>957.1149765861355</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S6" t="n">
-        <v>957.1149765861355</v>
+        <v>880.4795283993074</v>
       </c>
       <c r="T6" t="n">
-        <v>957.1149765861355</v>
+        <v>678.4944708143832</v>
       </c>
       <c r="U6" t="n">
-        <v>957.1149765861355</v>
+        <v>678.4944708143832</v>
       </c>
       <c r="V6" t="n">
-        <v>957.1149765861355</v>
+        <v>678.4944708143832</v>
       </c>
       <c r="W6" t="n">
-        <v>957.1149765861355</v>
+        <v>424.2571140861816</v>
       </c>
       <c r="X6" t="n">
-        <v>957.1149765861355</v>
+        <v>424.2571140861816</v>
       </c>
       <c r="Y6" t="n">
-        <v>957.1149765861355</v>
+        <v>424.2571140861816</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.05936271613335</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="C7" t="n">
-        <v>21.05936271613335</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="D7" t="n">
-        <v>21.05936271613335</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="E7" t="n">
-        <v>21.05936271613335</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="F7" t="n">
-        <v>21.05936271613335</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="G7" t="n">
-        <v>21.05936271613335</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="H7" t="n">
-        <v>21.05936271613335</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="I7" t="n">
-        <v>21.05936271613335</v>
+        <v>130.0221525919996</v>
       </c>
       <c r="J7" t="n">
-        <v>21.05936271613335</v>
+        <v>38.68360465423046</v>
       </c>
       <c r="K7" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="L7" t="n">
-        <v>54.48163939360305</v>
+        <v>54.48163939360296</v>
       </c>
       <c r="M7" t="n">
-        <v>100.1098670955241</v>
+        <v>100.1098670955239</v>
       </c>
       <c r="N7" t="n">
-        <v>150.08777394865</v>
+        <v>150.0877739486497</v>
       </c>
       <c r="O7" t="n">
-        <v>180.2341645716486</v>
+        <v>180.2341645716483</v>
       </c>
       <c r="P7" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="Q7" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="R7" t="n">
-        <v>21.05936271613335</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="S7" t="n">
-        <v>21.05936271613335</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="T7" t="n">
-        <v>21.05936271613335</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="U7" t="n">
-        <v>21.05936271613335</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="V7" t="n">
-        <v>21.05936271613335</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="W7" t="n">
-        <v>21.05936271613335</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="X7" t="n">
-        <v>21.05936271613335</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="Y7" t="n">
-        <v>21.05936271613335</v>
+        <v>182.5089274706535</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21.05936271613335</v>
+        <v>286.9604071117561</v>
       </c>
       <c r="C8" t="n">
-        <v>21.05936271613335</v>
+        <v>286.9604071117561</v>
       </c>
       <c r="D8" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E8" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F8" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G8" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H8" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I8" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J8" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K8" t="n">
-        <v>135.7250809573683</v>
+        <v>135.7250809573682</v>
       </c>
       <c r="L8" t="n">
-        <v>330.2546714142364</v>
+        <v>330.2546714142361</v>
       </c>
       <c r="M8" t="n">
-        <v>563.3128681098027</v>
+        <v>563.3128681098024</v>
       </c>
       <c r="N8" t="n">
-        <v>785.5101925369335</v>
+        <v>785.5101925369329</v>
       </c>
       <c r="O8" t="n">
-        <v>950.1371873885148</v>
+        <v>950.137187388514</v>
       </c>
       <c r="P8" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806667</v>
       </c>
       <c r="Q8" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R8" t="n">
-        <v>1031.678736260745</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S8" t="n">
-        <v>1031.678736260745</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T8" t="n">
-        <v>806.738473344685</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="U8" t="n">
-        <v>552.8614515073797</v>
+        <v>818.7624959030018</v>
       </c>
       <c r="V8" t="n">
-        <v>286.9604071117565</v>
+        <v>552.8614515073789</v>
       </c>
       <c r="W8" t="n">
-        <v>21.05936271613335</v>
+        <v>286.9604071117561</v>
       </c>
       <c r="X8" t="n">
-        <v>21.05936271613335</v>
+        <v>286.9604071117561</v>
       </c>
       <c r="Y8" t="n">
-        <v>21.05936271613335</v>
+        <v>286.9604071117561</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21.05936271613335</v>
+        <v>195.5123919972604</v>
       </c>
       <c r="C9" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="D9" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E9" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F9" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G9" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H9" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I9" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J9" t="n">
-        <v>24.95018035683217</v>
+        <v>24.9501803568321</v>
       </c>
       <c r="K9" t="n">
-        <v>30.73231659501241</v>
+        <v>24.9501803568321</v>
       </c>
       <c r="L9" t="n">
-        <v>271.335844489875</v>
+        <v>265.5537082516946</v>
       </c>
       <c r="M9" t="n">
-        <v>531.9454581020252</v>
+        <v>526.1633218638444</v>
       </c>
       <c r="N9" t="n">
-        <v>792.5550717141754</v>
+        <v>600.5536970360757</v>
       </c>
       <c r="O9" t="n">
-        <v>1052.968135806668</v>
+        <v>860.9667611285678</v>
       </c>
       <c r="P9" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Q9" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R9" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S9" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T9" t="n">
-        <v>850.9830782217434</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="U9" t="n">
-        <v>690.9085184148217</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="V9" t="n">
-        <v>690.9085184148217</v>
+        <v>1033.576884716017</v>
       </c>
       <c r="W9" t="n">
-        <v>436.6711616866201</v>
+        <v>779.3395279878151</v>
       </c>
       <c r="X9" t="n">
-        <v>228.8196614810873</v>
+        <v>571.4880277822823</v>
       </c>
       <c r="Y9" t="n">
-        <v>21.05936271613335</v>
+        <v>363.7277290173284</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.05936271613335</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="C10" t="n">
-        <v>21.05936271613335</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="D10" t="n">
-        <v>21.05936271613335</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="E10" t="n">
-        <v>21.05936271613335</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="F10" t="n">
-        <v>21.05936271613335</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="G10" t="n">
-        <v>21.05936271613335</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="H10" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I10" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J10" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K10" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="L10" t="n">
-        <v>54.48163939360305</v>
+        <v>54.48163939360296</v>
       </c>
       <c r="M10" t="n">
-        <v>100.1098670955241</v>
+        <v>100.1098670955239</v>
       </c>
       <c r="N10" t="n">
-        <v>150.08777394865</v>
+        <v>150.0877739486497</v>
       </c>
       <c r="O10" t="n">
-        <v>180.2341645716486</v>
+        <v>180.2341645716483</v>
       </c>
       <c r="P10" t="n">
-        <v>182.5089274706538</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="Q10" t="n">
-        <v>98.98668255551324</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="R10" t="n">
-        <v>21.05936271613335</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="S10" t="n">
-        <v>21.05936271613335</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="T10" t="n">
-        <v>21.05936271613335</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="U10" t="n">
-        <v>21.05936271613335</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="V10" t="n">
-        <v>21.05936271613335</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="W10" t="n">
-        <v>21.05936271613335</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="X10" t="n">
-        <v>21.05936271613335</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="Y10" t="n">
-        <v>21.05936271613335</v>
+        <v>182.5089274706535</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>552.8614515073797</v>
+        <v>787.0670914110435</v>
       </c>
       <c r="C11" t="n">
-        <v>286.9604071117565</v>
+        <v>787.0670914110435</v>
       </c>
       <c r="D11" t="n">
-        <v>21.05936271613335</v>
+        <v>787.0670914110435</v>
       </c>
       <c r="E11" t="n">
-        <v>21.05936271613335</v>
+        <v>787.0670914110435</v>
       </c>
       <c r="F11" t="n">
-        <v>21.05936271613335</v>
+        <v>521.1660470154206</v>
       </c>
       <c r="G11" t="n">
-        <v>21.05936271613335</v>
+        <v>255.2650026197978</v>
       </c>
       <c r="H11" t="n">
-        <v>21.05936271613335</v>
+        <v>140.7523333160225</v>
       </c>
       <c r="I11" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J11" t="n">
-        <v>42.29361270951665</v>
+        <v>134.1552290853497</v>
       </c>
       <c r="K11" t="n">
-        <v>124.856767284109</v>
+        <v>216.7183836599421</v>
       </c>
       <c r="L11" t="n">
-        <v>264.1854231253622</v>
+        <v>356.0470395011953</v>
       </c>
       <c r="M11" t="n">
-        <v>450.8848359507699</v>
+        <v>542.7464523266029</v>
       </c>
       <c r="N11" t="n">
-        <v>645.2190488427523</v>
+        <v>737.0806652185853</v>
       </c>
       <c r="O11" t="n">
-        <v>815.3880741597118</v>
+        <v>907.2496905355448</v>
       </c>
       <c r="P11" t="n">
-        <v>926.1223994092383</v>
+        <v>1017.984015785071</v>
       </c>
       <c r="Q11" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R11" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S11" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T11" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="U11" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="V11" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="W11" t="n">
-        <v>818.7624959030029</v>
+        <v>787.0670914110435</v>
       </c>
       <c r="X11" t="n">
-        <v>552.8614515073797</v>
+        <v>787.0670914110435</v>
       </c>
       <c r="Y11" t="n">
-        <v>552.8614515073797</v>
+        <v>787.0670914110435</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>21.05936271613335</v>
+        <v>469.1409998161117</v>
       </c>
       <c r="C12" t="n">
-        <v>21.05936271613335</v>
+        <v>294.6879705349846</v>
       </c>
       <c r="D12" t="n">
-        <v>21.05936271613335</v>
+        <v>145.7535608737334</v>
       </c>
       <c r="E12" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F12" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G12" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H12" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I12" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J12" t="n">
-        <v>21.05936271613335</v>
+        <v>139.718614573029</v>
       </c>
       <c r="K12" t="n">
-        <v>88.66718237949038</v>
+        <v>246.6455783856664</v>
       </c>
       <c r="L12" t="n">
-        <v>231.9551903165101</v>
+        <v>383.8751764013604</v>
       </c>
       <c r="M12" t="n">
-        <v>411.4525266711149</v>
+        <v>563.3725127559652</v>
       </c>
       <c r="N12" t="n">
-        <v>610.1092683237796</v>
+        <v>762.0292544086299</v>
       </c>
       <c r="O12" t="n">
-        <v>769.6215809925402</v>
+        <v>921.5415670773905</v>
       </c>
       <c r="P12" t="n">
-        <v>1030.23119460469</v>
+        <v>1030.231194604689</v>
       </c>
       <c r="Q12" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R12" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S12" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T12" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="U12" t="n">
-        <v>824.8293483178334</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="V12" t="n">
-        <v>589.6772400860907</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="W12" t="n">
-        <v>335.4398833578891</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="X12" t="n">
-        <v>127.5883831523562</v>
+        <v>845.1166356011336</v>
       </c>
       <c r="Y12" t="n">
-        <v>21.05936271613335</v>
+        <v>637.3563368361797</v>
       </c>
     </row>
     <row r="13">
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>785.2818019569586</v>
+        <v>1020.994044175478</v>
       </c>
       <c r="C13" t="n">
-        <v>616.3456190290517</v>
+        <v>852.0578612475714</v>
       </c>
       <c r="D13" t="n">
-        <v>616.3456190290517</v>
+        <v>701.9412218352356</v>
       </c>
       <c r="E13" t="n">
-        <v>468.4325254466586</v>
+        <v>554.0281282528425</v>
       </c>
       <c r="F13" t="n">
-        <v>468.4325254466586</v>
+        <v>407.1381807549321</v>
       </c>
       <c r="G13" t="n">
         <v>299.825680442042</v>
@@ -5194,10 +5194,10 @@
         <v>145.5710373418071</v>
       </c>
       <c r="I13" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J13" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K13" t="n">
         <v>122.1072923117432</v>
@@ -5221,28 +5221,28 @@
         <v>1020.994044175478</v>
       </c>
       <c r="R13" t="n">
-        <v>966.9302667871983</v>
+        <v>1020.994044175478</v>
       </c>
       <c r="S13" t="n">
-        <v>966.9302667871983</v>
+        <v>1020.994044175478</v>
       </c>
       <c r="T13" t="n">
-        <v>966.9302667871983</v>
+        <v>1020.994044175478</v>
       </c>
       <c r="U13" t="n">
-        <v>966.9302667871983</v>
+        <v>1020.994044175478</v>
       </c>
       <c r="V13" t="n">
-        <v>966.9302667871983</v>
+        <v>1020.994044175478</v>
       </c>
       <c r="W13" t="n">
-        <v>966.9302667871983</v>
+        <v>1020.994044175478</v>
       </c>
       <c r="X13" t="n">
-        <v>966.9302667871983</v>
+        <v>1020.994044175478</v>
       </c>
       <c r="Y13" t="n">
-        <v>966.9302667871983</v>
+        <v>1020.994044175478</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1052.968135806668</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="C14" t="n">
-        <v>787.0670914110444</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="D14" t="n">
-        <v>787.0670914110444</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E14" t="n">
-        <v>552.8614515073797</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F14" t="n">
-        <v>286.9604071117565</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G14" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H14" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I14" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J14" t="n">
-        <v>134.1552290853509</v>
+        <v>42.29361270951662</v>
       </c>
       <c r="K14" t="n">
-        <v>216.7183836599432</v>
+        <v>124.856767284109</v>
       </c>
       <c r="L14" t="n">
-        <v>356.0470395011964</v>
+        <v>289.7716387810277</v>
       </c>
       <c r="M14" t="n">
-        <v>542.7464523266041</v>
+        <v>476.4710516064354</v>
       </c>
       <c r="N14" t="n">
-        <v>737.0806652185864</v>
+        <v>737.0806652185853</v>
       </c>
       <c r="O14" t="n">
-        <v>907.2496905355459</v>
+        <v>907.2496905355448</v>
       </c>
       <c r="P14" t="n">
-        <v>1017.984015785072</v>
+        <v>1017.984015785071</v>
       </c>
       <c r="Q14" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R14" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S14" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T14" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="U14" t="n">
-        <v>1052.968135806668</v>
+        <v>818.7624959030018</v>
       </c>
       <c r="V14" t="n">
-        <v>1052.968135806668</v>
+        <v>818.7624959030018</v>
       </c>
       <c r="W14" t="n">
-        <v>1052.968135806668</v>
+        <v>818.7624959030018</v>
       </c>
       <c r="X14" t="n">
-        <v>1052.968135806668</v>
+        <v>552.8614515073789</v>
       </c>
       <c r="Y14" t="n">
-        <v>1052.968135806668</v>
+        <v>286.9604071117561</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>21.05936271613335</v>
+        <v>195.5123919972604</v>
       </c>
       <c r="C15" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="D15" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E15" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F15" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G15" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H15" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I15" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J15" t="n">
-        <v>21.05936271613335</v>
+        <v>139.718614573029</v>
       </c>
       <c r="K15" t="n">
-        <v>88.66718237949038</v>
+        <v>207.326434236386</v>
       </c>
       <c r="L15" t="n">
-        <v>225.8967803951844</v>
+        <v>383.8751764013604</v>
       </c>
       <c r="M15" t="n">
-        <v>405.3941167497892</v>
+        <v>563.3725127559652</v>
       </c>
       <c r="N15" t="n">
-        <v>660.9319534652413</v>
+        <v>762.0292544086299</v>
       </c>
       <c r="O15" t="n">
-        <v>921.5415670773916</v>
+        <v>921.5415670773905</v>
       </c>
       <c r="P15" t="n">
-        <v>1030.23119460469</v>
+        <v>1030.231194604689</v>
       </c>
       <c r="Q15" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R15" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S15" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T15" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="U15" t="n">
-        <v>926.0606266465645</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="V15" t="n">
-        <v>690.9085184148217</v>
+        <v>1033.576884716017</v>
       </c>
       <c r="W15" t="n">
-        <v>436.6711616866201</v>
+        <v>779.3395279878151</v>
       </c>
       <c r="X15" t="n">
-        <v>228.8196614810873</v>
+        <v>571.4880277822823</v>
       </c>
       <c r="Y15" t="n">
-        <v>21.05936271613335</v>
+        <v>363.7277290173284</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>781.1101542863247</v>
+        <v>839.3455793452385</v>
       </c>
       <c r="C16" t="n">
-        <v>781.1101542863247</v>
+        <v>670.4093964173317</v>
       </c>
       <c r="D16" t="n">
-        <v>781.1101542863247</v>
+        <v>520.2927570049959</v>
       </c>
       <c r="E16" t="n">
-        <v>633.1970607039316</v>
+        <v>372.3796634226028</v>
       </c>
       <c r="F16" t="n">
-        <v>486.3071132060212</v>
+        <v>372.3796634226028</v>
       </c>
       <c r="G16" t="n">
-        <v>317.7002682014046</v>
+        <v>203.7728184179862</v>
       </c>
       <c r="H16" t="n">
-        <v>163.4456251011697</v>
+        <v>145.5710373418071</v>
       </c>
       <c r="I16" t="n">
-        <v>38.93395047549596</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J16" t="n">
-        <v>21.05936271613335</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K16" t="n">
         <v>122.1072923117432</v>
@@ -5458,28 +5458,28 @@
         <v>1020.994044175478</v>
       </c>
       <c r="R16" t="n">
-        <v>1006.73935097396</v>
+        <v>1020.994044175478</v>
       </c>
       <c r="S16" t="n">
-        <v>1006.73935097396</v>
+        <v>1020.994044175478</v>
       </c>
       <c r="T16" t="n">
-        <v>781.1101542863247</v>
+        <v>1020.994044175478</v>
       </c>
       <c r="U16" t="n">
-        <v>781.1101542863247</v>
+        <v>1020.994044175478</v>
       </c>
       <c r="V16" t="n">
-        <v>781.1101542863247</v>
+        <v>1020.994044175478</v>
       </c>
       <c r="W16" t="n">
-        <v>781.1101542863247</v>
+        <v>1020.994044175478</v>
       </c>
       <c r="X16" t="n">
-        <v>781.1101542863247</v>
+        <v>1020.994044175478</v>
       </c>
       <c r="Y16" t="n">
-        <v>781.1101542863247</v>
+        <v>1020.994044175478</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2248.446136916521</v>
+        <v>1576.703292474627</v>
       </c>
       <c r="C17" t="n">
-        <v>1879.483619976109</v>
+        <v>1207.740775534215</v>
       </c>
       <c r="D17" t="n">
-        <v>1521.217921369358</v>
+        <v>849.4750769274647</v>
       </c>
       <c r="E17" t="n">
-        <v>1135.429668771114</v>
+        <v>463.6868243292204</v>
       </c>
       <c r="F17" t="n">
-        <v>724.4437639815067</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G17" t="n">
-        <v>307.3559822179341</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H17" t="n">
         <v>52.70091953961285</v>
@@ -5519,16 +5519,16 @@
         <v>323.9039731279416</v>
       </c>
       <c r="L17" t="n">
-        <v>876.7172313741407</v>
+        <v>472.9490071459794</v>
       </c>
       <c r="M17" t="n">
-        <v>1063.416644199549</v>
+        <v>1104.666818129291</v>
       </c>
       <c r="N17" t="n">
-        <v>1690.724312259395</v>
+        <v>1731.974486189138</v>
       </c>
       <c r="O17" t="n">
-        <v>2237.885517026472</v>
+        <v>2279.135690956215</v>
       </c>
       <c r="P17" t="n">
         <v>2389.870016205742</v>
@@ -5540,25 +5540,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S17" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T17" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="U17" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="V17" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="W17" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="X17" t="n">
-        <v>2635.045976980643</v>
+        <v>2353.44246451456</v>
       </c>
       <c r="Y17" t="n">
-        <v>2635.045976980643</v>
+        <v>1963.303132538749</v>
       </c>
     </row>
     <row r="18">
@@ -5568,10 +5568,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>966.1226039662188</v>
+        <v>966.1226039662187</v>
       </c>
       <c r="C18" t="n">
-        <v>791.6695746850918</v>
+        <v>791.6695746850917</v>
       </c>
       <c r="D18" t="n">
         <v>642.7351650238404</v>
@@ -5592,16 +5592,16 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J18" t="n">
-        <v>171.3601713965085</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K18" t="n">
-        <v>500.7885757023184</v>
+        <v>120.3087392029699</v>
       </c>
       <c r="L18" t="n">
-        <v>799.7031674253365</v>
+        <v>346.1860297752922</v>
       </c>
       <c r="M18" t="n">
-        <v>1440.248516892441</v>
+        <v>986.7313792423969</v>
       </c>
       <c r="N18" t="n">
         <v>1638.905258545106</v>
@@ -5631,10 +5631,10 @@
         <v>1804.187096684975</v>
       </c>
       <c r="W18" t="n">
-        <v>1549.949739956774</v>
+        <v>1549.949739956773</v>
       </c>
       <c r="X18" t="n">
-        <v>1342.098239751241</v>
+        <v>1342.09823975124</v>
       </c>
       <c r="Y18" t="n">
         <v>1134.337940986287</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>360.7773869882271</v>
+        <v>371.7537418798555</v>
       </c>
       <c r="C19" t="n">
-        <v>191.8412040603202</v>
+        <v>202.8175589519486</v>
       </c>
       <c r="D19" t="n">
-        <v>191.8412040603202</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E19" t="n">
-        <v>191.8412040603202</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F19" t="n">
-        <v>191.8412040603202</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G19" t="n">
-        <v>191.8412040603202</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H19" t="n">
-        <v>177.2125941652866</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I19" t="n">
         <v>52.70091953961285</v>
@@ -5695,28 +5695,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R19" t="n">
-        <v>1052.635600998958</v>
+        <v>1002.184336751643</v>
       </c>
       <c r="S19" t="n">
-        <v>1052.635600998958</v>
+        <v>1002.184336751643</v>
       </c>
       <c r="T19" t="n">
-        <v>1052.635600998958</v>
+        <v>1002.184336751643</v>
       </c>
       <c r="U19" t="n">
-        <v>1052.635600998958</v>
+        <v>1002.184336751643</v>
       </c>
       <c r="V19" t="n">
-        <v>1052.635600998958</v>
+        <v>1002.184336751643</v>
       </c>
       <c r="W19" t="n">
-        <v>763.218430961997</v>
+        <v>1002.184336751643</v>
       </c>
       <c r="X19" t="n">
-        <v>763.218430961997</v>
+        <v>774.1947858536254</v>
       </c>
       <c r="Y19" t="n">
-        <v>542.4258518184669</v>
+        <v>553.4022067100952</v>
       </c>
     </row>
     <row r="20">
@@ -5726,49 +5726,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2092.231099413349</v>
+        <v>907.7047871305651</v>
       </c>
       <c r="C20" t="n">
-        <v>1723.268582472937</v>
+        <v>907.7047871305651</v>
       </c>
       <c r="D20" t="n">
-        <v>1365.002883866187</v>
+        <v>907.7047871305651</v>
       </c>
       <c r="E20" t="n">
-        <v>979.2146312679427</v>
+        <v>907.7047871305651</v>
       </c>
       <c r="F20" t="n">
-        <v>568.2287264783351</v>
+        <v>907.7047871305651</v>
       </c>
       <c r="G20" t="n">
-        <v>151.1409447147626</v>
+        <v>490.6170053669925</v>
       </c>
       <c r="H20" t="n">
-        <v>151.1409447147626</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I20" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J20" t="n">
-        <v>73.93516953299616</v>
+        <v>241.3408185533492</v>
       </c>
       <c r="K20" t="n">
-        <v>477.4022825530416</v>
+        <v>323.9039731279416</v>
       </c>
       <c r="L20" t="n">
-        <v>1030.215540799241</v>
+        <v>463.2326289691948</v>
       </c>
       <c r="M20" t="n">
-        <v>1661.933351782553</v>
+        <v>1094.950439952506</v>
       </c>
       <c r="N20" t="n">
-        <v>2289.241019842399</v>
+        <v>1413.39376509937</v>
       </c>
       <c r="O20" t="n">
-        <v>2459.410045159359</v>
+        <v>1960.554969866447</v>
       </c>
       <c r="P20" t="n">
-        <v>2600.061856959048</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q20" t="n">
         <v>2635.045976980643</v>
@@ -5780,22 +5780,22 @@
         <v>2478.830939477471</v>
       </c>
       <c r="T20" t="n">
-        <v>2478.830939477471</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U20" t="n">
-        <v>2478.830939477471</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="V20" t="n">
-        <v>2478.830939477471</v>
+        <v>1679.276487146762</v>
       </c>
       <c r="W20" t="n">
-        <v>2478.830939477471</v>
+        <v>1326.507831876648</v>
       </c>
       <c r="X20" t="n">
-        <v>2478.830939477471</v>
+        <v>1294.304627194687</v>
       </c>
       <c r="Y20" t="n">
-        <v>2478.830939477471</v>
+        <v>1294.304627194687</v>
       </c>
     </row>
     <row r="21">
@@ -5805,55 +5805,55 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>966.1226039662188</v>
+        <v>966.1226039662183</v>
       </c>
       <c r="C21" t="n">
-        <v>791.6695746850918</v>
+        <v>791.6695746850913</v>
       </c>
       <c r="D21" t="n">
-        <v>642.7351650238404</v>
+        <v>642.73516502384</v>
       </c>
       <c r="E21" t="n">
-        <v>483.4977100183849</v>
+        <v>483.4977100183844</v>
       </c>
       <c r="F21" t="n">
-        <v>336.9631520452699</v>
+        <v>336.9631520452695</v>
       </c>
       <c r="G21" t="n">
-        <v>199.5217544044917</v>
+        <v>199.5217544044913</v>
       </c>
       <c r="H21" t="n">
-        <v>98.60577654929638</v>
+        <v>98.60577654929602</v>
       </c>
       <c r="I21" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961264</v>
       </c>
       <c r="J21" t="n">
-        <v>171.3601713965085</v>
+        <v>171.3601713965083</v>
       </c>
       <c r="K21" t="n">
-        <v>238.9679910598655</v>
+        <v>500.7885757023182</v>
       </c>
       <c r="L21" t="n">
-        <v>743.329530925984</v>
+        <v>843.4113519543012</v>
       </c>
       <c r="M21" t="n">
-        <v>1383.874880393089</v>
+        <v>1483.956701421406</v>
       </c>
       <c r="N21" t="n">
-        <v>1582.531622045753</v>
+        <v>2136.130580724115</v>
       </c>
       <c r="O21" t="n">
-        <v>2131.967630798476</v>
+        <v>2295.642893392876</v>
       </c>
       <c r="P21" t="n">
-        <v>2404.332520920175</v>
+        <v>2404.332520920174</v>
       </c>
       <c r="Q21" t="n">
-        <v>2635.045976980643</v>
+        <v>2635.045976980642</v>
       </c>
       <c r="R21" t="n">
-        <v>2613.93407738283</v>
+        <v>2613.934077382829</v>
       </c>
       <c r="S21" t="n">
         <v>2464.467288245464</v>
@@ -5862,19 +5862,19 @@
         <v>2267.477992405552</v>
       </c>
       <c r="U21" t="n">
-        <v>2039.339204916718</v>
+        <v>2039.339204916717</v>
       </c>
       <c r="V21" t="n">
         <v>1804.187096684975</v>
       </c>
       <c r="W21" t="n">
-        <v>1549.949739956774</v>
+        <v>1549.949739956773</v>
       </c>
       <c r="X21" t="n">
-        <v>1342.098239751241</v>
+        <v>1342.09823975124</v>
       </c>
       <c r="Y21" t="n">
-        <v>1134.337940986287</v>
+        <v>1134.337940986286</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1906.512917644882</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="C22" t="n">
-        <v>1906.512917644882</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D22" t="n">
-        <v>1906.512917644882</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E22" t="n">
-        <v>1906.512917644882</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F22" t="n">
-        <v>1759.622970146972</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G22" t="n">
-        <v>1759.622970146972</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H22" t="n">
-        <v>1759.622970146972</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I22" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J22" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K22" t="n">
-        <v>1736.159225116908</v>
+        <v>153.7488491352227</v>
       </c>
       <c r="L22" t="n">
-        <v>1920.992220017726</v>
+        <v>338.581844036041</v>
       </c>
       <c r="M22" t="n">
-        <v>2126.261820736964</v>
+        <v>543.851444755279</v>
       </c>
       <c r="N22" t="n">
-        <v>2332.085185573068</v>
+        <v>749.6748095913833</v>
       </c>
       <c r="O22" t="n">
-        <v>2506.180080961667</v>
+        <v>923.7697049799822</v>
       </c>
       <c r="P22" t="n">
-        <v>2631.627657560283</v>
+        <v>1049.217281578598</v>
       </c>
       <c r="Q22" t="n">
-        <v>2635.045976980643</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="R22" t="n">
-        <v>2504.568015700046</v>
+        <v>995.9801501553331</v>
       </c>
       <c r="S22" t="n">
-        <v>2297.127730952451</v>
+        <v>788.5398654077386</v>
       </c>
       <c r="T22" t="n">
-        <v>2161.197405850769</v>
+        <v>562.9106687201036</v>
       </c>
       <c r="U22" t="n">
-        <v>2161.197405850769</v>
+        <v>562.9106687201036</v>
       </c>
       <c r="V22" t="n">
-        <v>1906.512917644882</v>
+        <v>562.9106687201036</v>
       </c>
       <c r="W22" t="n">
-        <v>1906.512917644882</v>
+        <v>273.4934986831429</v>
       </c>
       <c r="X22" t="n">
-        <v>1906.512917644882</v>
+        <v>273.4934986831429</v>
       </c>
       <c r="Y22" t="n">
-        <v>1906.512917644882</v>
+        <v>52.70091953961285</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>685.2865943489212</v>
+        <v>1704.478944518417</v>
       </c>
       <c r="C23" t="n">
-        <v>316.3240774085095</v>
+        <v>1704.478944518417</v>
       </c>
       <c r="D23" t="n">
-        <v>52.70091953961286</v>
+        <v>1704.478944518417</v>
       </c>
       <c r="E23" t="n">
-        <v>52.70091953961286</v>
+        <v>1318.690691920173</v>
       </c>
       <c r="F23" t="n">
-        <v>52.70091953961286</v>
+        <v>907.7047871305651</v>
       </c>
       <c r="G23" t="n">
-        <v>52.70091953961286</v>
+        <v>490.6170053669925</v>
       </c>
       <c r="H23" t="n">
-        <v>52.70091953961286</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I23" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J23" t="n">
         <v>241.3408185533492</v>
@@ -5993,19 +5993,19 @@
         <v>644.8079315733946</v>
       </c>
       <c r="L23" t="n">
-        <v>1032.36013938198</v>
+        <v>1197.621189819594</v>
       </c>
       <c r="M23" t="n">
-        <v>1219.059552207388</v>
+        <v>1829.339000802906</v>
       </c>
       <c r="N23" t="n">
-        <v>1413.39376509937</v>
+        <v>2023.673213694888</v>
       </c>
       <c r="O23" t="n">
-        <v>1960.554969866448</v>
+        <v>2489.327531709521</v>
       </c>
       <c r="P23" t="n">
-        <v>2389.870016205742</v>
+        <v>2600.061856959047</v>
       </c>
       <c r="Q23" t="n">
         <v>2635.045976980643</v>
@@ -6017,22 +6017,22 @@
         <v>2635.045976980643</v>
       </c>
       <c r="T23" t="n">
-        <v>2420.246115248354</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="U23" t="n">
-        <v>2166.554411993505</v>
+        <v>2430.713358049611</v>
       </c>
       <c r="V23" t="n">
-        <v>1835.491524649934</v>
+        <v>2430.713358049611</v>
       </c>
       <c r="W23" t="n">
-        <v>1835.491524649934</v>
+        <v>2077.944702779497</v>
       </c>
       <c r="X23" t="n">
-        <v>1462.025766388855</v>
+        <v>1704.478944518417</v>
       </c>
       <c r="Y23" t="n">
-        <v>1071.886434413043</v>
+        <v>1704.478944518417</v>
       </c>
     </row>
     <row r="24">
@@ -6063,25 +6063,25 @@
         <v>98.60577654929637</v>
       </c>
       <c r="I24" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J24" t="n">
         <v>171.3601713965085</v>
       </c>
       <c r="K24" t="n">
-        <v>238.9679910598655</v>
+        <v>500.7885757023184</v>
       </c>
       <c r="L24" t="n">
-        <v>376.1975890755595</v>
+        <v>1005.150115568437</v>
       </c>
       <c r="M24" t="n">
-        <v>1016.742938542664</v>
+        <v>1184.647451923042</v>
       </c>
       <c r="N24" t="n">
-        <v>1668.916817845373</v>
+        <v>1430.928743686615</v>
       </c>
       <c r="O24" t="n">
-        <v>2218.352826598096</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P24" t="n">
         <v>2404.332520920175</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1635.111295521298</v>
+        <v>350.7306525343417</v>
       </c>
       <c r="C25" t="n">
-        <v>1635.111295521298</v>
+        <v>350.7306525343417</v>
       </c>
       <c r="D25" t="n">
-        <v>1635.111295521298</v>
+        <v>200.614013122006</v>
       </c>
       <c r="E25" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F25" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G25" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H25" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I25" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J25" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K25" t="n">
-        <v>1736.159225116908</v>
+        <v>153.7488491352227</v>
       </c>
       <c r="L25" t="n">
-        <v>1920.992220017726</v>
+        <v>338.581844036041</v>
       </c>
       <c r="M25" t="n">
-        <v>2126.261820736964</v>
+        <v>543.851444755279</v>
       </c>
       <c r="N25" t="n">
-        <v>2332.085185573068</v>
+        <v>749.6748095913833</v>
       </c>
       <c r="O25" t="n">
-        <v>2506.180080961667</v>
+        <v>923.7697049799822</v>
       </c>
       <c r="P25" t="n">
-        <v>2631.627657560283</v>
+        <v>1049.217281578598</v>
       </c>
       <c r="Q25" t="n">
-        <v>2635.045976980643</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="R25" t="n">
-        <v>2612.017441584735</v>
+        <v>929.2999989936227</v>
       </c>
       <c r="S25" t="n">
-        <v>2404.57715683714</v>
+        <v>929.2999989936227</v>
       </c>
       <c r="T25" t="n">
-        <v>2178.947960149505</v>
+        <v>929.2999989936227</v>
       </c>
       <c r="U25" t="n">
-        <v>1889.795783727185</v>
+        <v>640.1478225713024</v>
       </c>
       <c r="V25" t="n">
-        <v>1635.111295521298</v>
+        <v>640.1478225713024</v>
       </c>
       <c r="W25" t="n">
-        <v>1635.111295521298</v>
+        <v>350.7306525343417</v>
       </c>
       <c r="X25" t="n">
-        <v>1635.111295521298</v>
+        <v>350.7306525343417</v>
       </c>
       <c r="Y25" t="n">
-        <v>1635.111295521298</v>
+        <v>350.7306525343417</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1484.84104667963</v>
+        <v>779.9291350867751</v>
       </c>
       <c r="C26" t="n">
-        <v>1115.878529739218</v>
+        <v>410.9666181463634</v>
       </c>
       <c r="D26" t="n">
-        <v>1115.878529739218</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E26" t="n">
-        <v>730.0902771409737</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F26" t="n">
-        <v>319.1043723513662</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G26" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H26" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I26" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J26" t="n">
         <v>241.3408185533492</v>
@@ -6239,7 +6239,7 @@
         <v>1413.39376509937</v>
       </c>
       <c r="O26" t="n">
-        <v>1960.554969866448</v>
+        <v>1960.554969866447</v>
       </c>
       <c r="P26" t="n">
         <v>2389.870016205742</v>
@@ -6254,22 +6254,22 @@
         <v>2635.045976980643</v>
       </c>
       <c r="T26" t="n">
-        <v>2635.045976980643</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="U26" t="n">
-        <v>2635.045976980643</v>
+        <v>2166.554411993505</v>
       </c>
       <c r="V26" t="n">
-        <v>2635.045976980643</v>
+        <v>1835.491524649934</v>
       </c>
       <c r="W26" t="n">
-        <v>2635.045976980643</v>
+        <v>1482.72286937982</v>
       </c>
       <c r="X26" t="n">
-        <v>2261.580218719563</v>
+        <v>1109.25711111874</v>
       </c>
       <c r="Y26" t="n">
-        <v>1871.440886743751</v>
+        <v>1109.25711111874</v>
       </c>
     </row>
     <row r="27">
@@ -6279,55 +6279,55 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>966.1226039662188</v>
+        <v>966.1226039662183</v>
       </c>
       <c r="C27" t="n">
-        <v>791.6695746850918</v>
+        <v>791.6695746850913</v>
       </c>
       <c r="D27" t="n">
-        <v>642.7351650238404</v>
+        <v>642.73516502384</v>
       </c>
       <c r="E27" t="n">
-        <v>483.4977100183849</v>
+        <v>483.4977100183844</v>
       </c>
       <c r="F27" t="n">
-        <v>336.9631520452699</v>
+        <v>336.9631520452695</v>
       </c>
       <c r="G27" t="n">
-        <v>199.5217544044917</v>
+        <v>199.5217544044913</v>
       </c>
       <c r="H27" t="n">
-        <v>98.60577654929638</v>
+        <v>98.60577654929602</v>
       </c>
       <c r="I27" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961264</v>
       </c>
       <c r="J27" t="n">
-        <v>171.3601713965085</v>
+        <v>171.3601713965083</v>
       </c>
       <c r="K27" t="n">
-        <v>402.6432536542655</v>
+        <v>238.9679910598653</v>
       </c>
       <c r="L27" t="n">
-        <v>907.0047935203841</v>
+        <v>376.1975890755593</v>
       </c>
       <c r="M27" t="n">
-        <v>1547.550142987489</v>
+        <v>1016.742938542664</v>
       </c>
       <c r="N27" t="n">
-        <v>1746.206884640153</v>
+        <v>1668.916817845373</v>
       </c>
       <c r="O27" t="n">
-        <v>2295.642893392876</v>
+        <v>2218.352826598096</v>
       </c>
       <c r="P27" t="n">
-        <v>2404.332520920175</v>
+        <v>2404.332520920174</v>
       </c>
       <c r="Q27" t="n">
-        <v>2635.045976980643</v>
+        <v>2635.045976980642</v>
       </c>
       <c r="R27" t="n">
-        <v>2613.93407738283</v>
+        <v>2613.934077382829</v>
       </c>
       <c r="S27" t="n">
         <v>2464.467288245464</v>
@@ -6336,19 +6336,19 @@
         <v>2267.477992405552</v>
       </c>
       <c r="U27" t="n">
-        <v>2039.339204916718</v>
+        <v>2039.339204916717</v>
       </c>
       <c r="V27" t="n">
         <v>1804.187096684975</v>
       </c>
       <c r="W27" t="n">
-        <v>1549.949739956774</v>
+        <v>1549.949739956773</v>
       </c>
       <c r="X27" t="n">
-        <v>1342.098239751241</v>
+        <v>1342.09823975124</v>
       </c>
       <c r="Y27" t="n">
-        <v>1134.337940986287</v>
+        <v>1134.337940986286</v>
       </c>
     </row>
     <row r="28">
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>519.6668354622486</v>
+        <v>944.9937627627774</v>
       </c>
       <c r="C28" t="n">
-        <v>350.7306525343417</v>
+        <v>944.9937627627774</v>
       </c>
       <c r="D28" t="n">
-        <v>200.614013122006</v>
+        <v>794.8771233504416</v>
       </c>
       <c r="E28" t="n">
-        <v>52.70091953961286</v>
+        <v>646.9640297680485</v>
       </c>
       <c r="F28" t="n">
-        <v>52.70091953961286</v>
+        <v>500.0740822701381</v>
       </c>
       <c r="G28" t="n">
-        <v>52.70091953961286</v>
+        <v>331.4672372655215</v>
       </c>
       <c r="H28" t="n">
-        <v>52.70091953961286</v>
+        <v>177.2125941652866</v>
       </c>
       <c r="I28" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J28" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K28" t="n">
         <v>153.7488491352227</v>
@@ -6406,28 +6406,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R28" t="n">
-        <v>990.4674767148085</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S28" t="n">
-        <v>990.4674767148085</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T28" t="n">
-        <v>990.4674767148085</v>
+        <v>944.9937627627774</v>
       </c>
       <c r="U28" t="n">
-        <v>701.3153002924884</v>
+        <v>944.9937627627774</v>
       </c>
       <c r="V28" t="n">
-        <v>701.3153002924884</v>
+        <v>944.9937627627774</v>
       </c>
       <c r="W28" t="n">
-        <v>701.3153002924884</v>
+        <v>944.9937627627774</v>
       </c>
       <c r="X28" t="n">
-        <v>701.3153002924884</v>
+        <v>944.9937627627774</v>
       </c>
       <c r="Y28" t="n">
-        <v>701.3153002924884</v>
+        <v>944.9937627627774</v>
       </c>
     </row>
     <row r="29">
@@ -6437,49 +6437,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1165.717387685019</v>
+        <v>1207.740775534215</v>
       </c>
       <c r="C29" t="n">
-        <v>796.7548707446076</v>
+        <v>1207.740775534215</v>
       </c>
       <c r="D29" t="n">
-        <v>438.4891721378571</v>
+        <v>849.4750769274647</v>
       </c>
       <c r="E29" t="n">
-        <v>52.70091953961286</v>
+        <v>463.6868243292204</v>
       </c>
       <c r="F29" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G29" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H29" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I29" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J29" t="n">
         <v>241.3408185533492</v>
       </c>
       <c r="K29" t="n">
-        <v>323.9039731279416</v>
+        <v>507.319769103204</v>
       </c>
       <c r="L29" t="n">
-        <v>876.7172313741407</v>
+        <v>1060.133027349403</v>
       </c>
       <c r="M29" t="n">
-        <v>1063.416644199549</v>
+        <v>1691.850838332715</v>
       </c>
       <c r="N29" t="n">
-        <v>1413.39376509937</v>
+        <v>2319.158506392561</v>
       </c>
       <c r="O29" t="n">
-        <v>1960.554969866448</v>
+        <v>2489.327531709521</v>
       </c>
       <c r="P29" t="n">
-        <v>2389.870016205742</v>
+        <v>2600.061856959047</v>
       </c>
       <c r="Q29" t="n">
         <v>2635.045976980643</v>
@@ -6488,25 +6488,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S29" t="n">
-        <v>2635.045976980643</v>
+        <v>2574.26673238438</v>
       </c>
       <c r="T29" t="n">
-        <v>2635.045976980643</v>
+        <v>2574.26673238438</v>
       </c>
       <c r="U29" t="n">
-        <v>2635.045976980643</v>
+        <v>2320.575029129531</v>
       </c>
       <c r="V29" t="n">
-        <v>2635.045976980643</v>
+        <v>2320.575029129531</v>
       </c>
       <c r="W29" t="n">
-        <v>2315.922317986033</v>
+        <v>1967.806373859417</v>
       </c>
       <c r="X29" t="n">
-        <v>1942.456559724953</v>
+        <v>1594.340615598337</v>
       </c>
       <c r="Y29" t="n">
-        <v>1552.317227749141</v>
+        <v>1594.340615598337</v>
       </c>
     </row>
     <row r="30">
@@ -6516,55 +6516,55 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>966.1226039662188</v>
+        <v>966.1226039662183</v>
       </c>
       <c r="C30" t="n">
-        <v>791.6695746850918</v>
+        <v>791.6695746850913</v>
       </c>
       <c r="D30" t="n">
-        <v>642.7351650238404</v>
+        <v>642.73516502384</v>
       </c>
       <c r="E30" t="n">
-        <v>483.4977100183849</v>
+        <v>483.4977100183844</v>
       </c>
       <c r="F30" t="n">
-        <v>336.9631520452699</v>
+        <v>336.9631520452695</v>
       </c>
       <c r="G30" t="n">
-        <v>199.5217544044917</v>
+        <v>199.5217544044913</v>
       </c>
       <c r="H30" t="n">
-        <v>98.60577654929637</v>
+        <v>98.60577654929602</v>
       </c>
       <c r="I30" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961264</v>
       </c>
       <c r="J30" t="n">
-        <v>171.3601713965085</v>
+        <v>171.3601713965083</v>
       </c>
       <c r="K30" t="n">
-        <v>390.9036129850703</v>
+        <v>500.7885757023182</v>
       </c>
       <c r="L30" t="n">
-        <v>528.1332110007643</v>
+        <v>736.109725859254</v>
       </c>
       <c r="M30" t="n">
-        <v>1168.678560467869</v>
+        <v>1376.655075326359</v>
       </c>
       <c r="N30" t="n">
-        <v>1820.852439770578</v>
+        <v>2028.828954629068</v>
       </c>
       <c r="O30" t="n">
-        <v>1980.364752439339</v>
+        <v>2188.341267297828</v>
       </c>
       <c r="P30" t="n">
-        <v>2404.332520920175</v>
+        <v>2612.309035778665</v>
       </c>
       <c r="Q30" t="n">
-        <v>2635.045976980643</v>
+        <v>2635.045976980642</v>
       </c>
       <c r="R30" t="n">
-        <v>2613.93407738283</v>
+        <v>2613.934077382829</v>
       </c>
       <c r="S30" t="n">
         <v>2464.467288245464</v>
@@ -6573,19 +6573,19 @@
         <v>2267.477992405552</v>
       </c>
       <c r="U30" t="n">
-        <v>2039.339204916718</v>
+        <v>2039.339204916717</v>
       </c>
       <c r="V30" t="n">
         <v>1804.187096684975</v>
       </c>
       <c r="W30" t="n">
-        <v>1549.949739956774</v>
+        <v>1549.949739956773</v>
       </c>
       <c r="X30" t="n">
-        <v>1342.098239751241</v>
+        <v>1342.09823975124</v>
       </c>
       <c r="Y30" t="n">
-        <v>1134.337940986287</v>
+        <v>1134.337940986286</v>
       </c>
     </row>
     <row r="31">
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>603.8534709574102</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="C31" t="n">
-        <v>603.8534709574102</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D31" t="n">
-        <v>453.7368315450744</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E31" t="n">
-        <v>305.8237379626813</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F31" t="n">
-        <v>305.8237379626813</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G31" t="n">
-        <v>305.8237379626813</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H31" t="n">
-        <v>151.5690948624464</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I31" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J31" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K31" t="n">
         <v>153.7488491352227</v>
@@ -6646,25 +6646,25 @@
         <v>1052.635600998958</v>
       </c>
       <c r="S31" t="n">
-        <v>1052.635600998958</v>
+        <v>845.195316251363</v>
       </c>
       <c r="T31" t="n">
-        <v>1052.635600998958</v>
+        <v>619.566119563728</v>
       </c>
       <c r="U31" t="n">
-        <v>1052.635600998958</v>
+        <v>489.0338725757395</v>
       </c>
       <c r="V31" t="n">
-        <v>1052.635600998958</v>
+        <v>234.3493843698525</v>
       </c>
       <c r="W31" t="n">
-        <v>1052.635600998958</v>
+        <v>234.3493843698525</v>
       </c>
       <c r="X31" t="n">
-        <v>824.6460501009403</v>
+        <v>234.3493843698525</v>
       </c>
       <c r="Y31" t="n">
-        <v>603.8534709574102</v>
+        <v>234.3493843698525</v>
       </c>
     </row>
     <row r="32">
@@ -6674,46 +6674,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1527.243917597139</v>
+        <v>1576.703292474627</v>
       </c>
       <c r="C32" t="n">
-        <v>1527.243917597139</v>
+        <v>1207.740775534215</v>
       </c>
       <c r="D32" t="n">
-        <v>1168.978218990388</v>
+        <v>849.4750769274647</v>
       </c>
       <c r="E32" t="n">
-        <v>783.189966392144</v>
+        <v>463.6868243292204</v>
       </c>
       <c r="F32" t="n">
-        <v>372.2040616025365</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G32" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H32" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I32" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J32" t="n">
         <v>241.3408185533492</v>
       </c>
       <c r="K32" t="n">
-        <v>323.9039731279416</v>
+        <v>644.8079315733946</v>
       </c>
       <c r="L32" t="n">
-        <v>876.7172313741407</v>
+        <v>964.3339206741936</v>
       </c>
       <c r="M32" t="n">
-        <v>1063.416644199549</v>
+        <v>1596.051731657505</v>
       </c>
       <c r="N32" t="n">
-        <v>1690.724312259395</v>
+        <v>1790.385944549488</v>
       </c>
       <c r="O32" t="n">
-        <v>2237.885517026472</v>
+        <v>1960.554969866447</v>
       </c>
       <c r="P32" t="n">
         <v>2389.870016205742</v>
@@ -6728,22 +6728,22 @@
         <v>2635.045976980643</v>
       </c>
       <c r="T32" t="n">
-        <v>2635.045976980643</v>
+        <v>2514.22653834316</v>
       </c>
       <c r="U32" t="n">
-        <v>2635.045976980643</v>
+        <v>2260.534835088311</v>
       </c>
       <c r="V32" t="n">
-        <v>2303.983089637072</v>
+        <v>1929.471947744741</v>
       </c>
       <c r="W32" t="n">
-        <v>2303.983089637072</v>
+        <v>1576.703292474627</v>
       </c>
       <c r="X32" t="n">
-        <v>2303.983089637072</v>
+        <v>1576.703292474627</v>
       </c>
       <c r="Y32" t="n">
-        <v>1913.84375766126</v>
+        <v>1576.703292474627</v>
       </c>
     </row>
     <row r="33">
@@ -6753,10 +6753,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>966.1226039662188</v>
+        <v>966.1226039662187</v>
       </c>
       <c r="C33" t="n">
-        <v>791.6695746850918</v>
+        <v>791.6695746850917</v>
       </c>
       <c r="D33" t="n">
         <v>642.7351650238404</v>
@@ -6768,31 +6768,31 @@
         <v>336.9631520452699</v>
       </c>
       <c r="G33" t="n">
-        <v>199.5217544044917</v>
+        <v>199.5217544044918</v>
       </c>
       <c r="H33" t="n">
         <v>98.60577654929637</v>
       </c>
       <c r="I33" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J33" t="n">
         <v>171.3601713965085</v>
       </c>
       <c r="K33" t="n">
-        <v>500.7885757023184</v>
+        <v>238.9679910598655</v>
       </c>
       <c r="L33" t="n">
-        <v>638.0181737180123</v>
+        <v>743.329530925984</v>
       </c>
       <c r="M33" t="n">
-        <v>1278.563523185117</v>
+        <v>1383.874880393089</v>
       </c>
       <c r="N33" t="n">
-        <v>1930.737402487826</v>
+        <v>1746.206884640153</v>
       </c>
       <c r="O33" t="n">
-        <v>2090.249715156587</v>
+        <v>2295.642893392876</v>
       </c>
       <c r="P33" t="n">
         <v>2404.332520920175</v>
@@ -6801,7 +6801,7 @@
         <v>2635.045976980643</v>
       </c>
       <c r="R33" t="n">
-        <v>2613.93407738283</v>
+        <v>2613.934077382829</v>
       </c>
       <c r="S33" t="n">
         <v>2464.467288245464</v>
@@ -6816,10 +6816,10 @@
         <v>1804.187096684975</v>
       </c>
       <c r="W33" t="n">
-        <v>1549.949739956774</v>
+        <v>1549.949739956773</v>
       </c>
       <c r="X33" t="n">
-        <v>1342.098239751241</v>
+        <v>1342.09823975124</v>
       </c>
       <c r="Y33" t="n">
         <v>1134.337940986287</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2635.045976980643</v>
+        <v>2248.637821018553</v>
       </c>
       <c r="C34" t="n">
-        <v>2466.109794052736</v>
+        <v>2248.637821018553</v>
       </c>
       <c r="D34" t="n">
-        <v>2315.9931546404</v>
+        <v>2098.521181606217</v>
       </c>
       <c r="E34" t="n">
-        <v>2168.080061058007</v>
+        <v>1950.608088023824</v>
       </c>
       <c r="F34" t="n">
-        <v>2021.190113560097</v>
+        <v>1803.718140525914</v>
       </c>
       <c r="G34" t="n">
-        <v>1931.752201006569</v>
+        <v>1635.111295521298</v>
       </c>
       <c r="H34" t="n">
-        <v>1777.497557906334</v>
+        <v>1635.111295521298</v>
       </c>
       <c r="I34" t="n">
-        <v>1652.985883280661</v>
+        <v>1635.111295521298</v>
       </c>
       <c r="J34" t="n">
         <v>1635.111295521298</v>
       </c>
       <c r="K34" t="n">
-        <v>1736.159225116908</v>
+        <v>1736.159225116907</v>
       </c>
       <c r="L34" t="n">
         <v>1920.992220017726</v>
@@ -6886,22 +6886,22 @@
         <v>2635.045976980643</v>
       </c>
       <c r="T34" t="n">
-        <v>2635.045976980643</v>
+        <v>2503.32230922444</v>
       </c>
       <c r="U34" t="n">
-        <v>2635.045976980643</v>
+        <v>2503.32230922444</v>
       </c>
       <c r="V34" t="n">
-        <v>2635.045976980643</v>
+        <v>2248.637821018553</v>
       </c>
       <c r="W34" t="n">
-        <v>2635.045976980643</v>
+        <v>2248.637821018553</v>
       </c>
       <c r="X34" t="n">
-        <v>2635.045976980643</v>
+        <v>2248.637821018553</v>
       </c>
       <c r="Y34" t="n">
-        <v>2635.045976980643</v>
+        <v>2248.637821018553</v>
       </c>
     </row>
     <row r="35">
@@ -6911,49 +6911,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1871.440886743751</v>
+        <v>2431.707160065579</v>
       </c>
       <c r="C35" t="n">
-        <v>1502.47836980334</v>
+        <v>2062.744643125167</v>
       </c>
       <c r="D35" t="n">
-        <v>1266.562858691037</v>
+        <v>1704.478944518417</v>
       </c>
       <c r="E35" t="n">
-        <v>880.774606092793</v>
+        <v>1318.690691920173</v>
       </c>
       <c r="F35" t="n">
-        <v>469.7887013031854</v>
+        <v>907.7047871305651</v>
       </c>
       <c r="G35" t="n">
-        <v>52.70091953961286</v>
+        <v>490.6170053669925</v>
       </c>
       <c r="H35" t="n">
-        <v>52.70091953961286</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I35" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J35" t="n">
         <v>241.3408185533492</v>
       </c>
       <c r="K35" t="n">
-        <v>423.5656054180348</v>
+        <v>563.30104482095</v>
       </c>
       <c r="L35" t="n">
-        <v>976.378863664234</v>
+        <v>1116.114303067149</v>
       </c>
       <c r="M35" t="n">
-        <v>1163.078276489642</v>
+        <v>1747.832114050461</v>
       </c>
       <c r="N35" t="n">
-        <v>1790.385944549488</v>
+        <v>1942.166326942443</v>
       </c>
       <c r="O35" t="n">
-        <v>1960.554969866448</v>
+        <v>2489.327531709521</v>
       </c>
       <c r="P35" t="n">
-        <v>2389.870016205742</v>
+        <v>2600.061856959047</v>
       </c>
       <c r="Q35" t="n">
         <v>2635.045976980643</v>
@@ -6977,10 +6977,10 @@
         <v>2635.045976980643</v>
       </c>
       <c r="X35" t="n">
-        <v>2261.580218719563</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="Y35" t="n">
-        <v>1871.440886743751</v>
+        <v>2635.045976980643</v>
       </c>
     </row>
     <row r="36">
@@ -6990,10 +6990,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>966.1226039662188</v>
+        <v>966.1226039662187</v>
       </c>
       <c r="C36" t="n">
-        <v>791.6695746850918</v>
+        <v>791.6695746850917</v>
       </c>
       <c r="D36" t="n">
         <v>642.7351650238404</v>
@@ -7005,13 +7005,13 @@
         <v>336.9631520452699</v>
       </c>
       <c r="G36" t="n">
-        <v>199.5217544044917</v>
+        <v>199.5217544044918</v>
       </c>
       <c r="H36" t="n">
-        <v>98.60577654929638</v>
+        <v>98.60577654929637</v>
       </c>
       <c r="I36" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J36" t="n">
         <v>171.3601713965085</v>
@@ -7020,10 +7020,10 @@
         <v>238.9679910598655</v>
       </c>
       <c r="L36" t="n">
-        <v>453.4876558703397</v>
+        <v>743.329530925984</v>
       </c>
       <c r="M36" t="n">
-        <v>1094.033005337444</v>
+        <v>1383.874880393089</v>
       </c>
       <c r="N36" t="n">
         <v>1746.206884640153</v>
@@ -7038,7 +7038,7 @@
         <v>2635.045976980643</v>
       </c>
       <c r="R36" t="n">
-        <v>2613.93407738283</v>
+        <v>2613.934077382829</v>
       </c>
       <c r="S36" t="n">
         <v>2464.467288245464</v>
@@ -7053,10 +7053,10 @@
         <v>1804.187096684975</v>
       </c>
       <c r="W36" t="n">
-        <v>1549.949739956774</v>
+        <v>1549.949739956773</v>
       </c>
       <c r="X36" t="n">
-        <v>1342.098239751241</v>
+        <v>1342.09823975124</v>
       </c>
       <c r="Y36" t="n">
         <v>1134.337940986287</v>
@@ -7072,28 +7072,28 @@
         <v>221.6371024675198</v>
       </c>
       <c r="C37" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D37" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E37" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F37" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G37" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H37" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I37" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J37" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K37" t="n">
         <v>153.7488491352227</v>
@@ -7126,19 +7126,19 @@
         <v>1052.635600998958</v>
       </c>
       <c r="U37" t="n">
-        <v>925.1037207149541</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="V37" t="n">
-        <v>670.4192325090672</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="W37" t="n">
-        <v>670.4192325090672</v>
+        <v>852.067697339307</v>
       </c>
       <c r="X37" t="n">
-        <v>442.4296816110499</v>
+        <v>624.0781464412896</v>
       </c>
       <c r="Y37" t="n">
-        <v>221.6371024675198</v>
+        <v>403.2855672977595</v>
       </c>
     </row>
     <row r="38">
@@ -7148,49 +7148,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>490.6170053669925</v>
+        <v>1635.525375631449</v>
       </c>
       <c r="C38" t="n">
-        <v>490.6170053669925</v>
+        <v>1266.562858691037</v>
       </c>
       <c r="D38" t="n">
-        <v>490.6170053669925</v>
+        <v>1266.562858691037</v>
       </c>
       <c r="E38" t="n">
-        <v>490.6170053669925</v>
+        <v>880.774606092793</v>
       </c>
       <c r="F38" t="n">
-        <v>490.6170053669925</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="G38" t="n">
-        <v>490.6170053669925</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H38" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I38" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J38" t="n">
-        <v>73.93516953299616</v>
+        <v>241.3408185533492</v>
       </c>
       <c r="K38" t="n">
-        <v>156.4983241075885</v>
+        <v>644.8079315733946</v>
       </c>
       <c r="L38" t="n">
-        <v>709.3115823537878</v>
+        <v>1060.133027349403</v>
       </c>
       <c r="M38" t="n">
-        <v>1341.029393337099</v>
+        <v>1691.850838332715</v>
       </c>
       <c r="N38" t="n">
-        <v>1968.337061396946</v>
+        <v>2319.158506392561</v>
       </c>
       <c r="O38" t="n">
         <v>2489.327531709521</v>
       </c>
       <c r="P38" t="n">
-        <v>2600.061856959048</v>
+        <v>2600.061856959047</v>
       </c>
       <c r="Q38" t="n">
         <v>2635.045976980643</v>
@@ -7199,25 +7199,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S38" t="n">
-        <v>2578.34518153654</v>
+        <v>2490.616780682708</v>
       </c>
       <c r="T38" t="n">
-        <v>2578.34518153654</v>
+        <v>2275.81691895042</v>
       </c>
       <c r="U38" t="n">
-        <v>2324.653478281691</v>
+        <v>2022.125215695571</v>
       </c>
       <c r="V38" t="n">
-        <v>1993.59059093812</v>
+        <v>2022.125215695571</v>
       </c>
       <c r="W38" t="n">
-        <v>1640.821935668006</v>
+        <v>2022.125215695571</v>
       </c>
       <c r="X38" t="n">
-        <v>1267.356177406926</v>
+        <v>2022.125215695571</v>
       </c>
       <c r="Y38" t="n">
-        <v>877.2168454311143</v>
+        <v>2022.125215695571</v>
       </c>
     </row>
     <row r="39">
@@ -7227,10 +7227,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>966.1226039662187</v>
+        <v>966.1226039662188</v>
       </c>
       <c r="C39" t="n">
-        <v>791.6695746850917</v>
+        <v>791.6695746850918</v>
       </c>
       <c r="D39" t="n">
         <v>642.7351650238404</v>
@@ -7248,28 +7248,28 @@
         <v>98.60577654929637</v>
       </c>
       <c r="I39" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J39" t="n">
-        <v>52.70091953961286</v>
+        <v>171.3601713965085</v>
       </c>
       <c r="K39" t="n">
-        <v>120.3087392029699</v>
+        <v>238.9679910598655</v>
       </c>
       <c r="L39" t="n">
-        <v>624.6702790690885</v>
+        <v>376.1975890755595</v>
       </c>
       <c r="M39" t="n">
-        <v>1265.215628536193</v>
+        <v>1016.742938542664</v>
       </c>
       <c r="N39" t="n">
-        <v>1917.389507838902</v>
+        <v>1668.916817845373</v>
       </c>
       <c r="O39" t="n">
-        <v>2466.825516591625</v>
+        <v>2218.352826598096</v>
       </c>
       <c r="P39" t="n">
-        <v>2612.309035778666</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q39" t="n">
         <v>2635.045976980643</v>
@@ -7290,10 +7290,10 @@
         <v>1804.187096684975</v>
       </c>
       <c r="W39" t="n">
-        <v>1549.949739956773</v>
+        <v>1549.949739956774</v>
       </c>
       <c r="X39" t="n">
-        <v>1342.09823975124</v>
+        <v>1342.098239751241</v>
       </c>
       <c r="Y39" t="n">
         <v>1134.337940986287</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>493.0387245911038</v>
+        <v>1635.111295521298</v>
       </c>
       <c r="C40" t="n">
-        <v>324.1025416631969</v>
+        <v>1635.111295521298</v>
       </c>
       <c r="D40" t="n">
-        <v>324.1025416631969</v>
+        <v>1635.111295521298</v>
       </c>
       <c r="E40" t="n">
-        <v>324.1025416631969</v>
+        <v>1635.111295521298</v>
       </c>
       <c r="F40" t="n">
-        <v>177.2125941652866</v>
+        <v>1635.111295521298</v>
       </c>
       <c r="G40" t="n">
-        <v>177.2125941652866</v>
+        <v>1635.111295521298</v>
       </c>
       <c r="H40" t="n">
-        <v>177.2125941652866</v>
+        <v>1635.111295521298</v>
       </c>
       <c r="I40" t="n">
-        <v>52.70091953961286</v>
+        <v>1635.111295521298</v>
       </c>
       <c r="J40" t="n">
-        <v>52.70091953961286</v>
+        <v>1635.111295521298</v>
       </c>
       <c r="K40" t="n">
-        <v>153.7488491352227</v>
+        <v>1736.159225116907</v>
       </c>
       <c r="L40" t="n">
-        <v>338.581844036041</v>
+        <v>1920.992220017726</v>
       </c>
       <c r="M40" t="n">
-        <v>543.851444755279</v>
+        <v>2126.261820736964</v>
       </c>
       <c r="N40" t="n">
-        <v>749.6748095913833</v>
+        <v>2332.085185573068</v>
       </c>
       <c r="O40" t="n">
-        <v>923.7697049799822</v>
+        <v>2506.180080961667</v>
       </c>
       <c r="P40" t="n">
-        <v>1049.217281578598</v>
+        <v>2631.627657560283</v>
       </c>
       <c r="Q40" t="n">
-        <v>1052.635600998958</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R40" t="n">
-        <v>1052.635600998958</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="S40" t="n">
-        <v>1007.820097701059</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T40" t="n">
-        <v>782.1909010134241</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="U40" t="n">
-        <v>493.0387245911038</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="V40" t="n">
-        <v>493.0387245911038</v>
+        <v>2380.361488774756</v>
       </c>
       <c r="W40" t="n">
-        <v>493.0387245911038</v>
+        <v>2090.944318737795</v>
       </c>
       <c r="X40" t="n">
-        <v>493.0387245911038</v>
+        <v>1862.954767839778</v>
       </c>
       <c r="Y40" t="n">
-        <v>493.0387245911038</v>
+        <v>1642.162188696248</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>286.9604071117566</v>
+        <v>521.1660470154206</v>
       </c>
       <c r="C41" t="n">
-        <v>286.9604071117566</v>
+        <v>521.1660470154206</v>
       </c>
       <c r="D41" t="n">
-        <v>286.9604071117566</v>
+        <v>521.1660470154206</v>
       </c>
       <c r="E41" t="n">
-        <v>286.9604071117566</v>
+        <v>521.1660470154206</v>
       </c>
       <c r="F41" t="n">
-        <v>286.9604071117566</v>
+        <v>255.2650026197978</v>
       </c>
       <c r="G41" t="n">
-        <v>286.9604071117566</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H41" t="n">
-        <v>21.05936271613336</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I41" t="n">
-        <v>21.05936271613336</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J41" t="n">
-        <v>42.29361270951666</v>
+        <v>42.29361270951662</v>
       </c>
       <c r="K41" t="n">
         <v>124.856767284109</v>
       </c>
       <c r="L41" t="n">
-        <v>264.1854231253622</v>
+        <v>356.0470395011953</v>
       </c>
       <c r="M41" t="n">
-        <v>450.8848359507699</v>
+        <v>542.7464523266029</v>
       </c>
       <c r="N41" t="n">
-        <v>645.2190488427523</v>
+        <v>737.0806652185853</v>
       </c>
       <c r="O41" t="n">
-        <v>815.3880741597118</v>
+        <v>907.2496905355448</v>
       </c>
       <c r="P41" t="n">
-        <v>926.1223994092383</v>
+        <v>1017.984015785071</v>
       </c>
       <c r="Q41" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R41" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S41" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T41" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="U41" t="n">
-        <v>818.7624959030031</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="V41" t="n">
-        <v>552.8614515073799</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="W41" t="n">
-        <v>286.9604071117566</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="X41" t="n">
-        <v>286.9604071117566</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Y41" t="n">
-        <v>286.9604071117566</v>
+        <v>787.0670914110435</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>503.6842566639672</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="C42" t="n">
-        <v>329.2312273828401</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="D42" t="n">
-        <v>180.2968177215889</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E42" t="n">
-        <v>21.05936271613336</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F42" t="n">
-        <v>21.05936271613336</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G42" t="n">
-        <v>21.05936271613336</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H42" t="n">
-        <v>21.05936271613336</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I42" t="n">
-        <v>21.05936271613336</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J42" t="n">
-        <v>139.718614573029</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K42" t="n">
-        <v>207.326434236386</v>
+        <v>88.66718237949036</v>
       </c>
       <c r="L42" t="n">
-        <v>383.875176401362</v>
+        <v>225.8967803951843</v>
       </c>
       <c r="M42" t="n">
-        <v>563.3725127559668</v>
+        <v>486.5063940073343</v>
       </c>
       <c r="N42" t="n">
-        <v>762.0292544086315</v>
+        <v>685.1631356599989</v>
       </c>
       <c r="O42" t="n">
-        <v>921.5415670773921</v>
+        <v>921.5415670773905</v>
       </c>
       <c r="P42" t="n">
-        <v>1030.231194604691</v>
+        <v>1030.231194604689</v>
       </c>
       <c r="Q42" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R42" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S42" t="n">
-        <v>903.5013466693027</v>
+        <v>915.1984222809441</v>
       </c>
       <c r="T42" t="n">
-        <v>903.5013466693027</v>
+        <v>718.2091264410317</v>
       </c>
       <c r="U42" t="n">
-        <v>903.5013466693027</v>
+        <v>718.2091264410317</v>
       </c>
       <c r="V42" t="n">
-        <v>903.5013466693027</v>
+        <v>483.0570182092889</v>
       </c>
       <c r="W42" t="n">
-        <v>903.5013466693027</v>
+        <v>228.8196614810873</v>
       </c>
       <c r="X42" t="n">
-        <v>695.6498464637699</v>
+        <v>228.8196614810873</v>
       </c>
       <c r="Y42" t="n">
-        <v>671.8995936840352</v>
+        <v>21.05936271613333</v>
       </c>
     </row>
     <row r="43">
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1020.994044175478</v>
+        <v>500.4085115739686</v>
       </c>
       <c r="C43" t="n">
-        <v>852.0578612475714</v>
+        <v>500.4085115739686</v>
       </c>
       <c r="D43" t="n">
-        <v>701.9412218352356</v>
+        <v>350.2918721616329</v>
       </c>
       <c r="E43" t="n">
-        <v>554.0281282528425</v>
+        <v>202.3787785792398</v>
       </c>
       <c r="F43" t="n">
-        <v>407.1381807549321</v>
+        <v>55.48883108132944</v>
       </c>
       <c r="G43" t="n">
-        <v>317.7002682014046</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H43" t="n">
-        <v>163.4456251011697</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I43" t="n">
-        <v>38.93395047549598</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J43" t="n">
-        <v>21.05936271613336</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K43" t="n">
         <v>122.1072923117432</v>
@@ -7603,16 +7603,16 @@
         <v>1020.994044175478</v>
       </c>
       <c r="V43" t="n">
-        <v>1020.994044175478</v>
+        <v>766.3095559695914</v>
       </c>
       <c r="W43" t="n">
-        <v>1020.994044175478</v>
+        <v>500.4085115739686</v>
       </c>
       <c r="X43" t="n">
-        <v>1020.994044175478</v>
+        <v>500.4085115739686</v>
       </c>
       <c r="Y43" t="n">
-        <v>1020.994044175478</v>
+        <v>500.4085115739686</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>552.8614515073799</v>
+        <v>787.0670914110435</v>
       </c>
       <c r="C44" t="n">
-        <v>552.8614515073799</v>
+        <v>787.0670914110435</v>
       </c>
       <c r="D44" t="n">
-        <v>552.8614515073799</v>
+        <v>787.0670914110435</v>
       </c>
       <c r="E44" t="n">
-        <v>552.8614515073799</v>
+        <v>521.1660470154206</v>
       </c>
       <c r="F44" t="n">
-        <v>552.8614515073799</v>
+        <v>286.9604071117561</v>
       </c>
       <c r="G44" t="n">
-        <v>286.9604071117566</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H44" t="n">
-        <v>21.05936271613336</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I44" t="n">
-        <v>21.05936271613336</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J44" t="n">
-        <v>42.29361270951666</v>
+        <v>42.29361270951662</v>
       </c>
       <c r="K44" t="n">
         <v>124.856767284109</v>
       </c>
       <c r="L44" t="n">
-        <v>264.1854231253622</v>
+        <v>264.1854231253621</v>
       </c>
       <c r="M44" t="n">
-        <v>450.8848359507699</v>
+        <v>450.8848359507698</v>
       </c>
       <c r="N44" t="n">
-        <v>645.2190488427523</v>
+        <v>645.2190488427522</v>
       </c>
       <c r="O44" t="n">
-        <v>815.3880741597118</v>
+        <v>815.3880741597117</v>
       </c>
       <c r="P44" t="n">
-        <v>926.1223994092383</v>
+        <v>1017.984015785071</v>
       </c>
       <c r="Q44" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R44" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S44" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T44" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="U44" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="V44" t="n">
-        <v>818.7624959030031</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="W44" t="n">
-        <v>552.8614515073799</v>
+        <v>787.0670914110435</v>
       </c>
       <c r="X44" t="n">
-        <v>552.8614515073799</v>
+        <v>787.0670914110435</v>
       </c>
       <c r="Y44" t="n">
-        <v>552.8614515073799</v>
+        <v>787.0670914110435</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>180.2968177215889</v>
+        <v>329.2312273828401</v>
       </c>
       <c r="C45" t="n">
-        <v>180.2968177215889</v>
+        <v>329.2312273828401</v>
       </c>
       <c r="D45" t="n">
-        <v>180.2968177215889</v>
+        <v>180.2968177215888</v>
       </c>
       <c r="E45" t="n">
-        <v>21.05936271613336</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F45" t="n">
-        <v>21.05936271613336</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G45" t="n">
-        <v>21.05936271613336</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H45" t="n">
-        <v>21.05936271613336</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I45" t="n">
-        <v>21.05936271613336</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J45" t="n">
-        <v>139.718614573029</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K45" t="n">
-        <v>207.326434236386</v>
+        <v>88.66718237949036</v>
       </c>
       <c r="L45" t="n">
-        <v>344.55603225208</v>
+        <v>225.8967803951843</v>
       </c>
       <c r="M45" t="n">
-        <v>524.0533686066848</v>
+        <v>405.3941167497891</v>
       </c>
       <c r="N45" t="n">
-        <v>722.7101102593494</v>
+        <v>604.0508584024539</v>
       </c>
       <c r="O45" t="n">
-        <v>882.2224229281101</v>
+        <v>763.5631710712145</v>
       </c>
       <c r="P45" t="n">
-        <v>990.9120504554089</v>
+        <v>872.2527985985133</v>
       </c>
       <c r="Q45" t="n">
-        <v>1052.968135806668</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R45" t="n">
-        <v>1031.856236208855</v>
+        <v>1031.856236208853</v>
       </c>
       <c r="S45" t="n">
-        <v>1018.361310440345</v>
+        <v>1031.856236208853</v>
       </c>
       <c r="T45" t="n">
-        <v>1018.361310440345</v>
+        <v>834.8669403689408</v>
       </c>
       <c r="U45" t="n">
-        <v>1018.361310440345</v>
+        <v>751.6839211311097</v>
       </c>
       <c r="V45" t="n">
-        <v>1018.361310440345</v>
+        <v>751.6839211311097</v>
       </c>
       <c r="W45" t="n">
-        <v>764.1239537121437</v>
+        <v>497.4465644029081</v>
       </c>
       <c r="X45" t="n">
-        <v>556.2724535066109</v>
+        <v>497.4465644029081</v>
       </c>
       <c r="Y45" t="n">
-        <v>348.5121547416569</v>
+        <v>497.4465644029081</v>
       </c>
     </row>
     <row r="46">
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>634.9152261366795</v>
+        <v>171.1760021284691</v>
       </c>
       <c r="C46" t="n">
-        <v>465.9790432087726</v>
+        <v>171.1760021284691</v>
       </c>
       <c r="D46" t="n">
-        <v>315.8624037964369</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E46" t="n">
-        <v>167.9493102140437</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F46" t="n">
-        <v>21.05936271613336</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G46" t="n">
-        <v>21.05936271613336</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H46" t="n">
-        <v>21.05936271613336</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I46" t="n">
-        <v>21.05936271613336</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J46" t="n">
-        <v>21.05936271613336</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K46" t="n">
         <v>122.1072923117432</v>
@@ -7840,16 +7840,16 @@
         <v>1020.994044175478</v>
       </c>
       <c r="V46" t="n">
-        <v>1020.994044175478</v>
+        <v>766.3095559695914</v>
       </c>
       <c r="W46" t="n">
-        <v>1020.994044175478</v>
+        <v>500.4085115739686</v>
       </c>
       <c r="X46" t="n">
-        <v>1020.994044175478</v>
+        <v>272.4189606759513</v>
       </c>
       <c r="Y46" t="n">
-        <v>816.5636909669192</v>
+        <v>171.1760021284691</v>
       </c>
     </row>
   </sheetData>
@@ -8061,22 +8061,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>165.6496394201785</v>
       </c>
       <c r="M3" t="n">
-        <v>333.3585268236787</v>
+        <v>392.8337743093848</v>
       </c>
       <c r="N3" t="n">
-        <v>118.4674613291454</v>
+        <v>381.709495280812</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>124.5219861368073</v>
       </c>
       <c r="Q3" t="n">
-        <v>133.663080786811</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8222,7 +8222,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N5" t="n">
         <v>437.3469244119842</v>
@@ -8292,25 +8292,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>122.1609165114201</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>129.8481964236087</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>127.8064787429919</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>375.2833119014001</v>
+        <v>392.8337743093847</v>
       </c>
       <c r="N6" t="n">
-        <v>381.7094952808121</v>
+        <v>381.709495280812</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>188.6716133934488</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>124.5219861368073</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8532,25 +8532,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>135.6887380783362</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>392.8337743093849</v>
+        <v>392.8337743093847</v>
       </c>
       <c r="N9" t="n">
-        <v>381.7094952808121</v>
+        <v>193.6092544324093</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>124.5219861368072</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>133.6630807868109</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>92.78951149074051</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8708,7 +8708,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>92.78951149074157</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>39.71630722149534</v>
       </c>
       <c r="L12" t="n">
-        <v>6.119605981137141</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>153.4545313988398</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -8924,19 +8924,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>92.78951149074163</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>25.84466227845004</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>66.94484921229048</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298244</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,22 +9003,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>39.71630722149533</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>57.4556515785732</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>102.1184858014036</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9167,10 +9167,10 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>9.814523410893571</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9179,13 +9179,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>41.66684235327551</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298244</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,19 +9240,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>163.3181754619436</v>
+        <v>89.54312379457414</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>458.0981188384286</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9398,31 +9398,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>125.3627396513949</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>30.21968338400282</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298244</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,22 +9480,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>207.4678568043324</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>458.0981188384286</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>165.3285480751516</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9641,25 +9641,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>250.7308605730632</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>298.4699926239126</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298244</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,22 +9717,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>458.0981188384287</v>
+        <v>48.10560617263525</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>78.07077454018153</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9884,7 +9884,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>250.7308605730631</v>
+        <v>250.7308605730627</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9954,22 +9954,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>165.3285480751515</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>458.0981188384286</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>78.07077454018153</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10112,28 +10112,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>185.2684807830933</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>157.2150585937772</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298244</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,16 +10191,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>153.4703251769745</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>99.08237590024433</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>458.0981188384287</v>
+        <v>458.0981188384286</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10349,22 +10349,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>182.0175083429755</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>41.66684235327597</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10428,22 +10428,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>458.0981188384287</v>
+        <v>165.3285480751512</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>207.4678568043331</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10586,25 +10586,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>100.6683154445386</v>
+        <v>241.8152239323317</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10668,13 +10668,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>78.07077454018204</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>458.0981188384287</v>
+        <v>165.3285480751512</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10820,13 +10820,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>278.7842827623791</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10835,7 +10835,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>354.3650959551675</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -10899,28 +10899,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>458.0981188384287</v>
+        <v>458.0981188384286</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>37.16554713105234</v>
+        <v>78.07077454018153</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>92.78951149074052</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11078,7 +11078,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>92.78951149074206</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,22 +11136,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>39.71630722149692</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>81.93159318943952</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>77.64254419053626</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11312,13 +11312,13 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>92.78951149074049</v>
       </c>
       <c r="Q44" t="n">
-        <v>92.78951149074206</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298244</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11394,7 +11394,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>39.71630722149706</v>
+        <v>159.5741373799758</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,13 +22544,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>119.4918077118139</v>
       </c>
       <c r="C2" t="n">
-        <v>102.030857819341</v>
+        <v>133.4093082663795</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>91.4410076690163</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22607,13 +22607,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>117.377385212785</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>106.4890667268024</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.995904704387</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22623,10 +22623,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>7.830263366204548</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22680,7 +22680,7 @@
         <v>199.9652070090748</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9381254702172</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -22689,10 +22689,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>100.299691401716</v>
       </c>
     </row>
     <row r="4">
@@ -22723,13 +22723,13 @@
         <v>161.8582038473137</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>154.2024705022108</v>
       </c>
       <c r="J4" t="n">
-        <v>84.79256385362726</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="K4" t="n">
-        <v>17.44799951871616</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>82.68702246598919</v>
       </c>
       <c r="R4" t="n">
-        <v>175.4274210366964</v>
+        <v>33.04035144843758</v>
       </c>
       <c r="S4" t="n">
         <v>223.2933741908973</v>
@@ -22781,31 +22781,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.4918077118137</v>
+        <v>119.491807711814</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>91.44100766901607</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>143.6340117900448</v>
       </c>
       <c r="G5" t="n">
-        <v>415.2102214038314</v>
+        <v>151.9681874521648</v>
       </c>
       <c r="H5" t="n">
-        <v>338.5273214908784</v>
+        <v>313.5729001756215</v>
       </c>
       <c r="I5" t="n">
-        <v>206.9091621893709</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>4.097100052852073</v>
+        <v>4.097100052852153</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22838,10 +22838,10 @@
         <v>222.6908602868995</v>
       </c>
       <c r="U5" t="n">
-        <v>19.47466811430422</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V5" t="n">
-        <v>64.51022451846802</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22863,25 +22863,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>72.45755581355927</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H6" t="n">
         <v>111.757373777286</v>
       </c>
       <c r="I6" t="n">
-        <v>87.69233988828962</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22908,13 +22908,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>2.189834398710857</v>
+        <v>97.08446202703756</v>
       </c>
       <c r="S6" t="n">
-        <v>170.7637213332854</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9381254702172</v>
@@ -22923,7 +22923,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22960,13 +22960,13 @@
         <v>161.8582038473137</v>
       </c>
       <c r="I7" t="n">
-        <v>154.2024705022107</v>
+        <v>102.2405633723434</v>
       </c>
       <c r="J7" t="n">
-        <v>90.42516245839141</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>17.44799951871611</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22984,10 +22984,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.68702246598916</v>
+        <v>82.68702246598919</v>
       </c>
       <c r="R7" t="n">
-        <v>15.59235192972113</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S7" t="n">
         <v>223.2933741908973</v>
@@ -23024,7 +23024,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>91.44100766901636</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23042,7 +23042,7 @@
         <v>206.9091621893709</v>
       </c>
       <c r="J8" t="n">
-        <v>4.097100052852072</v>
+        <v>4.097100052852153</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23066,22 +23066,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>122.9810972140069</v>
+        <v>144.0576027644701</v>
       </c>
       <c r="S8" t="n">
         <v>206.9118586999128</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>19.47466811430422</v>
       </c>
       <c r="V8" t="n">
-        <v>64.51022451846802</v>
+        <v>64.51022451846831</v>
       </c>
       <c r="W8" t="n">
-        <v>85.99893476574613</v>
+        <v>85.99893476574641</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -23097,10 +23097,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23118,7 +23118,7 @@
         <v>111.757373777286</v>
       </c>
       <c r="I9" t="n">
-        <v>87.69233988828962</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23145,19 +23145,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>97.08446202703753</v>
+        <v>97.08446202703756</v>
       </c>
       <c r="S9" t="n">
         <v>170.7637213332854</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U9" t="n">
-        <v>67.4643112613648</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>213.6032485696822</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -23194,16 +23194,16 @@
         <v>167.9494798159088</v>
       </c>
       <c r="H10" t="n">
-        <v>161.8582038473137</v>
+        <v>2.023134740338719</v>
       </c>
       <c r="I10" t="n">
-        <v>154.2024705022107</v>
+        <v>154.2024705022108</v>
       </c>
       <c r="J10" t="n">
-        <v>90.42516245839141</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="K10" t="n">
-        <v>17.44799951871611</v>
+        <v>17.44799951871616</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23221,10 +23221,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>82.68702246598919</v>
       </c>
       <c r="R10" t="n">
-        <v>98.27937439571028</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S10" t="n">
         <v>223.2933741908973</v>
@@ -23258,25 +23258,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>102.0308578193407</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>91.44100766901607</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>143.6340117900448</v>
       </c>
       <c r="G11" t="n">
-        <v>412.9169039459368</v>
+        <v>149.6748699942702</v>
       </c>
       <c r="H11" t="n">
-        <v>315.0408840752156</v>
+        <v>201.673341464478</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23318,10 +23318,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>117.377385212785</v>
+        <v>85.99893476574641</v>
       </c>
       <c r="X11" t="n">
-        <v>106.4890667268022</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23334,16 +23334,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>34.19782427937693</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -23391,19 +23391,19 @@
         <v>195.0194028815133</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>100.2189655454437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>60.68140124480918</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>75.65004205339415</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S13" t="n">
         <v>205.3658819001186</v>
@@ -23492,22 +23492,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>119.491807711814</v>
       </c>
       <c r="C14" t="n">
-        <v>102.0308578193407</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>150.0667865676337</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>143.6340117900446</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>149.6748699942699</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H14" t="n">
         <v>315.0408840752156</v>
@@ -23549,7 +23549,7 @@
         <v>212.651863114966</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1547862223006</v>
+        <v>19.29120271767266</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23558,10 +23558,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>106.4890667268024</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>122.995904704387</v>
       </c>
     </row>
     <row r="15">
@@ -23571,10 +23571,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -23628,10 +23628,10 @@
         <v>195.0194028815133</v>
       </c>
       <c r="U15" t="n">
-        <v>100.2189655454439</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>213.6032485696822</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -23650,31 +23650,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>95.09233340381523</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>115.061035398288</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S16" t="n">
         <v>205.3658819001186</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U16" t="n">
         <v>286.260654658097</v>
@@ -23744,10 +23744,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H17" t="n">
-        <v>62.93237202367752</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I17" t="n">
         <v>118.4960408938903</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>212.651863114966</v>
@@ -23795,10 +23795,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>245.5965104651876</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23905,10 +23905,10 @@
         <v>166.9207765545704</v>
       </c>
       <c r="H19" t="n">
-        <v>138.2297728731492</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J19" t="n">
         <v>17.69584188176898</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>129.1731816677913</v>
+        <v>79.2264300629495</v>
       </c>
       <c r="S19" t="n">
         <v>205.3658819001186</v>
@@ -23950,10 +23950,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23969,25 +23969,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>21.04041597049206</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24020,19 +24020,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>337.8499280433276</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24136,7 +24136,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.9207765545704</v>
@@ -24145,7 +24145,7 @@
         <v>152.7120966692326</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J22" t="n">
         <v>17.69584188176898</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>73.08428533260303</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>88.80188287009329</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24203,28 +24203,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>93.69611533047532</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24257,22 +24257,22 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>48.86549348057952</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24367,10 +24367,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24409,22 +24409,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>106.374931625842</v>
+        <v>7.070935682509699</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24440,22 +24440,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>56.6991453918352</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>149.177485662301</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H26" t="n">
         <v>315.0408840752156</v>
@@ -24494,22 +24494,22 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T26" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,16 +24610,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>17.69584188176898</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>67.62673862648367</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S28" t="n">
         <v>205.3658819001186</v>
       </c>
       <c r="T28" t="n">
-        <v>223.3729047207587</v>
+        <v>116.8074848669402</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24680,7 +24680,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24689,7 +24689,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>412.9169039459368</v>
@@ -24728,25 +24728,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>154.6528871281402</v>
+        <v>94.48143497784007</v>
       </c>
       <c r="T29" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U29" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>33.30854631274894</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24853,10 +24853,10 @@
         <v>166.9207765545704</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I31" t="n">
-        <v>25.38706430981179</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J31" t="n">
         <v>17.69584188176898</v>
@@ -24886,25 +24886,25 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S31" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.260654658097</v>
+        <v>157.0337301399884</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24914,10 +24914,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24929,7 +24929,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>96.60879330364247</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H32" t="n">
         <v>315.0408840752156</v>
@@ -24968,22 +24968,22 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T32" t="n">
-        <v>212.651863114966</v>
+        <v>93.04061886385873</v>
       </c>
       <c r="U32" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25075,7 +25075,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25087,16 +25087,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>78.37724312657805</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25126,13 +25126,13 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T34" t="n">
-        <v>223.3729047207587</v>
+        <v>92.96647364211796</v>
       </c>
       <c r="U34" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25151,13 +25151,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>181.4284129175677</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>121.1266856195035</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25169,10 +25169,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25217,10 +25217,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25366,13 +25366,13 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U37" t="n">
-        <v>160.0040931769335</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>87.96077371353681</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25391,25 +25391,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,25 +25439,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>98.51909963847794</v>
+        <v>11.66798279318539</v>
       </c>
       <c r="T38" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25546,10 +25546,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>172.8515959387366</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25558,7 +25558,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.9207765545704</v>
@@ -25567,7 +25567,7 @@
         <v>152.7120966692326</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J40" t="n">
         <v>17.69584188176898</v>
@@ -25597,25 +25597,25 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S40" t="n">
-        <v>160.9985336351991</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>119.491807711814</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25637,13 +25637,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>143.6340117900448</v>
       </c>
       <c r="G41" t="n">
-        <v>412.9169039459368</v>
+        <v>181.053320441309</v>
       </c>
       <c r="H41" t="n">
-        <v>51.79885012354856</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I41" t="n">
         <v>118.4960408938903</v>
@@ -25682,19 +25682,19 @@
         <v>212.651863114966</v>
       </c>
       <c r="U41" t="n">
-        <v>19.29120271767243</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V41" t="n">
-        <v>64.51022451846791</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>85.99893476574601</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>122.995904704387</v>
       </c>
     </row>
     <row r="42">
@@ -25704,16 +25704,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25755,25 +25755,25 @@
         <v>20.90078060183509</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>11.58010485552649</v>
       </c>
       <c r="T42" t="n">
-        <v>195.0194028815133</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>225.8573996139459</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>182.169945525367</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25786,7 +25786,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25798,16 +25798,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>78.37724312657816</v>
+        <v>132.8356028730263</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25843,10 +25843,10 @@
         <v>286.260654658097</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>23.2809643849244</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25871,16 +25871,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>118.6883361205952</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>175.0124622370836</v>
       </c>
       <c r="G44" t="n">
-        <v>149.6748699942698</v>
+        <v>149.6748699942702</v>
       </c>
       <c r="H44" t="n">
-        <v>51.79885012354856</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I44" t="n">
         <v>118.4960408938903</v>
@@ -25922,10 +25922,10 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V44" t="n">
-        <v>95.88867496550671</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>85.99893476574601</v>
+        <v>85.99893476574641</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25947,7 +25947,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -25992,13 +25992,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>134.6121447351671</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T45" t="n">
-        <v>195.0194028815133</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8573996139459</v>
+        <v>143.5062105684931</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26007,10 +26007,10 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26020,19 +26020,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.9207765545704</v>
@@ -26080,16 +26080,16 @@
         <v>286.260654658097</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>23.2809643849244</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.19860367562134</v>
+        <v>118.3541243900874</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>509349.2754791146</v>
+        <v>509349.2754791147</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>509349.2754791148</v>
+        <v>509349.2754791144</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>535917.0393696474</v>
+        <v>535917.039369647</v>
       </c>
     </row>
     <row r="6">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>812793.4185558917</v>
+        <v>812793.4185558918</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>812793.4185558918</v>
+        <v>812793.4185558916</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>812793.4185558917</v>
+        <v>812793.4185558916</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>812793.4185558917</v>
+        <v>812793.4185558916</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>535917.0393696474</v>
+        <v>535917.039369647</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>535917.0393696475</v>
+        <v>535917.039369647</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>156006.1355264979</v>
+      </c>
+      <c r="C2" t="n">
         <v>156006.1355264978</v>
       </c>
-      <c r="C2" t="n">
-        <v>156006.1355264979</v>
-      </c>
       <c r="D2" t="n">
-        <v>156006.1355264979</v>
+        <v>156006.1355264978</v>
       </c>
       <c r="E2" t="n">
         <v>182698.7018105812</v>
@@ -26326,10 +26326,10 @@
         <v>182698.7018105812</v>
       </c>
       <c r="G2" t="n">
-        <v>266966.4643013151</v>
+        <v>266966.464301315</v>
       </c>
       <c r="H2" t="n">
-        <v>266966.4643013151</v>
+        <v>266966.464301315</v>
       </c>
       <c r="I2" t="n">
         <v>266966.4643013149</v>
@@ -26341,19 +26341,19 @@
         <v>266966.464301315</v>
       </c>
       <c r="L2" t="n">
+        <v>266966.464301315</v>
+      </c>
+      <c r="M2" t="n">
+        <v>266966.464301315</v>
+      </c>
+      <c r="N2" t="n">
         <v>266966.4643013151</v>
       </c>
-      <c r="M2" t="n">
-        <v>266966.4643013151</v>
-      </c>
-      <c r="N2" t="n">
-        <v>266966.4643013149</v>
-      </c>
       <c r="O2" t="n">
-        <v>182698.7018105812</v>
+        <v>182698.7018105811</v>
       </c>
       <c r="P2" t="n">
-        <v>182698.7018105813</v>
+        <v>182698.7018105811</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110394.4548749495</v>
+        <v>110394.4548749496</v>
       </c>
       <c r="C3" t="n">
-        <v>2.135171399686442e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>458311.4587491876</v>
+        <v>458311.4587491879</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68875.69873124985</v>
+        <v>68875.69873124988</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>58763.00054751699</v>
+        <v>58861.5016245918</v>
       </c>
       <c r="C4" t="n">
-        <v>58763.00054751699</v>
+        <v>58861.50162459179</v>
       </c>
       <c r="D4" t="n">
-        <v>58763.00054751699</v>
+        <v>58861.50162459179</v>
       </c>
       <c r="E4" t="n">
-        <v>8334.262544227538</v>
+        <v>8347.897728986263</v>
       </c>
       <c r="F4" t="n">
-        <v>8334.26254422754</v>
+        <v>8347.897728986265</v>
       </c>
       <c r="G4" t="n">
-        <v>42000.89387733729</v>
+        <v>42070.66996223803</v>
       </c>
       <c r="H4" t="n">
-        <v>42000.89387733731</v>
+        <v>42070.66996223803</v>
       </c>
       <c r="I4" t="n">
-        <v>42000.8938773373</v>
+        <v>42070.66996223803</v>
       </c>
       <c r="J4" t="n">
-        <v>42000.8938773373</v>
+        <v>42070.66996223802</v>
       </c>
       <c r="K4" t="n">
-        <v>42000.89387733729</v>
+        <v>42070.66996223802</v>
       </c>
       <c r="L4" t="n">
-        <v>42000.89387733731</v>
+        <v>42070.66996223803</v>
       </c>
       <c r="M4" t="n">
-        <v>42000.8938773373</v>
+        <v>42070.66996223803</v>
       </c>
       <c r="N4" t="n">
-        <v>42000.89387733731</v>
+        <v>42070.66996223803</v>
       </c>
       <c r="O4" t="n">
-        <v>8334.262544227549</v>
+        <v>8347.897728986263</v>
       </c>
       <c r="P4" t="n">
-        <v>8334.262544227549</v>
+        <v>8347.897728986265</v>
       </c>
     </row>
     <row r="5">
@@ -26470,46 +26470,46 @@
         <v>50134.40740683334</v>
       </c>
       <c r="C5" t="n">
-        <v>50134.40740683336</v>
+        <v>50134.40740683334</v>
       </c>
       <c r="D5" t="n">
-        <v>50134.40740683336</v>
+        <v>50134.40740683334</v>
       </c>
       <c r="E5" t="n">
-        <v>28942.89465163116</v>
+        <v>28942.89465163115</v>
       </c>
       <c r="F5" t="n">
-        <v>28942.89465163116</v>
+        <v>28942.89465163115</v>
       </c>
       <c r="G5" t="n">
         <v>52990.47783747558</v>
       </c>
       <c r="H5" t="n">
-        <v>52990.47783747559</v>
+        <v>52990.47783747558</v>
       </c>
       <c r="I5" t="n">
-        <v>52990.47783747559</v>
+        <v>52990.47783747558</v>
       </c>
       <c r="J5" t="n">
-        <v>52990.47783747559</v>
+        <v>52990.47783747558</v>
       </c>
       <c r="K5" t="n">
-        <v>52990.47783747559</v>
+        <v>52990.47783747558</v>
       </c>
       <c r="L5" t="n">
-        <v>52990.47783747559</v>
+        <v>52990.47783747558</v>
       </c>
       <c r="M5" t="n">
-        <v>52990.47783747559</v>
+        <v>52990.47783747558</v>
       </c>
       <c r="N5" t="n">
-        <v>52990.47783747559</v>
+        <v>52990.47783747558</v>
       </c>
       <c r="O5" t="n">
-        <v>28942.89465163117</v>
+        <v>28942.89465163115</v>
       </c>
       <c r="P5" t="n">
-        <v>28942.89465163117</v>
+        <v>28942.89465163115</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-63285.72730280208</v>
+        <v>-63384.22837987682</v>
       </c>
       <c r="C6" t="n">
-        <v>47108.72757214739</v>
+        <v>47010.22649507269</v>
       </c>
       <c r="D6" t="n">
-        <v>47108.72757214759</v>
+        <v>47010.22649507269</v>
       </c>
       <c r="E6" t="n">
-        <v>-312889.9141344651</v>
+        <v>-312903.5493192241</v>
       </c>
       <c r="F6" t="n">
-        <v>145421.5446147225</v>
+        <v>145407.9094299638</v>
       </c>
       <c r="G6" t="n">
-        <v>63569.14131196</v>
+        <v>63499.36522705904</v>
       </c>
       <c r="H6" t="n">
-        <v>171975.0925865022</v>
+        <v>171905.3165016014</v>
       </c>
       <c r="I6" t="n">
-        <v>171975.092586502</v>
+        <v>171905.3165016013</v>
       </c>
       <c r="J6" t="n">
-        <v>103099.3938552522</v>
+        <v>103029.6177703514</v>
       </c>
       <c r="K6" t="n">
-        <v>171975.0925865021</v>
+        <v>171905.3165016014</v>
       </c>
       <c r="L6" t="n">
-        <v>171975.0925865022</v>
+        <v>171905.3165016014</v>
       </c>
       <c r="M6" t="n">
-        <v>171975.0925865022</v>
+        <v>171905.3165016014</v>
       </c>
       <c r="N6" t="n">
-        <v>171975.092586502</v>
+        <v>171905.3165016015</v>
       </c>
       <c r="O6" t="n">
-        <v>145421.5446147225</v>
+        <v>145407.9094299637</v>
       </c>
       <c r="P6" t="n">
-        <v>145421.5446147225</v>
+        <v>145407.9094299637</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26738,10 @@
         <v>23.01338268678938</v>
       </c>
       <c r="C3" t="n">
-        <v>23.01338268678962</v>
+        <v>23.01338268678938</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678962</v>
+        <v>23.01338268678938</v>
       </c>
       <c r="E3" t="n">
         <v>593.4761003380651</v>
@@ -26787,49 +26787,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>263.2420339516667</v>
+      </c>
+      <c r="C4" t="n">
         <v>263.2420339516666</v>
       </c>
-      <c r="C4" t="n">
-        <v>263.2420339516669</v>
-      </c>
       <c r="D4" t="n">
-        <v>263.2420339516669</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="E4" t="n">
-        <v>263.2420339516669</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="F4" t="n">
-        <v>263.2420339516669</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="G4" t="n">
         <v>658.7614942451606</v>
       </c>
       <c r="H4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="I4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="J4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="K4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="L4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="M4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="N4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O4" t="n">
-        <v>263.242033951667</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="P4" t="n">
-        <v>263.242033951667</v>
+        <v>263.2420339516666</v>
       </c>
     </row>
   </sheetData>
@@ -26960,13 +26960,13 @@
         <v>23.01338268678938</v>
       </c>
       <c r="C3" t="n">
-        <v>2.344791028008331e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>570.4627176512754</v>
+        <v>570.4627176512757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.2420339516666</v>
+        <v>263.2420339516667</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,7 +27024,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>395.5194602934938</v>
+        <v>395.519460293494</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.2420339516666</v>
+        <v>263.2420339516667</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.2420339516666</v>
+        <v>263.2420339516667</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,7 +27270,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>395.5194602934938</v>
+        <v>395.519460293494</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09251611130367678</v>
+        <v>0.09251611130367583</v>
       </c>
       <c r="H5" t="n">
-        <v>0.94748062488878</v>
+        <v>0.9474806248887704</v>
       </c>
       <c r="I5" t="n">
-        <v>3.566727381035002</v>
+        <v>3.566727381034966</v>
       </c>
       <c r="J5" t="n">
-        <v>7.852189301760444</v>
+        <v>7.852189301760364</v>
       </c>
       <c r="K5" t="n">
-        <v>11.76839629324508</v>
+        <v>11.76839629324496</v>
       </c>
       <c r="L5" t="n">
-        <v>14.59973623455499</v>
+        <v>14.59973623455484</v>
       </c>
       <c r="M5" t="n">
-        <v>16.24501962895175</v>
+        <v>16.24501962895158</v>
       </c>
       <c r="N5" t="n">
-        <v>16.50788103019332</v>
+        <v>16.50788103019315</v>
       </c>
       <c r="O5" t="n">
-        <v>15.58792394841738</v>
+        <v>15.58792394841722</v>
       </c>
       <c r="P5" t="n">
-        <v>13.30393245060786</v>
+        <v>13.30393245060773</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544932</v>
+        <v>9.990699214544831</v>
       </c>
       <c r="R5" t="n">
-        <v>5.811515176679592</v>
+        <v>5.811515176679532</v>
       </c>
       <c r="S5" t="n">
-        <v>2.108210886332537</v>
+        <v>2.108210886332515</v>
       </c>
       <c r="T5" t="n">
-        <v>0.4049892772318453</v>
+        <v>0.4049892772318412</v>
       </c>
       <c r="U5" t="n">
-        <v>0.00740128890429414</v>
+        <v>0.007401288904294065</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04950048351498144</v>
+        <v>0.04950048351498094</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4780704592104787</v>
+        <v>0.4780704592104738</v>
       </c>
       <c r="I6" t="n">
-        <v>1.704292963125458</v>
+        <v>1.70429296312544</v>
       </c>
       <c r="J6" t="n">
-        <v>4.676710155246559</v>
+        <v>4.676710155246511</v>
       </c>
       <c r="K6" t="n">
-        <v>7.993242550750314</v>
+        <v>7.993242550750233</v>
       </c>
       <c r="L6" t="n">
-        <v>10.74790103688226</v>
+        <v>10.74790103688215</v>
       </c>
       <c r="M6" t="n">
-        <v>12.54229356430034</v>
+        <v>12.54229356430021</v>
       </c>
       <c r="N6" t="n">
-        <v>12.87425075418809</v>
+        <v>12.87425075418796</v>
       </c>
       <c r="O6" t="n">
-        <v>11.77742425104034</v>
+        <v>11.77742425104022</v>
       </c>
       <c r="P6" t="n">
-        <v>9.452421277523079</v>
+        <v>9.452421277522983</v>
       </c>
       <c r="Q6" t="n">
-        <v>6.318693299210613</v>
+        <v>6.318693299210549</v>
       </c>
       <c r="R6" t="n">
-        <v>3.073372125605603</v>
+        <v>3.073372125605572</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9194497705523959</v>
+        <v>0.9194497705523865</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1995216857467891</v>
+        <v>0.1995216857467871</v>
       </c>
       <c r="U6" t="n">
-        <v>0.00325661075756457</v>
+        <v>0.003256610757564536</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04149954254994848</v>
+        <v>0.04149954254994806</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3689686601259058</v>
+        <v>0.3689686601259021</v>
       </c>
       <c r="I7" t="n">
-        <v>1.248004425047542</v>
+        <v>1.248004425047529</v>
       </c>
       <c r="J7" t="n">
-        <v>2.934017658281358</v>
+        <v>2.934017658281328</v>
       </c>
       <c r="K7" t="n">
-        <v>4.821492307166741</v>
+        <v>4.821492307166691</v>
       </c>
       <c r="L7" t="n">
-        <v>6.169850171471433</v>
+        <v>6.16985017147137</v>
       </c>
       <c r="M7" t="n">
-        <v>6.505241928988742</v>
+        <v>6.505241928988675</v>
       </c>
       <c r="N7" t="n">
-        <v>6.35056181584803</v>
+        <v>6.350561815847965</v>
       </c>
       <c r="O7" t="n">
-        <v>5.865771705150903</v>
+        <v>5.865771705150842</v>
       </c>
       <c r="P7" t="n">
-        <v>5.019181037131949</v>
+        <v>5.019181037131898</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.475020785705232</v>
+        <v>3.475020785705196</v>
       </c>
       <c r="R7" t="n">
-        <v>1.865970340473138</v>
+        <v>1.865970340473119</v>
       </c>
       <c r="S7" t="n">
-        <v>0.723223846075011</v>
+        <v>0.7232238460750037</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1773162272588708</v>
+        <v>0.1773162272588689</v>
       </c>
       <c r="U7" t="n">
-        <v>0.002263611411815374</v>
+        <v>0.002263611411815351</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09251611130367679</v>
+        <v>0.09251611130367583</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9474806248887802</v>
+        <v>0.9474806248887704</v>
       </c>
       <c r="I8" t="n">
-        <v>3.566727381035003</v>
+        <v>3.566727381034966</v>
       </c>
       <c r="J8" t="n">
-        <v>7.852189301760445</v>
+        <v>7.852189301760364</v>
       </c>
       <c r="K8" t="n">
-        <v>11.76839629324509</v>
+        <v>11.76839629324496</v>
       </c>
       <c r="L8" t="n">
-        <v>14.59973623455499</v>
+        <v>14.59973623455484</v>
       </c>
       <c r="M8" t="n">
-        <v>16.24501962895175</v>
+        <v>16.24501962895158</v>
       </c>
       <c r="N8" t="n">
-        <v>16.50788103019332</v>
+        <v>16.50788103019315</v>
       </c>
       <c r="O8" t="n">
-        <v>15.58792394841739</v>
+        <v>15.58792394841722</v>
       </c>
       <c r="P8" t="n">
-        <v>13.30393245060786</v>
+        <v>13.30393245060773</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544934</v>
+        <v>9.990699214544831</v>
       </c>
       <c r="R8" t="n">
-        <v>5.811515176679593</v>
+        <v>5.811515176679532</v>
       </c>
       <c r="S8" t="n">
-        <v>2.108210886332537</v>
+        <v>2.108210886332515</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4049892772318454</v>
+        <v>0.4049892772318412</v>
       </c>
       <c r="U8" t="n">
-        <v>0.007401288904294142</v>
+        <v>0.007401288904294065</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04950048351498144</v>
+        <v>0.04950048351498094</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4780704592104788</v>
+        <v>0.4780704592104738</v>
       </c>
       <c r="I9" t="n">
-        <v>1.704292963125458</v>
+        <v>1.70429296312544</v>
       </c>
       <c r="J9" t="n">
-        <v>4.67671015524656</v>
+        <v>4.676710155246511</v>
       </c>
       <c r="K9" t="n">
-        <v>7.993242550750316</v>
+        <v>7.993242550750233</v>
       </c>
       <c r="L9" t="n">
-        <v>10.74790103688227</v>
+        <v>10.74790103688215</v>
       </c>
       <c r="M9" t="n">
-        <v>12.54229356430034</v>
+        <v>12.54229356430021</v>
       </c>
       <c r="N9" t="n">
-        <v>12.87425075418809</v>
+        <v>12.87425075418796</v>
       </c>
       <c r="O9" t="n">
-        <v>11.77742425104034</v>
+        <v>11.77742425104022</v>
       </c>
       <c r="P9" t="n">
-        <v>9.452421277523081</v>
+        <v>9.452421277522983</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.318693299210614</v>
+        <v>6.318693299210549</v>
       </c>
       <c r="R9" t="n">
-        <v>3.073372125605604</v>
+        <v>3.073372125605572</v>
       </c>
       <c r="S9" t="n">
-        <v>0.919449770552396</v>
+        <v>0.9194497705523865</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1995216857467892</v>
+        <v>0.1995216857467871</v>
       </c>
       <c r="U9" t="n">
-        <v>0.00325661075756457</v>
+        <v>0.003256610757564536</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04149954254994849</v>
+        <v>0.04149954254994806</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3689686601259059</v>
+        <v>0.3689686601259021</v>
       </c>
       <c r="I10" t="n">
-        <v>1.248004425047542</v>
+        <v>1.248004425047529</v>
       </c>
       <c r="J10" t="n">
-        <v>2.934017658281358</v>
+        <v>2.934017658281328</v>
       </c>
       <c r="K10" t="n">
-        <v>4.821492307166742</v>
+        <v>4.821492307166691</v>
       </c>
       <c r="L10" t="n">
-        <v>6.169850171471434</v>
+        <v>6.16985017147137</v>
       </c>
       <c r="M10" t="n">
-        <v>6.505241928988743</v>
+        <v>6.505241928988675</v>
       </c>
       <c r="N10" t="n">
-        <v>6.350561815848031</v>
+        <v>6.350561815847965</v>
       </c>
       <c r="O10" t="n">
-        <v>5.865771705150904</v>
+        <v>5.865771705150842</v>
       </c>
       <c r="P10" t="n">
-        <v>5.01918103713195</v>
+        <v>5.019181037131898</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.475020785705232</v>
+        <v>3.475020785705196</v>
       </c>
       <c r="R10" t="n">
-        <v>1.865970340473138</v>
+        <v>1.865970340473119</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7232238460750111</v>
+        <v>0.7232238460750037</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1773162272588708</v>
+        <v>0.1773162272588689</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002263611411815375</v>
+        <v>0.002263611411815351</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32342,7 +32342,7 @@
         <v>23.71104985784626</v>
       </c>
       <c r="T18" t="n">
-        <v>5.145325813308316</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U18" t="n">
         <v>0.08398246702897151</v>
@@ -34781,22 +34781,22 @@
         <v>134.6170405889698</v>
       </c>
       <c r="L3" t="n">
-        <v>243.0338665604671</v>
+        <v>37.84316067718651</v>
       </c>
       <c r="M3" t="n">
-        <v>203.7667864659606</v>
+        <v>263.2420339516667</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>263.2420339516667</v>
       </c>
       <c r="O3" t="n">
         <v>263.0434990833253</v>
       </c>
       <c r="P3" t="n">
-        <v>193.9407825031299</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>76.41420694903813</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,22 +34936,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>115.8239578194293</v>
+        <v>115.8239578194292</v>
       </c>
       <c r="L5" t="n">
-        <v>196.4945358150182</v>
+        <v>196.494535815018</v>
       </c>
       <c r="M5" t="n">
-        <v>235.4123198945115</v>
+        <v>235.4123198945112</v>
       </c>
       <c r="N5" t="n">
-        <v>224.4417418455866</v>
+        <v>224.4417418455864</v>
       </c>
       <c r="O5" t="n">
-        <v>166.289893789476</v>
+        <v>166.2898937894759</v>
       </c>
       <c r="P5" t="n">
-        <v>103.869644866821</v>
+        <v>103.8696448668208</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>3.930118828988654</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>134.6170405889698</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>243.0338665604671</v>
       </c>
       <c r="M6" t="n">
-        <v>245.6915715436821</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="N6" t="n">
-        <v>263.2420339516669</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="O6" t="n">
-        <v>263.0434990833254</v>
+        <v>57.85279320004458</v>
       </c>
       <c r="P6" t="n">
-        <v>193.94078250313</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>76.41420694903819</v>
+        <v>76.41420694903813</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,19 +35097,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>33.75987543178757</v>
+        <v>33.75987543178751</v>
       </c>
       <c r="M7" t="n">
-        <v>46.08911889082933</v>
+        <v>46.08911889082926</v>
       </c>
       <c r="N7" t="n">
-        <v>50.48273419507662</v>
+        <v>50.48273419507656</v>
       </c>
       <c r="O7" t="n">
-        <v>30.45089961919058</v>
+        <v>30.45089961919052</v>
       </c>
       <c r="P7" t="n">
-        <v>2.297740302025437</v>
+        <v>2.297740302025386</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>115.8239578194293</v>
+        <v>115.8239578194292</v>
       </c>
       <c r="L8" t="n">
-        <v>196.4945358150182</v>
+        <v>196.494535815018</v>
       </c>
       <c r="M8" t="n">
-        <v>235.4123198945115</v>
+        <v>235.4123198945113</v>
       </c>
       <c r="N8" t="n">
-        <v>224.4417418455866</v>
+        <v>224.4417418455864</v>
       </c>
       <c r="O8" t="n">
-        <v>166.289893789476</v>
+        <v>166.2898937894759</v>
       </c>
       <c r="P8" t="n">
-        <v>103.869644866821</v>
+        <v>103.8696448668208</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>3.930118828988703</v>
+        <v>3.930118828988654</v>
       </c>
       <c r="K9" t="n">
-        <v>5.840541654727515</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>243.0338665604673</v>
+        <v>243.0338665604671</v>
       </c>
       <c r="M9" t="n">
-        <v>263.2420339516669</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="N9" t="n">
-        <v>263.2420339516669</v>
+        <v>75.14179310326394</v>
       </c>
       <c r="O9" t="n">
-        <v>263.0434990833254</v>
+        <v>263.0434990833253</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>193.9407825031299</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35334,19 +35334,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>33.75987543178757</v>
+        <v>33.75987543178751</v>
       </c>
       <c r="M10" t="n">
-        <v>46.08911889082933</v>
+        <v>46.08911889082926</v>
       </c>
       <c r="N10" t="n">
-        <v>50.48273419507662</v>
+        <v>50.48273419507656</v>
       </c>
       <c r="O10" t="n">
-        <v>30.45089961919058</v>
+        <v>30.45089961919052</v>
       </c>
       <c r="P10" t="n">
-        <v>2.297740302025438</v>
+        <v>2.297740302025386</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>21.44873736705384</v>
+        <v>114.2382488577943</v>
       </c>
       <c r="K11" t="n">
         <v>83.39712583292157</v>
@@ -35428,7 +35428,7 @@
         <v>111.8528537874005</v>
       </c>
       <c r="Q11" t="n">
-        <v>128.1270064620498</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K12" t="n">
-        <v>68.29072693268387</v>
+        <v>108.0070341541792</v>
       </c>
       <c r="L12" t="n">
-        <v>144.7353615525452</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M12" t="n">
         <v>181.3104407622271</v>
@@ -35504,7 +35504,7 @@
         <v>161.1235481502633</v>
       </c>
       <c r="P12" t="n">
-        <v>263.2420339516669</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q12" t="n">
         <v>22.96660727472423</v>
@@ -35644,19 +35644,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>114.2382488577955</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K14" t="n">
         <v>83.39712583292157</v>
       </c>
       <c r="L14" t="n">
-        <v>140.7360160012659</v>
+        <v>166.5806782797159</v>
       </c>
       <c r="M14" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N14" t="n">
-        <v>196.2971847393761</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="O14" t="n">
         <v>171.8879043605652</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K15" t="n">
         <v>68.29072693268387</v>
       </c>
       <c r="L15" t="n">
-        <v>138.615755571408</v>
+        <v>178.3320627929034</v>
       </c>
       <c r="M15" t="n">
         <v>181.3104407622271</v>
       </c>
       <c r="N15" t="n">
-        <v>258.1190269853052</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O15" t="n">
-        <v>263.2420339516669</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P15" t="n">
         <v>109.7875025528271</v>
@@ -35887,10 +35887,10 @@
         <v>83.39712583292157</v>
       </c>
       <c r="L17" t="n">
-        <v>558.3972305517163</v>
+        <v>150.5505394121594</v>
       </c>
       <c r="M17" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N17" t="n">
         <v>633.6441091513602</v>
@@ -35899,7 +35899,7 @@
         <v>552.6880856233105</v>
       </c>
       <c r="P17" t="n">
-        <v>153.519696140676</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q17" t="n">
         <v>247.6524856312129</v>
@@ -35960,19 +35960,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L18" t="n">
-        <v>301.9339310333516</v>
+        <v>228.1588793659822</v>
       </c>
       <c r="M18" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N18" t="n">
-        <v>200.663375406732</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O18" t="n">
         <v>554.9858674269929</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K20" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L20" t="n">
-        <v>558.3972305517163</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M20" t="n">
         <v>638.0987989730422</v>
       </c>
       <c r="N20" t="n">
-        <v>633.6441091513602</v>
+        <v>321.659924390771</v>
       </c>
       <c r="O20" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P20" t="n">
-        <v>142.0725371714034</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q20" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>119.8578301584805</v>
       </c>
       <c r="K21" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L21" t="n">
-        <v>509.4561008748672</v>
+        <v>346.0836123757404</v>
       </c>
       <c r="M21" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N21" t="n">
-        <v>200.663375406732</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O21" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P21" t="n">
-        <v>275.1160506279787</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q21" t="n">
         <v>233.0438950105733</v>
@@ -36361,22 +36361,22 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L23" t="n">
-        <v>391.466876574329</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M23" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N23" t="n">
         <v>196.2971847393761</v>
       </c>
       <c r="O23" t="n">
-        <v>552.6880856233105</v>
+        <v>470.3578969844777</v>
       </c>
       <c r="P23" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q23" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>119.8578301584805</v>
       </c>
       <c r="K24" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L24" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M24" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N24" t="n">
-        <v>658.7614942451607</v>
+        <v>248.7689815793672</v>
       </c>
       <c r="O24" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P24" t="n">
-        <v>187.8582770930086</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q24" t="n">
         <v>233.0438950105733</v>
@@ -36604,7 +36604,7 @@
         <v>188.5852654802098</v>
       </c>
       <c r="N26" t="n">
-        <v>447.0280453124392</v>
+        <v>447.0280453124388</v>
       </c>
       <c r="O26" t="n">
         <v>552.6880856233105</v>
@@ -36674,22 +36674,22 @@
         <v>119.8578301584805</v>
       </c>
       <c r="K27" t="n">
-        <v>233.6192750078353</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L27" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M27" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N27" t="n">
-        <v>200.663375406732</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O27" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P27" t="n">
-        <v>109.7875025528271</v>
+        <v>187.8582770930086</v>
       </c>
       <c r="Q27" t="n">
         <v>233.0438950105733</v>
@@ -36832,25 +36832,25 @@
         <v>190.5453525391276</v>
       </c>
       <c r="K29" t="n">
-        <v>83.39712583292157</v>
+        <v>268.6656066160149</v>
       </c>
       <c r="L29" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M29" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N29" t="n">
-        <v>353.5122433331533</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O29" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P29" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q29" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36911,16 +36911,16 @@
         <v>119.8578301584805</v>
       </c>
       <c r="K30" t="n">
-        <v>221.7610521096584</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L30" t="n">
-        <v>138.615755571408</v>
+        <v>237.6981314716524</v>
       </c>
       <c r="M30" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N30" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O30" t="n">
         <v>161.1235481502633</v>
@@ -36929,7 +36929,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q30" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37069,22 +37069,22 @@
         <v>190.5453525391276</v>
       </c>
       <c r="K32" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L32" t="n">
-        <v>558.3972305517163</v>
+        <v>322.7535243442413</v>
       </c>
       <c r="M32" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N32" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O32" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P32" t="n">
-        <v>153.5196961406765</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q32" t="n">
         <v>247.6524856312129</v>
@@ -37148,22 +37148,22 @@
         <v>119.8578301584805</v>
       </c>
       <c r="K33" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L33" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M33" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N33" t="n">
-        <v>658.7614942451607</v>
+        <v>365.9919234818832</v>
       </c>
       <c r="O33" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P33" t="n">
-        <v>317.2553593571602</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q33" t="n">
         <v>233.0438950105733</v>
@@ -37306,25 +37306,25 @@
         <v>190.5453525391276</v>
       </c>
       <c r="K35" t="n">
-        <v>184.0654412774602</v>
+        <v>325.2123497652533</v>
       </c>
       <c r="L35" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M35" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N35" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O35" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P35" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q35" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37388,13 +37388,13 @@
         <v>68.29072693268387</v>
       </c>
       <c r="L36" t="n">
-        <v>216.6865301115901</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M36" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N36" t="n">
-        <v>658.7614942451607</v>
+        <v>365.9919234818832</v>
       </c>
       <c r="O36" t="n">
         <v>554.9858674269929</v>
@@ -37540,13 +37540,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K38" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L38" t="n">
-        <v>558.3972305517163</v>
+        <v>419.520298763645</v>
       </c>
       <c r="M38" t="n">
         <v>638.0987989730422</v>
@@ -37555,7 +37555,7 @@
         <v>633.6441091513602</v>
       </c>
       <c r="O38" t="n">
-        <v>526.2530003157326</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P38" t="n">
         <v>111.8528537874005</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K39" t="n">
         <v>68.29072693268387</v>
       </c>
       <c r="L39" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M39" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N39" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O39" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P39" t="n">
-        <v>146.9530496838794</v>
+        <v>187.8582770930086</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>83.39712583292157</v>
       </c>
       <c r="L41" t="n">
-        <v>140.7360160012659</v>
+        <v>233.5255274920064</v>
       </c>
       <c r="M41" t="n">
         <v>188.5852654802098</v>
@@ -37798,7 +37798,7 @@
         <v>111.8528537874005</v>
       </c>
       <c r="Q41" t="n">
-        <v>128.1270064620502</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,22 +37856,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>68.29072693268387</v>
       </c>
       <c r="L42" t="n">
-        <v>178.332062792905</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M42" t="n">
-        <v>181.3104407622271</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="N42" t="n">
         <v>200.663375406732</v>
       </c>
       <c r="O42" t="n">
-        <v>161.1235481502633</v>
+        <v>238.7660923407995</v>
       </c>
       <c r="P42" t="n">
         <v>109.7875025528271</v>
@@ -38032,10 +38032,10 @@
         <v>171.8879043605652</v>
       </c>
       <c r="P44" t="n">
-        <v>111.8528537874005</v>
+        <v>204.642365278141</v>
       </c>
       <c r="Q44" t="n">
-        <v>128.1270064620502</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>68.29072693268387</v>
@@ -38114,7 +38114,7 @@
         <v>109.7875025528271</v>
       </c>
       <c r="Q45" t="n">
-        <v>62.68291449622129</v>
+        <v>182.5407446547001</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_7_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_7_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>503251.0235948795</v>
+        <v>560444.9191002017</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8166759.606412496</v>
+        <v>8166759.606412497</v>
       </c>
     </row>
     <row r="8">
@@ -658,76 +658,76 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C2" t="n">
+      <c r="X2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>230.2038249569697</v>
       </c>
     </row>
     <row r="3">
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -752,16 +752,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>117.7133396808607</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>124.1601887985991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>40.47627913313517</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -980,16 +980,16 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>67.70963126669662</v>
       </c>
       <c r="E6" t="n">
-        <v>108.926182762642</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1071,52 +1071,52 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>50.46697834767978</v>
+        <v>142.8673256144868</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>88.91888512441763</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -1271,10 +1271,10 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>180.9097887685221</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>69.10333708204558</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>411.877318437625</v>
       </c>
       <c r="H11" t="n">
-        <v>304.3942289882174</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>130.9633323574852</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>208.1010775523311</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.0716193816357</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>8.649460733606398</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1469,7 +1469,7 @@
         <v>94.53483351802068</v>
       </c>
       <c r="I12" t="n">
-        <v>26.29500063523178</v>
+        <v>26.29500063523222</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,16 +1536,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>118.9270835403224</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4544542845511</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.566067759424</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>108.205636690375</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>156.4486340147951</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.3804368397668</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2352188979141</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>411.877318437625</v>
@@ -1660,22 +1660,22 @@
         <v>130.9633323574852</v>
       </c>
       <c r="T14" t="n">
-        <v>84.23281400854761</v>
+        <v>208.1010775523311</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.0716193816357</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>57.3658863081255</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>135.5107563803712</v>
       </c>
       <c r="H15" t="n">
-        <v>94.53483351802068</v>
+        <v>94.5348335180208</v>
       </c>
       <c r="I15" t="n">
         <v>26.2950006352321</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1818,10 +1818,10 @@
         <v>197.2391565216902</v>
       </c>
       <c r="T16" t="n">
-        <v>194.4061961118661</v>
+        <v>221.3804368397668</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2352188979141</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>207.9231459165461</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>226.3565691694385</v>
       </c>
       <c r="E17" t="n">
-        <v>155.969561164376</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>411.877318437625</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>78.4174205846999</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,13 +1897,13 @@
         <v>130.9633323574852</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>208.1010775523311</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0716193816357</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>135.5107563803712</v>
       </c>
       <c r="H18" t="n">
-        <v>94.53483351802068</v>
+        <v>94.5348335180208</v>
       </c>
       <c r="I18" t="n">
         <v>26.2950006352321</v>
@@ -2007,16 +2007,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>64.60427534642783</v>
+        <v>35.12759681683959</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4544542845511</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>108.205636690375</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2058,16 +2058,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2352188979141</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2089,19 +2089,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.877318437625</v>
+        <v>308.8939829493965</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>304.3942289882174</v>
       </c>
       <c r="I20" t="n">
-        <v>78.4174205846999</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>130.9633323574852</v>
       </c>
       <c r="T20" t="n">
         <v>208.1010775523311</v>
       </c>
       <c r="U20" t="n">
-        <v>241.7575358789806</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2180,7 +2180,7 @@
         <v>94.53483351802068</v>
       </c>
       <c r="I21" t="n">
-        <v>26.2950006352321</v>
+        <v>26.29500063523222</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>90.88402580625026</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>197.2391565216902</v>
       </c>
       <c r="T22" t="n">
-        <v>177.8422395387723</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2352188979141</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2320,13 +2320,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>3.106604404136601</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>158.5449333375432</v>
+        <v>251.0716193816357</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.566067759424</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>156.4967427083676</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2352188979141</v>
+        <v>263.8619038910936</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2563,13 +2563,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>190.3067848568923</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>411.877318437625</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>130.9633323574852</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>208.1010775523311</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.0716193816357</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>46.92401128240264</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>108.205636690375</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.2391565216902</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.3804368397668</v>
       </c>
       <c r="U28" t="n">
-        <v>279.3089655610729</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>107.4885719343035</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.877318437625</v>
+        <v>28.60317948719991</v>
       </c>
       <c r="H29" t="n">
-        <v>304.3942289882174</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>78.4174205846999</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2848,16 +2848,16 @@
         <v>208.1010775523311</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0716193816357</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>160.2006107133758</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2952,10 +2952,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>15.40491323470679</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4544542845511</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>62.04931740140076</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.2391565216902</v>
       </c>
       <c r="T31" t="n">
-        <v>221.3804368397668</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2352188979141</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3031,25 +3031,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>239.9177017167242</v>
       </c>
       <c r="G32" t="n">
         <v>411.877318437625</v>
       </c>
       <c r="H32" t="n">
-        <v>252.8920062290333</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>78.4174205846999</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,19 +3082,19 @@
         <v>130.9633323574852</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>208.1010775523311</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0716193816357</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3189,16 +3189,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>7.266996574126498</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3243,19 +3243,19 @@
         <v>221.3804368397668</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2352188979141</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>152.2948616405934</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>8.777822733869865</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,16 +3319,16 @@
         <v>130.9633323574852</v>
       </c>
       <c r="T35" t="n">
-        <v>208.1010775523311</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0716193816357</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>106.705388251634</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4544542845511</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.566067759424</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.2391565216902</v>
       </c>
       <c r="T37" t="n">
-        <v>156.4967427083676</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2352188979141</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>74.54011622042242</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3514,13 +3514,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.877318437625</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>236.1247604486821</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>51.79551153259177</v>
+        <v>130.9633323574852</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>251.0716193816357</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3663,19 +3663,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>126.1927527526034</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,16 +3714,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>195.2494158785251</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2352188979141</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>149.2578529112944</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>411.877318437625</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>304.3942289882174</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,13 +3793,13 @@
         <v>130.9633323574852</v>
       </c>
       <c r="T41" t="n">
-        <v>203.8761593011893</v>
+        <v>208.1010775523311</v>
       </c>
       <c r="U41" t="n">
         <v>251.0716193816357</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>94.53483351802068</v>
       </c>
       <c r="I42" t="n">
-        <v>26.2950006352321</v>
+        <v>26.29500063523178</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4544542845511</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>88.02266694538221</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>153.7009592206957</v>
+        <v>197.2391565216902</v>
       </c>
       <c r="T43" t="n">
         <v>221.3804368397668</v>
@@ -3957,13 +3957,13 @@
         <v>286.2352188979141</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>272.0785903954701</v>
       </c>
       <c r="F44" t="n">
-        <v>143.2452520839282</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>411.877318437625</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4036,7 +4036,7 @@
         <v>251.0716193816357</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>137.6404434050435</v>
+        <v>137.6404434050436</v>
       </c>
       <c r="T45" t="n">
         <v>192.7774165920608</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4143,16 +4143,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4544542845511</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.566067759424</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>172.809912036803</v>
+        <v>141.7673920864053</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.3804368397668</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2352188979141</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4200,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U2" t="n">
-        <v>953.9655401424092</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V2" t="n">
-        <v>953.9655401424092</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W2" t="n">
-        <v>953.9655401424092</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X2" t="n">
-        <v>953.9655401424092</v>
+        <v>251.810259228364</v>
       </c>
       <c r="Y2" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.03527576299844</v>
+        <v>536.1337625439884</v>
       </c>
       <c r="C3" t="n">
-        <v>20.03527576299844</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="D3" t="n">
-        <v>20.03527576299844</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="E3" t="n">
-        <v>20.03527576299844</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="F3" t="n">
-        <v>20.03527576299844</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="L3" t="n">
-        <v>19.28114311021272</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M3" t="n">
-        <v>234.810827406191</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>588.4532163200711</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>588.4532163200711</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V3" t="n">
-        <v>353.3011080883284</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W3" t="n">
-        <v>353.3011080883284</v>
+        <v>743.9852627495212</v>
       </c>
       <c r="X3" t="n">
-        <v>145.4496078827955</v>
+        <v>536.1337625439884</v>
       </c>
       <c r="Y3" t="n">
-        <v>20.03527576299844</v>
+        <v>536.1337625439884</v>
       </c>
     </row>
     <row r="4">
@@ -4521,10 +4521,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
         <v>19.28114311021272</v>
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>761.6974622895962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C5" t="n">
-        <v>761.6974622895962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D5" t="n">
-        <v>761.6974622895962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E5" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4591,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>761.6974622895962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>761.6974622895962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>761.6974622895962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>761.6974622895962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W5" t="n">
-        <v>761.6974622895962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X5" t="n">
-        <v>761.6974622895962</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y5" t="n">
-        <v>761.6974622895962</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>414.5729737357042</v>
+        <v>394.2008556776262</v>
       </c>
       <c r="C6" t="n">
-        <v>414.5729737357042</v>
+        <v>394.2008556776262</v>
       </c>
       <c r="D6" t="n">
-        <v>414.5729737357042</v>
+        <v>325.807288741569</v>
       </c>
       <c r="E6" t="n">
-        <v>304.5465265007123</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F6" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N6" t="n">
-        <v>725.4530095217538</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4679,19 +4679,19 @@
         <v>790.6398109613051</v>
       </c>
       <c r="U6" t="n">
-        <v>790.6398109613051</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V6" t="n">
-        <v>790.6398109613051</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="W6" t="n">
-        <v>790.6398109613051</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="X6" t="n">
-        <v>582.7883107557723</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="Y6" t="n">
-        <v>582.7883107557723</v>
+        <v>562.4161926976942</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
         <v>19.28114311021272</v>
@@ -4764,13 +4764,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>325.7766548071333</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="C8" t="n">
-        <v>325.7766548071333</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="D8" t="n">
-        <v>325.7766548071333</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="E8" t="n">
-        <v>274.7999090013961</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F8" t="n">
-        <v>274.7999090013961</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G8" t="n">
-        <v>274.7999090013961</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4831,25 +4831,25 @@
         <v>812.6742080953335</v>
       </c>
       <c r="S8" t="n">
-        <v>812.6742080953335</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T8" t="n">
-        <v>812.6742080953335</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U8" t="n">
-        <v>812.6742080953335</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V8" t="n">
-        <v>812.6742080953335</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W8" t="n">
-        <v>812.6742080953335</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="X8" t="n">
-        <v>812.6742080953335</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="Y8" t="n">
-        <v>569.2254314512334</v>
+        <v>376.1934816808115</v>
       </c>
     </row>
     <row r="9">
@@ -4859,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N9" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>874.2400998294063</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>700.8227552800752</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>498.6361606388412</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U9" t="n">
-        <v>498.6361606388412</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V9" t="n">
-        <v>263.4840524070985</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W9" t="n">
-        <v>20.03527576299844</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="X9" t="n">
-        <v>20.03527576299844</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.03527576299844</v>
+        <v>304.5465265007123</v>
       </c>
     </row>
     <row r="10">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H10" t="n">
         <v>19.28114311021272</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1502.227955239049</v>
+        <v>1334.106329497747</v>
       </c>
       <c r="C11" t="n">
-        <v>1133.265438298637</v>
+        <v>1334.106329497747</v>
       </c>
       <c r="D11" t="n">
-        <v>774.9997396918868</v>
+        <v>1264.304978909822</v>
       </c>
       <c r="E11" t="n">
-        <v>774.9997396918868</v>
+        <v>878.5167263115777</v>
       </c>
       <c r="F11" t="n">
-        <v>774.9997396918868</v>
+        <v>467.5308215219702</v>
       </c>
       <c r="G11" t="n">
-        <v>358.9620443003463</v>
+        <v>51.4931261304297</v>
       </c>
       <c r="H11" t="n">
-        <v>51.49312613042969</v>
+        <v>51.4931261304297</v>
       </c>
       <c r="I11" t="n">
-        <v>51.49312613042969</v>
+        <v>51.4931261304297</v>
       </c>
       <c r="J11" t="n">
         <v>327.4842104748832</v>
       </c>
       <c r="K11" t="n">
-        <v>714.4387521491547</v>
+        <v>540.9641484013626</v>
       </c>
       <c r="L11" t="n">
-        <v>1016.181254192292</v>
+        <v>842.7066504444999</v>
       </c>
       <c r="M11" t="n">
-        <v>1383.597364715189</v>
+        <v>1210.122760967397</v>
       </c>
       <c r="N11" t="n">
-        <v>1761.572460406897</v>
+        <v>1588.097856659105</v>
       </c>
       <c r="O11" t="n">
-        <v>2105.148363909289</v>
+        <v>1931.673760161497</v>
       </c>
       <c r="P11" t="n">
-        <v>2363.881447780166</v>
+        <v>2218.339441581486</v>
       </c>
       <c r="Q11" t="n">
-        <v>2510.006471966859</v>
+        <v>2574.656306521485</v>
       </c>
       <c r="R11" t="n">
         <v>2574.656306521485</v>
       </c>
       <c r="S11" t="n">
-        <v>2442.370112220995</v>
+        <v>2574.656306521485</v>
       </c>
       <c r="T11" t="n">
-        <v>2232.167003582276</v>
+        <v>2364.453197882767</v>
       </c>
       <c r="U11" t="n">
-        <v>2232.167003582276</v>
+        <v>2110.84550153768</v>
       </c>
       <c r="V11" t="n">
-        <v>1901.104116238706</v>
+        <v>2110.84550153768</v>
       </c>
       <c r="W11" t="n">
-        <v>1901.104116238706</v>
+        <v>2110.84550153768</v>
       </c>
       <c r="X11" t="n">
-        <v>1892.367287214861</v>
+        <v>2110.84550153768</v>
       </c>
       <c r="Y11" t="n">
-        <v>1502.227955239049</v>
+        <v>1720.706169561869</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>939.5824674792811</v>
+        <v>939.5824674792816</v>
       </c>
       <c r="C12" t="n">
-        <v>765.1294381981542</v>
+        <v>765.1294381981546</v>
       </c>
       <c r="D12" t="n">
-        <v>616.1950285369029</v>
+        <v>616.1950285369034</v>
       </c>
       <c r="E12" t="n">
-        <v>456.9575735314474</v>
+        <v>456.9575735314478</v>
       </c>
       <c r="F12" t="n">
-        <v>310.4230155583324</v>
+        <v>310.4230155583328</v>
       </c>
       <c r="G12" t="n">
-        <v>173.5434636589675</v>
+        <v>173.543463658968</v>
       </c>
       <c r="H12" t="n">
-        <v>78.05373283268402</v>
+        <v>78.05373283268447</v>
       </c>
       <c r="I12" t="n">
-        <v>51.49312613042969</v>
+        <v>51.4931261304297</v>
       </c>
       <c r="J12" t="n">
         <v>222.1781455547732</v>
       </c>
       <c r="K12" t="n">
-        <v>536.3080135964294</v>
+        <v>640.5268731756904</v>
       </c>
       <c r="L12" t="n">
-        <v>793.101959758751</v>
+        <v>1021.004713011672</v>
       </c>
       <c r="M12" t="n">
-        <v>1112.125250914501</v>
+        <v>1340.028004167422</v>
       </c>
       <c r="N12" t="n">
-        <v>1454.000784219461</v>
+        <v>1977.25544003149</v>
       </c>
       <c r="O12" t="n">
-        <v>1744.530311187991</v>
+        <v>2267.78496700002</v>
       </c>
       <c r="P12" t="n">
-        <v>2273.650944826042</v>
+        <v>2481.627459684533</v>
       </c>
       <c r="Q12" t="n">
         <v>2574.656306521485</v>
@@ -5147,13 +5147,13 @@
         <v>2574.656306521485</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.625555607299</v>
+        <v>2435.6255556073</v>
       </c>
       <c r="T12" t="n">
-        <v>2240.900892382995</v>
+        <v>2240.900892382996</v>
       </c>
       <c r="U12" t="n">
-        <v>2012.79906842978</v>
+        <v>2012.799068429781</v>
       </c>
       <c r="V12" t="n">
         <v>1777.646960198038</v>
@@ -5162,10 +5162,10 @@
         <v>1523.409603469836</v>
       </c>
       <c r="X12" t="n">
-        <v>1315.558103264303</v>
+        <v>1315.558103264304</v>
       </c>
       <c r="Y12" t="n">
-        <v>1107.797804499349</v>
+        <v>1107.79780449935</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>814.6153541422357</v>
+        <v>468.6280802531227</v>
       </c>
       <c r="C13" t="n">
-        <v>814.6153541422357</v>
+        <v>468.6280802531227</v>
       </c>
       <c r="D13" t="n">
-        <v>664.4987147298999</v>
+        <v>318.5114408407869</v>
       </c>
       <c r="E13" t="n">
-        <v>516.5856211475068</v>
+        <v>198.3830736283401</v>
       </c>
       <c r="F13" t="n">
-        <v>369.6956736495964</v>
+        <v>51.4931261304297</v>
       </c>
       <c r="G13" t="n">
-        <v>201.559861240959</v>
+        <v>51.4931261304297</v>
       </c>
       <c r="H13" t="n">
-        <v>51.49312613042969</v>
+        <v>51.4931261304297</v>
       </c>
       <c r="I13" t="n">
-        <v>51.49312613042969</v>
+        <v>51.4931261304297</v>
       </c>
       <c r="J13" t="n">
         <v>66.613537312944</v>
@@ -5223,28 +5223,28 @@
         <v>1491.580916037331</v>
       </c>
       <c r="R13" t="n">
-        <v>1382.282293117761</v>
+        <v>1491.580916037331</v>
       </c>
       <c r="S13" t="n">
-        <v>1224.253369870493</v>
+        <v>1491.580916037331</v>
       </c>
       <c r="T13" t="n">
-        <v>1224.253369870493</v>
+        <v>1267.96431316888</v>
       </c>
       <c r="U13" t="n">
-        <v>1224.253369870493</v>
+        <v>978.8378294336134</v>
       </c>
       <c r="V13" t="n">
-        <v>1224.253369870493</v>
+        <v>978.8378294336134</v>
       </c>
       <c r="W13" t="n">
-        <v>1224.253369870493</v>
+        <v>689.4206593966528</v>
       </c>
       <c r="X13" t="n">
-        <v>996.2638189724754</v>
+        <v>689.4206593966528</v>
       </c>
       <c r="Y13" t="n">
-        <v>996.2638189724754</v>
+        <v>468.6280802531227</v>
       </c>
     </row>
     <row r="14">
@@ -5254,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1580.547289667377</v>
+        <v>1236.782424918328</v>
       </c>
       <c r="C14" t="n">
-        <v>1211.584772726965</v>
+        <v>1236.782424918328</v>
       </c>
       <c r="D14" t="n">
-        <v>853.3190741202144</v>
+        <v>878.5167263115777</v>
       </c>
       <c r="E14" t="n">
-        <v>467.5308215219702</v>
+        <v>878.5167263115777</v>
       </c>
       <c r="F14" t="n">
         <v>467.5308215219702</v>
       </c>
       <c r="G14" t="n">
-        <v>51.49312613042969</v>
+        <v>51.4931261304297</v>
       </c>
       <c r="H14" t="n">
-        <v>51.49312613042969</v>
+        <v>51.4931261304297</v>
       </c>
       <c r="I14" t="n">
-        <v>51.49312613042969</v>
+        <v>51.4931261304297</v>
       </c>
       <c r="J14" t="n">
-        <v>327.4842104748832</v>
+        <v>290.7669734693698</v>
       </c>
       <c r="K14" t="n">
-        <v>540.9641484013626</v>
+        <v>504.2469113958492</v>
       </c>
       <c r="L14" t="n">
-        <v>842.7066504444999</v>
+        <v>805.9894134389865</v>
       </c>
       <c r="M14" t="n">
-        <v>1210.122760967397</v>
+        <v>1173.405523961884</v>
       </c>
       <c r="N14" t="n">
-        <v>1588.097856659105</v>
+        <v>1551.380619653592</v>
       </c>
       <c r="O14" t="n">
-        <v>1931.673760161497</v>
+        <v>1894.956523155984</v>
       </c>
       <c r="P14" t="n">
-        <v>2190.406844032374</v>
+        <v>2153.68960702686</v>
       </c>
       <c r="Q14" t="n">
-        <v>2546.723708972372</v>
+        <v>2510.006471966859</v>
       </c>
       <c r="R14" t="n">
         <v>2574.656306521485</v>
@@ -5308,22 +5308,22 @@
         <v>2442.370112220995</v>
       </c>
       <c r="T14" t="n">
-        <v>2357.28646170731</v>
+        <v>2232.167003582277</v>
       </c>
       <c r="U14" t="n">
-        <v>2357.28646170731</v>
+        <v>1978.55930723719</v>
       </c>
       <c r="V14" t="n">
-        <v>2357.28646170731</v>
+        <v>1647.49641989362</v>
       </c>
       <c r="W14" t="n">
-        <v>2357.28646170731</v>
+        <v>1294.727764623505</v>
       </c>
       <c r="X14" t="n">
-        <v>2357.28646170731</v>
+        <v>1236.782424918328</v>
       </c>
       <c r="Y14" t="n">
-        <v>1967.147129731498</v>
+        <v>1236.782424918328</v>
       </c>
     </row>
     <row r="15">
@@ -5339,13 +5339,13 @@
         <v>765.1294381981546</v>
       </c>
       <c r="D15" t="n">
-        <v>616.1950285369032</v>
+        <v>616.1950285369034</v>
       </c>
       <c r="E15" t="n">
-        <v>456.9575735314477</v>
+        <v>456.9575735314478</v>
       </c>
       <c r="F15" t="n">
-        <v>310.4230155583327</v>
+        <v>310.4230155583328</v>
       </c>
       <c r="G15" t="n">
         <v>173.543463658968</v>
@@ -5354,40 +5354,40 @@
         <v>78.05373283268435</v>
       </c>
       <c r="I15" t="n">
-        <v>51.49312613042969</v>
+        <v>51.4931261304297</v>
       </c>
       <c r="J15" t="n">
-        <v>97.34802056776846</v>
+        <v>222.1781455547732</v>
       </c>
       <c r="K15" t="n">
-        <v>253.8761635462328</v>
+        <v>640.5268731756904</v>
       </c>
       <c r="L15" t="n">
-        <v>510.6701097085545</v>
+        <v>987.5807127728476</v>
       </c>
       <c r="M15" t="n">
-        <v>829.6934008643043</v>
+        <v>1306.604003928597</v>
       </c>
       <c r="N15" t="n">
-        <v>1171.568934169264</v>
+        <v>1648.479537233557</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.796370033332</v>
+        <v>1939.009064202088</v>
       </c>
       <c r="P15" t="n">
-        <v>2337.917003671382</v>
+        <v>2468.129697840138</v>
       </c>
       <c r="Q15" t="n">
-        <v>2574.656306521485</v>
+        <v>2561.158544677091</v>
       </c>
       <c r="R15" t="n">
         <v>2574.656306521485</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.625555607299</v>
+        <v>2435.6255556073</v>
       </c>
       <c r="T15" t="n">
-        <v>2240.900892382995</v>
+        <v>2240.900892382996</v>
       </c>
       <c r="U15" t="n">
         <v>2012.799068429781</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>517.4358959685827</v>
+        <v>348.4997130406758</v>
       </c>
       <c r="C16" t="n">
         <v>348.4997130406758</v>
       </c>
       <c r="D16" t="n">
-        <v>198.38307362834</v>
+        <v>198.3830736283401</v>
       </c>
       <c r="E16" t="n">
-        <v>198.38307362834</v>
+        <v>198.3830736283401</v>
       </c>
       <c r="F16" t="n">
-        <v>51.49312613042969</v>
+        <v>51.4931261304297</v>
       </c>
       <c r="G16" t="n">
-        <v>51.49312613042969</v>
+        <v>51.4931261304297</v>
       </c>
       <c r="H16" t="n">
-        <v>51.49312613042969</v>
+        <v>51.4931261304297</v>
       </c>
       <c r="I16" t="n">
-        <v>51.49312613042969</v>
+        <v>51.4931261304297</v>
       </c>
       <c r="J16" t="n">
         <v>66.613537312944</v>
@@ -5466,22 +5466,22 @@
         <v>1292.349444803301</v>
       </c>
       <c r="T16" t="n">
-        <v>1095.97954974081</v>
+        <v>1068.73284193485</v>
       </c>
       <c r="U16" t="n">
-        <v>806.8530660055433</v>
+        <v>1068.73284193485</v>
       </c>
       <c r="V16" t="n">
-        <v>806.8530660055433</v>
+        <v>1068.73284193485</v>
       </c>
       <c r="W16" t="n">
-        <v>517.4358959685827</v>
+        <v>779.3156718978889</v>
       </c>
       <c r="X16" t="n">
-        <v>517.4358959685827</v>
+        <v>569.292292184206</v>
       </c>
       <c r="Y16" t="n">
-        <v>517.4358959685827</v>
+        <v>348.4997130406758</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1484.233770271258</v>
+        <v>1081.962073281263</v>
       </c>
       <c r="C17" t="n">
-        <v>1115.271253330846</v>
+        <v>1081.962073281263</v>
       </c>
       <c r="D17" t="n">
-        <v>1115.271253330846</v>
+        <v>853.3190741202144</v>
       </c>
       <c r="E17" t="n">
-        <v>957.7262420536988</v>
+        <v>467.5308215219702</v>
       </c>
       <c r="F17" t="n">
-        <v>546.7403372640913</v>
+        <v>467.5308215219702</v>
       </c>
       <c r="G17" t="n">
-        <v>130.7026418725508</v>
+        <v>51.4931261304297</v>
       </c>
       <c r="H17" t="n">
-        <v>130.7026418725508</v>
+        <v>51.4931261304297</v>
       </c>
       <c r="I17" t="n">
         <v>51.4931261304297</v>
@@ -5518,25 +5518,25 @@
         <v>160.0785614545302</v>
       </c>
       <c r="K17" t="n">
-        <v>373.5584993810096</v>
+        <v>694.4624578264627</v>
       </c>
       <c r="L17" t="n">
-        <v>675.301001424147</v>
+        <v>996.2049598696001</v>
       </c>
       <c r="M17" t="n">
-        <v>1042.717111947044</v>
+        <v>1363.621070392497</v>
       </c>
       <c r="N17" t="n">
-        <v>1420.692207638752</v>
+        <v>1741.596166084205</v>
       </c>
       <c r="O17" t="n">
-        <v>1764.268111141144</v>
+        <v>2085.172069586597</v>
       </c>
       <c r="P17" t="n">
-        <v>2341.581916101789</v>
+        <v>2363.881447780166</v>
       </c>
       <c r="Q17" t="n">
-        <v>2574.656306521485</v>
+        <v>2510.006471966859</v>
       </c>
       <c r="R17" t="n">
         <v>2574.656306521485</v>
@@ -5545,22 +5545,22 @@
         <v>2442.370112220995</v>
       </c>
       <c r="T17" t="n">
-        <v>2442.370112220995</v>
+        <v>2232.167003582277</v>
       </c>
       <c r="U17" t="n">
-        <v>2188.762415875909</v>
+        <v>2232.167003582277</v>
       </c>
       <c r="V17" t="n">
-        <v>1857.699528532338</v>
+        <v>2232.167003582277</v>
       </c>
       <c r="W17" t="n">
-        <v>1857.699528532338</v>
+        <v>2232.167003582277</v>
       </c>
       <c r="X17" t="n">
-        <v>1484.233770271258</v>
+        <v>1858.701245321197</v>
       </c>
       <c r="Y17" t="n">
-        <v>1484.233770271258</v>
+        <v>1468.561913345385</v>
       </c>
     </row>
     <row r="18">
@@ -5576,19 +5576,19 @@
         <v>765.1294381981546</v>
       </c>
       <c r="D18" t="n">
-        <v>616.1950285369032</v>
+        <v>616.1950285369034</v>
       </c>
       <c r="E18" t="n">
-        <v>456.9575735314477</v>
+        <v>456.9575735314478</v>
       </c>
       <c r="F18" t="n">
-        <v>310.4230155583327</v>
+        <v>310.4230155583328</v>
       </c>
       <c r="G18" t="n">
-        <v>173.5434636589678</v>
+        <v>173.543463658968</v>
       </c>
       <c r="H18" t="n">
-        <v>78.05373283268432</v>
+        <v>78.05373283268435</v>
       </c>
       <c r="I18" t="n">
         <v>51.4931261304297</v>
@@ -5600,22 +5600,22 @@
         <v>640.5268731756904</v>
       </c>
       <c r="L18" t="n">
-        <v>1264.452761188437</v>
+        <v>1094.882338867895</v>
       </c>
       <c r="M18" t="n">
-        <v>1583.476052344186</v>
+        <v>1413.905630023645</v>
       </c>
       <c r="N18" t="n">
-        <v>1925.351585649146</v>
+        <v>1755.781163328604</v>
       </c>
       <c r="O18" t="n">
-        <v>2215.881112617677</v>
+        <v>2046.310690297135</v>
       </c>
       <c r="P18" t="n">
-        <v>2429.72360530219</v>
+        <v>2260.153182981648</v>
       </c>
       <c r="Q18" t="n">
-        <v>2574.656306521485</v>
+        <v>2561.158544677091</v>
       </c>
       <c r="R18" t="n">
         <v>2574.656306521485</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>751.8516982459735</v>
+        <v>255.9117300854473</v>
       </c>
       <c r="C19" t="n">
-        <v>582.9155153180666</v>
+        <v>86.9755471575404</v>
       </c>
       <c r="D19" t="n">
-        <v>432.7988759057308</v>
+        <v>86.9755471575404</v>
       </c>
       <c r="E19" t="n">
-        <v>284.8857823233377</v>
+        <v>86.9755471575404</v>
       </c>
       <c r="F19" t="n">
-        <v>219.6289385390672</v>
+        <v>51.4931261304297</v>
       </c>
       <c r="G19" t="n">
         <v>51.4931261304297</v>
@@ -5697,28 +5697,28 @@
         <v>1491.580916037331</v>
       </c>
       <c r="R19" t="n">
-        <v>1382.282293117761</v>
+        <v>1491.580916037331</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.282293117761</v>
+        <v>1491.580916037331</v>
       </c>
       <c r="T19" t="n">
-        <v>1382.282293117761</v>
+        <v>1491.580916037331</v>
       </c>
       <c r="U19" t="n">
-        <v>1382.282293117761</v>
+        <v>1202.454432302065</v>
       </c>
       <c r="V19" t="n">
-        <v>1382.282293117761</v>
+        <v>947.7699440961777</v>
       </c>
       <c r="W19" t="n">
-        <v>1382.282293117761</v>
+        <v>658.3527740592172</v>
       </c>
       <c r="X19" t="n">
-        <v>1154.292742219743</v>
+        <v>658.3527740592172</v>
       </c>
       <c r="Y19" t="n">
-        <v>933.5001630762132</v>
+        <v>437.560194915687</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1343.514494651943</v>
+        <v>1081.962073281263</v>
       </c>
       <c r="C20" t="n">
-        <v>1343.514494651943</v>
+        <v>1081.962073281263</v>
       </c>
       <c r="D20" t="n">
-        <v>1343.514494651943</v>
+        <v>1081.962073281263</v>
       </c>
       <c r="E20" t="n">
-        <v>957.7262420536988</v>
+        <v>1081.962073281263</v>
       </c>
       <c r="F20" t="n">
-        <v>546.7403372640913</v>
+        <v>670.9761684916559</v>
       </c>
       <c r="G20" t="n">
-        <v>130.7026418725508</v>
+        <v>358.9620443003463</v>
       </c>
       <c r="H20" t="n">
-        <v>130.7026418725508</v>
+        <v>51.4931261304297</v>
       </c>
       <c r="I20" t="n">
-        <v>51.49312613042969</v>
+        <v>51.4931261304297</v>
       </c>
       <c r="J20" t="n">
         <v>160.0785614545302</v>
@@ -5758,46 +5758,46 @@
         <v>694.4624578264627</v>
       </c>
       <c r="L20" t="n">
-        <v>996.2049598696001</v>
+        <v>1016.181254192292</v>
       </c>
       <c r="M20" t="n">
-        <v>1363.621070392497</v>
+        <v>1383.597364715189</v>
       </c>
       <c r="N20" t="n">
-        <v>1741.596166084205</v>
+        <v>1761.572460406897</v>
       </c>
       <c r="O20" t="n">
-        <v>2085.172069586597</v>
+        <v>2105.148363909289</v>
       </c>
       <c r="P20" t="n">
-        <v>2428.531282334791</v>
+        <v>2363.881447780166</v>
       </c>
       <c r="Q20" t="n">
-        <v>2574.656306521485</v>
+        <v>2510.006471966859</v>
       </c>
       <c r="R20" t="n">
         <v>2574.656306521485</v>
       </c>
       <c r="S20" t="n">
-        <v>2574.656306521485</v>
+        <v>2442.370112220995</v>
       </c>
       <c r="T20" t="n">
-        <v>2364.453197882766</v>
+        <v>2232.167003582277</v>
       </c>
       <c r="U20" t="n">
-        <v>2120.253666691877</v>
+        <v>2232.167003582277</v>
       </c>
       <c r="V20" t="n">
-        <v>2120.253666691877</v>
+        <v>2232.167003582277</v>
       </c>
       <c r="W20" t="n">
-        <v>2120.253666691877</v>
+        <v>2232.167003582277</v>
       </c>
       <c r="X20" t="n">
-        <v>2120.253666691877</v>
+        <v>1858.701245321197</v>
       </c>
       <c r="Y20" t="n">
-        <v>1730.114334716065</v>
+        <v>1468.561913345385</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>939.5824674792811</v>
+        <v>939.5824674792816</v>
       </c>
       <c r="C21" t="n">
-        <v>765.1294381981542</v>
+        <v>765.1294381981546</v>
       </c>
       <c r="D21" t="n">
-        <v>616.195028536903</v>
+        <v>616.1950285369034</v>
       </c>
       <c r="E21" t="n">
-        <v>456.9575735314475</v>
+        <v>456.9575735314478</v>
       </c>
       <c r="F21" t="n">
-        <v>310.4230155583325</v>
+        <v>310.4230155583328</v>
       </c>
       <c r="G21" t="n">
         <v>173.543463658968</v>
       </c>
       <c r="H21" t="n">
-        <v>78.05373283268455</v>
+        <v>78.05373283268447</v>
       </c>
       <c r="I21" t="n">
-        <v>51.49312613042969</v>
+        <v>51.4931261304297</v>
       </c>
       <c r="J21" t="n">
         <v>222.1781455547732</v>
@@ -5837,19 +5837,19 @@
         <v>640.5268731756904</v>
       </c>
       <c r="L21" t="n">
-        <v>1108.380100712289</v>
+        <v>1001.078474617242</v>
       </c>
       <c r="M21" t="n">
-        <v>1427.403391868039</v>
+        <v>1320.101765772992</v>
       </c>
       <c r="N21" t="n">
-        <v>1769.278925172998</v>
+        <v>1661.977299077952</v>
       </c>
       <c r="O21" t="n">
-        <v>2059.808452141529</v>
+        <v>1952.506826046482</v>
       </c>
       <c r="P21" t="n">
-        <v>2273.650944826042</v>
+        <v>2481.627459684533</v>
       </c>
       <c r="Q21" t="n">
         <v>2574.656306521485</v>
@@ -5858,13 +5858,13 @@
         <v>2574.656306521485</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.625555607299</v>
+        <v>2435.6255556073</v>
       </c>
       <c r="T21" t="n">
-        <v>2240.900892382995</v>
+        <v>2240.900892382996</v>
       </c>
       <c r="U21" t="n">
-        <v>2012.79906842978</v>
+        <v>2012.799068429781</v>
       </c>
       <c r="V21" t="n">
         <v>1777.646960198038</v>
@@ -5873,10 +5873,10 @@
         <v>1523.409603469836</v>
       </c>
       <c r="X21" t="n">
-        <v>1315.558103264303</v>
+        <v>1315.558103264304</v>
       </c>
       <c r="Y21" t="n">
-        <v>1107.797804499349</v>
+        <v>1107.79780449935</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>51.49312613042969</v>
+        <v>459.1213028251867</v>
       </c>
       <c r="C22" t="n">
-        <v>51.49312613042969</v>
+        <v>290.1851198972797</v>
       </c>
       <c r="D22" t="n">
-        <v>51.49312613042969</v>
+        <v>290.1851198972797</v>
       </c>
       <c r="E22" t="n">
-        <v>51.49312613042969</v>
+        <v>290.1851198972797</v>
       </c>
       <c r="F22" t="n">
-        <v>51.49312613042969</v>
+        <v>143.2951723993694</v>
       </c>
       <c r="G22" t="n">
-        <v>51.49312613042969</v>
+        <v>143.2951723993694</v>
       </c>
       <c r="H22" t="n">
-        <v>51.49312613042969</v>
+        <v>51.4931261304297</v>
       </c>
       <c r="I22" t="n">
-        <v>51.49312613042969</v>
+        <v>51.4931261304297</v>
       </c>
       <c r="J22" t="n">
         <v>66.613537312944</v>
@@ -5940,22 +5940,22 @@
         <v>1292.349444803301</v>
       </c>
       <c r="T22" t="n">
-        <v>1112.710819006561</v>
+        <v>1292.349444803301</v>
       </c>
       <c r="U22" t="n">
-        <v>823.5843352712944</v>
+        <v>1003.222961068034</v>
       </c>
       <c r="V22" t="n">
-        <v>568.8998470654076</v>
+        <v>748.5384728621473</v>
       </c>
       <c r="W22" t="n">
-        <v>279.482677028447</v>
+        <v>459.1213028251867</v>
       </c>
       <c r="X22" t="n">
-        <v>51.49312613042969</v>
+        <v>459.1213028251867</v>
       </c>
       <c r="Y22" t="n">
-        <v>51.49312613042969</v>
+        <v>459.1213028251867</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1264.304978909822</v>
+        <v>1247.479243251989</v>
       </c>
       <c r="C23" t="n">
-        <v>1264.304978909822</v>
+        <v>878.5167263115777</v>
       </c>
       <c r="D23" t="n">
-        <v>1264.304978909822</v>
+        <v>878.5167263115777</v>
       </c>
       <c r="E23" t="n">
         <v>878.5167263115777</v>
@@ -5992,22 +5992,22 @@
         <v>327.4842104748832</v>
       </c>
       <c r="K23" t="n">
-        <v>714.4387521491547</v>
+        <v>540.9641484013626</v>
       </c>
       <c r="L23" t="n">
-        <v>1016.181254192292</v>
+        <v>842.7066504444999</v>
       </c>
       <c r="M23" t="n">
-        <v>1383.597364715189</v>
+        <v>1210.122760967397</v>
       </c>
       <c r="N23" t="n">
-        <v>1761.572460406897</v>
+        <v>1588.097856659105</v>
       </c>
       <c r="O23" t="n">
-        <v>2105.148363909289</v>
+        <v>1931.673760161497</v>
       </c>
       <c r="P23" t="n">
-        <v>2363.881447780166</v>
+        <v>2190.406844032374</v>
       </c>
       <c r="Q23" t="n">
         <v>2510.006471966859</v>
@@ -6016,25 +6016,25 @@
         <v>2574.656306521485</v>
       </c>
       <c r="S23" t="n">
-        <v>2574.656306521485</v>
+        <v>2571.518322274882</v>
       </c>
       <c r="T23" t="n">
-        <v>2574.656306521485</v>
+        <v>2571.518322274882</v>
       </c>
       <c r="U23" t="n">
-        <v>2414.509909210835</v>
+        <v>2317.910625929796</v>
       </c>
       <c r="V23" t="n">
-        <v>2414.509909210835</v>
+        <v>1986.847738586225</v>
       </c>
       <c r="W23" t="n">
-        <v>2414.509909210835</v>
+        <v>1634.079083316111</v>
       </c>
       <c r="X23" t="n">
-        <v>2041.044150949755</v>
+        <v>1634.079083316111</v>
       </c>
       <c r="Y23" t="n">
-        <v>1650.904818973944</v>
+        <v>1634.079083316111</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>51.4931261304297</v>
       </c>
       <c r="J24" t="n">
-        <v>222.1781455547732</v>
+        <v>97.34802056776847</v>
       </c>
       <c r="K24" t="n">
-        <v>640.5268731756904</v>
+        <v>253.8761635462329</v>
       </c>
       <c r="L24" t="n">
-        <v>1108.380100712289</v>
+        <v>702.8005683033546</v>
       </c>
       <c r="M24" t="n">
-        <v>1427.403391868039</v>
+        <v>1340.028004167422</v>
       </c>
       <c r="N24" t="n">
-        <v>1769.278925172999</v>
+        <v>1977.25544003149</v>
       </c>
       <c r="O24" t="n">
-        <v>2059.808452141529</v>
+        <v>2267.78496700002</v>
       </c>
       <c r="P24" t="n">
-        <v>2273.650944826042</v>
+        <v>2481.627459684533</v>
       </c>
       <c r="Q24" t="n">
         <v>2574.656306521485</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>51.4931261304297</v>
+        <v>815.4157246615051</v>
       </c>
       <c r="C25" t="n">
-        <v>51.4931261304297</v>
+        <v>646.4795417335982</v>
       </c>
       <c r="D25" t="n">
-        <v>51.4931261304297</v>
+        <v>496.3629023212625</v>
       </c>
       <c r="E25" t="n">
-        <v>51.4931261304297</v>
+        <v>348.4498087388694</v>
       </c>
       <c r="F25" t="n">
-        <v>51.4931261304297</v>
+        <v>201.559861240959</v>
       </c>
       <c r="G25" t="n">
-        <v>51.4931261304297</v>
+        <v>201.559861240959</v>
       </c>
       <c r="H25" t="n">
         <v>51.4931261304297</v>
@@ -6177,22 +6177,22 @@
         <v>1491.580916037331</v>
       </c>
       <c r="T25" t="n">
-        <v>1333.503398150091</v>
+        <v>1491.580916037331</v>
       </c>
       <c r="U25" t="n">
-        <v>1044.376914414825</v>
+        <v>1225.053740389762</v>
       </c>
       <c r="V25" t="n">
-        <v>789.6924262089378</v>
+        <v>1225.053740389762</v>
       </c>
       <c r="W25" t="n">
-        <v>500.2752561719772</v>
+        <v>1225.053740389762</v>
       </c>
       <c r="X25" t="n">
-        <v>272.2857052739598</v>
+        <v>997.0641894917449</v>
       </c>
       <c r="Y25" t="n">
-        <v>51.4931261304297</v>
+        <v>997.0641894917449</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>998.4729712821081</v>
+        <v>836.4933384623819</v>
       </c>
       <c r="C26" t="n">
-        <v>629.5104543416965</v>
+        <v>467.5308215219702</v>
       </c>
       <c r="D26" t="n">
-        <v>629.5104543416965</v>
+        <v>467.5308215219702</v>
       </c>
       <c r="E26" t="n">
-        <v>243.7222017434522</v>
+        <v>467.5308215219702</v>
       </c>
       <c r="F26" t="n">
-        <v>51.49312613042969</v>
+        <v>467.5308215219702</v>
       </c>
       <c r="G26" t="n">
-        <v>51.49312613042969</v>
+        <v>51.4931261304297</v>
       </c>
       <c r="H26" t="n">
-        <v>51.49312613042969</v>
+        <v>51.4931261304297</v>
       </c>
       <c r="I26" t="n">
-        <v>51.49312613042969</v>
+        <v>51.4931261304297</v>
       </c>
       <c r="J26" t="n">
         <v>327.4842104748832</v>
@@ -6247,7 +6247,7 @@
         <v>2190.406844032374</v>
       </c>
       <c r="Q26" t="n">
-        <v>2510.006471966859</v>
+        <v>2546.723708972372</v>
       </c>
       <c r="R26" t="n">
         <v>2574.656306521485</v>
@@ -6256,22 +6256,22 @@
         <v>2442.370112220995</v>
       </c>
       <c r="T26" t="n">
-        <v>2442.370112220995</v>
+        <v>2232.167003582277</v>
       </c>
       <c r="U26" t="n">
-        <v>2442.370112220995</v>
+        <v>1978.55930723719</v>
       </c>
       <c r="V26" t="n">
-        <v>2111.307224877424</v>
+        <v>1647.49641989362</v>
       </c>
       <c r="W26" t="n">
-        <v>1758.53856960731</v>
+        <v>1600.098428699273</v>
       </c>
       <c r="X26" t="n">
-        <v>1385.07281134623</v>
+        <v>1226.632670438194</v>
       </c>
       <c r="Y26" t="n">
-        <v>1385.07281134623</v>
+        <v>836.4933384623819</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>939.5824674792807</v>
+        <v>939.5824674792816</v>
       </c>
       <c r="C27" t="n">
-        <v>765.1294381981537</v>
+        <v>765.1294381981546</v>
       </c>
       <c r="D27" t="n">
-        <v>616.1950285369026</v>
+        <v>616.1950285369032</v>
       </c>
       <c r="E27" t="n">
-        <v>456.957573531447</v>
+        <v>456.9575735314477</v>
       </c>
       <c r="F27" t="n">
-        <v>310.4230155583321</v>
+        <v>310.4230155583327</v>
       </c>
       <c r="G27" t="n">
-        <v>173.5434636589675</v>
+        <v>173.5434636589678</v>
       </c>
       <c r="H27" t="n">
-        <v>78.05373283268435</v>
+        <v>78.05373283268432</v>
       </c>
       <c r="I27" t="n">
-        <v>51.49312613042969</v>
+        <v>51.4931261304297</v>
       </c>
       <c r="J27" t="n">
-        <v>97.34802056776846</v>
+        <v>222.1781455547732</v>
       </c>
       <c r="K27" t="n">
-        <v>253.8761635462328</v>
+        <v>384.088857714989</v>
       </c>
       <c r="L27" t="n">
-        <v>877.8020515589791</v>
+        <v>640.8828038773106</v>
       </c>
       <c r="M27" t="n">
-        <v>1288.681997830992</v>
+        <v>959.9060950330604</v>
       </c>
       <c r="N27" t="n">
-        <v>1630.557531135952</v>
+        <v>1301.78162833802</v>
       </c>
       <c r="O27" t="n">
-        <v>2267.78496700002</v>
+        <v>1939.009064202088</v>
       </c>
       <c r="P27" t="n">
-        <v>2481.627459684532</v>
+        <v>2468.129697840138</v>
       </c>
       <c r="Q27" t="n">
-        <v>2574.656306521485</v>
+        <v>2561.158544677091</v>
       </c>
       <c r="R27" t="n">
         <v>2574.656306521485</v>
       </c>
       <c r="S27" t="n">
-        <v>2435.625555607299</v>
+        <v>2435.6255556073</v>
       </c>
       <c r="T27" t="n">
-        <v>2240.900892382995</v>
+        <v>2240.900892382996</v>
       </c>
       <c r="U27" t="n">
-        <v>2012.79906842978</v>
+        <v>2012.799068429781</v>
       </c>
       <c r="V27" t="n">
-        <v>1777.646960198037</v>
+        <v>1777.646960198038</v>
       </c>
       <c r="W27" t="n">
-        <v>1523.409603469835</v>
+        <v>1523.409603469836</v>
       </c>
       <c r="X27" t="n">
-        <v>1315.558103264303</v>
+        <v>1315.558103264304</v>
       </c>
       <c r="Y27" t="n">
-        <v>1107.797804499349</v>
+        <v>1107.79780449935</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>665.3489895509758</v>
+        <v>220.4293090583366</v>
       </c>
       <c r="C28" t="n">
-        <v>496.4128066230689</v>
+        <v>51.4931261304297</v>
       </c>
       <c r="D28" t="n">
-        <v>346.2961672107332</v>
+        <v>51.4931261304297</v>
       </c>
       <c r="E28" t="n">
-        <v>198.38307362834</v>
+        <v>51.4931261304297</v>
       </c>
       <c r="F28" t="n">
-        <v>51.49312613042969</v>
+        <v>51.4931261304297</v>
       </c>
       <c r="G28" t="n">
-        <v>51.49312613042969</v>
+        <v>51.4931261304297</v>
       </c>
       <c r="H28" t="n">
-        <v>51.49312613042969</v>
+        <v>51.4931261304297</v>
       </c>
       <c r="I28" t="n">
-        <v>51.49312613042969</v>
+        <v>51.4931261304297</v>
       </c>
       <c r="J28" t="n">
         <v>66.613537312944</v>
@@ -6408,28 +6408,28 @@
         <v>1491.580916037331</v>
       </c>
       <c r="R28" t="n">
-        <v>1491.580916037331</v>
+        <v>1382.282293117761</v>
       </c>
       <c r="S28" t="n">
-        <v>1491.580916037331</v>
+        <v>1183.05082188373</v>
       </c>
       <c r="T28" t="n">
-        <v>1491.580916037331</v>
+        <v>959.4342190152788</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.450647793823</v>
+        <v>959.4342190152788</v>
       </c>
       <c r="V28" t="n">
-        <v>954.7661595879365</v>
+        <v>959.4342190152788</v>
       </c>
       <c r="W28" t="n">
-        <v>665.3489895509758</v>
+        <v>850.8599039301238</v>
       </c>
       <c r="X28" t="n">
-        <v>665.3489895509758</v>
+        <v>622.8703530321064</v>
       </c>
       <c r="Y28" t="n">
-        <v>665.3489895509758</v>
+        <v>402.0777738885763</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1265.195160223615</v>
+        <v>1604.387599557565</v>
       </c>
       <c r="C29" t="n">
-        <v>1265.195160223615</v>
+        <v>1235.425082617153</v>
       </c>
       <c r="D29" t="n">
-        <v>1265.195160223615</v>
+        <v>877.1593840104026</v>
       </c>
       <c r="E29" t="n">
-        <v>1265.195160223615</v>
+        <v>491.3711314121584</v>
       </c>
       <c r="F29" t="n">
-        <v>854.2092554340079</v>
+        <v>80.38522662255082</v>
       </c>
       <c r="G29" t="n">
-        <v>438.1715600424674</v>
+        <v>51.49312613042969</v>
       </c>
       <c r="H29" t="n">
-        <v>130.7026418725508</v>
+        <v>51.49312613042969</v>
       </c>
       <c r="I29" t="n">
         <v>51.49312613042969</v>
@@ -6484,7 +6484,7 @@
         <v>2190.406844032374</v>
       </c>
       <c r="Q29" t="n">
-        <v>2546.723708972372</v>
+        <v>2510.006471966859</v>
       </c>
       <c r="R29" t="n">
         <v>2574.656306521485</v>
@@ -6496,19 +6496,19 @@
         <v>2364.453197882766</v>
       </c>
       <c r="U29" t="n">
-        <v>2110.84550153768</v>
+        <v>2364.453197882766</v>
       </c>
       <c r="V29" t="n">
-        <v>1779.782614194109</v>
+        <v>2364.453197882766</v>
       </c>
       <c r="W29" t="n">
-        <v>1427.013958923995</v>
+        <v>2364.453197882766</v>
       </c>
       <c r="X29" t="n">
-        <v>1265.195160223615</v>
+        <v>1990.987439621686</v>
       </c>
       <c r="Y29" t="n">
-        <v>1265.195160223615</v>
+        <v>1990.987439621686</v>
       </c>
     </row>
     <row r="30">
@@ -6518,52 +6518,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>939.5824674792815</v>
+        <v>939.5824674792811</v>
       </c>
       <c r="C30" t="n">
-        <v>765.1294381981545</v>
+        <v>765.1294381981542</v>
       </c>
       <c r="D30" t="n">
-        <v>616.1950285369032</v>
+        <v>616.195028536903</v>
       </c>
       <c r="E30" t="n">
-        <v>456.9575735314478</v>
+        <v>456.9575735314475</v>
       </c>
       <c r="F30" t="n">
-        <v>310.4230155583327</v>
+        <v>310.4230155583325</v>
       </c>
       <c r="G30" t="n">
-        <v>173.5434636589679</v>
+        <v>173.543463658968</v>
       </c>
       <c r="H30" t="n">
-        <v>78.05373283268435</v>
+        <v>78.05373283268455</v>
       </c>
       <c r="I30" t="n">
         <v>51.49312613042969</v>
       </c>
       <c r="J30" t="n">
-        <v>222.1781455547732</v>
+        <v>97.34802056776846</v>
       </c>
       <c r="K30" t="n">
-        <v>640.5268731756904</v>
+        <v>253.8761635462328</v>
       </c>
       <c r="L30" t="n">
-        <v>897.320819338012</v>
+        <v>877.8020515589791</v>
       </c>
       <c r="M30" t="n">
-        <v>1306.604003928597</v>
+        <v>1196.825342714729</v>
       </c>
       <c r="N30" t="n">
-        <v>1648.479537233557</v>
+        <v>1538.700876019689</v>
       </c>
       <c r="O30" t="n">
-        <v>1939.009064202087</v>
+        <v>1829.230402988219</v>
       </c>
       <c r="P30" t="n">
-        <v>2468.129697840138</v>
+        <v>2358.35103662627</v>
       </c>
       <c r="Q30" t="n">
-        <v>2561.15854467709</v>
+        <v>2574.656306521485</v>
       </c>
       <c r="R30" t="n">
         <v>2574.656306521485</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>213.9435920472358</v>
+        <v>748.2477865604533</v>
       </c>
       <c r="C31" t="n">
-        <v>213.9435920472358</v>
+        <v>579.3116036325464</v>
       </c>
       <c r="D31" t="n">
-        <v>198.38307362834</v>
+        <v>429.1949642202106</v>
       </c>
       <c r="E31" t="n">
-        <v>198.38307362834</v>
+        <v>429.1949642202106</v>
       </c>
       <c r="F31" t="n">
-        <v>51.49312613042969</v>
+        <v>282.3050167223003</v>
       </c>
       <c r="G31" t="n">
-        <v>51.49312613042969</v>
+        <v>114.1692043136628</v>
       </c>
       <c r="H31" t="n">
         <v>51.49312613042969</v>
@@ -6648,25 +6648,25 @@
         <v>1491.580916037331</v>
       </c>
       <c r="S31" t="n">
-        <v>1491.580916037331</v>
+        <v>1292.349444803301</v>
       </c>
       <c r="T31" t="n">
-        <v>1267.96431316888</v>
+        <v>1292.349444803301</v>
       </c>
       <c r="U31" t="n">
-        <v>978.8378294336134</v>
+        <v>1292.349444803301</v>
       </c>
       <c r="V31" t="n">
-        <v>724.1533412277265</v>
+        <v>1037.664956597414</v>
       </c>
       <c r="W31" t="n">
-        <v>434.7361711907659</v>
+        <v>748.2477865604533</v>
       </c>
       <c r="X31" t="n">
-        <v>434.7361711907659</v>
+        <v>748.2477865604533</v>
       </c>
       <c r="Y31" t="n">
-        <v>213.9435920472358</v>
+        <v>748.2477865604533</v>
       </c>
     </row>
     <row r="32">
@@ -6676,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1835.993760605794</v>
+        <v>1174.869702707512</v>
       </c>
       <c r="C32" t="n">
-        <v>1467.031243665382</v>
+        <v>1174.869702707512</v>
       </c>
       <c r="D32" t="n">
-        <v>1108.765545058632</v>
+        <v>1174.869702707512</v>
       </c>
       <c r="E32" t="n">
-        <v>722.9772924603876</v>
+        <v>789.0814501092673</v>
       </c>
       <c r="F32" t="n">
-        <v>722.9772924603876</v>
+        <v>546.7403372640913</v>
       </c>
       <c r="G32" t="n">
-        <v>306.9395970688471</v>
+        <v>130.7026418725508</v>
       </c>
       <c r="H32" t="n">
-        <v>51.49312613042969</v>
+        <v>130.7026418725508</v>
       </c>
       <c r="I32" t="n">
         <v>51.49312613042969</v>
       </c>
       <c r="J32" t="n">
-        <v>160.0785614545302</v>
+        <v>327.4842104748832</v>
       </c>
       <c r="K32" t="n">
-        <v>395.8580310593866</v>
+        <v>540.9641484013626</v>
       </c>
       <c r="L32" t="n">
-        <v>697.600533102524</v>
+        <v>842.7066504444999</v>
       </c>
       <c r="M32" t="n">
-        <v>1065.016643625421</v>
+        <v>1210.122760967397</v>
       </c>
       <c r="N32" t="n">
-        <v>1442.991739317129</v>
+        <v>1588.097856659105</v>
       </c>
       <c r="O32" t="n">
-        <v>1786.567642819521</v>
+        <v>1931.673760161497</v>
       </c>
       <c r="P32" t="n">
-        <v>2363.881447780166</v>
+        <v>2190.406844032374</v>
       </c>
       <c r="Q32" t="n">
         <v>2510.006471966859</v>
@@ -6730,22 +6730,22 @@
         <v>2442.370112220995</v>
       </c>
       <c r="T32" t="n">
-        <v>2442.370112220995</v>
+        <v>2232.167003582276</v>
       </c>
       <c r="U32" t="n">
-        <v>2188.762415875908</v>
+        <v>2232.167003582276</v>
       </c>
       <c r="V32" t="n">
-        <v>2188.762415875908</v>
+        <v>1901.104116238706</v>
       </c>
       <c r="W32" t="n">
-        <v>1835.993760605794</v>
+        <v>1548.335460968591</v>
       </c>
       <c r="X32" t="n">
-        <v>1835.993760605794</v>
+        <v>1174.869702707512</v>
       </c>
       <c r="Y32" t="n">
-        <v>1835.993760605794</v>
+        <v>1174.869702707512</v>
       </c>
     </row>
     <row r="33">
@@ -6797,10 +6797,10 @@
         <v>1848.749170767252</v>
       </c>
       <c r="P33" t="n">
-        <v>2273.650944826042</v>
+        <v>2260.153182981647</v>
       </c>
       <c r="Q33" t="n">
-        <v>2574.656306521485</v>
+        <v>2561.15854467709</v>
       </c>
       <c r="R33" t="n">
         <v>2574.656306521485</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>206.7466202927486</v>
+        <v>665.3489895509758</v>
       </c>
       <c r="C34" t="n">
-        <v>206.7466202927486</v>
+        <v>496.4128066230689</v>
       </c>
       <c r="D34" t="n">
-        <v>199.4062197128228</v>
+        <v>346.2961672107332</v>
       </c>
       <c r="E34" t="n">
-        <v>51.49312613042969</v>
+        <v>198.38307362834</v>
       </c>
       <c r="F34" t="n">
         <v>51.49312613042969</v>
@@ -6891,19 +6891,19 @@
         <v>1267.96431316888</v>
       </c>
       <c r="U34" t="n">
-        <v>978.8378294336134</v>
+        <v>1267.96431316888</v>
       </c>
       <c r="V34" t="n">
-        <v>724.1533412277265</v>
+        <v>1114.131119592523</v>
       </c>
       <c r="W34" t="n">
-        <v>434.7361711907659</v>
+        <v>1114.131119592523</v>
       </c>
       <c r="X34" t="n">
-        <v>206.7466202927486</v>
+        <v>886.141568694506</v>
       </c>
       <c r="Y34" t="n">
-        <v>206.7466202927486</v>
+        <v>665.3489895509758</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>862.185561730184</v>
+        <v>853.3190741202144</v>
       </c>
       <c r="C35" t="n">
-        <v>862.185561730184</v>
+        <v>853.3190741202144</v>
       </c>
       <c r="D35" t="n">
-        <v>862.185561730184</v>
+        <v>853.3190741202144</v>
       </c>
       <c r="E35" t="n">
-        <v>476.3973091319397</v>
+        <v>467.5308215219702</v>
       </c>
       <c r="F35" t="n">
-        <v>476.3973091319397</v>
+        <v>467.5308215219702</v>
       </c>
       <c r="G35" t="n">
-        <v>60.35961374039925</v>
+        <v>51.49312613042969</v>
       </c>
       <c r="H35" t="n">
-        <v>60.35961374039925</v>
+        <v>51.49312613042969</v>
       </c>
       <c r="I35" t="n">
         <v>51.49312613042969</v>
@@ -6958,7 +6958,7 @@
         <v>2190.406844032374</v>
       </c>
       <c r="Q35" t="n">
-        <v>2510.006471966859</v>
+        <v>2546.723708972372</v>
       </c>
       <c r="R35" t="n">
         <v>2574.656306521485</v>
@@ -6967,22 +6967,22 @@
         <v>2442.370112220995</v>
       </c>
       <c r="T35" t="n">
-        <v>2232.167003582276</v>
+        <v>2442.370112220995</v>
       </c>
       <c r="U35" t="n">
-        <v>1978.55930723719</v>
+        <v>2442.370112220995</v>
       </c>
       <c r="V35" t="n">
-        <v>1978.55930723719</v>
+        <v>2111.307224877424</v>
       </c>
       <c r="W35" t="n">
-        <v>1625.790651967076</v>
+        <v>2003.524004421228</v>
       </c>
       <c r="X35" t="n">
-        <v>1252.324893705996</v>
+        <v>1630.058246160148</v>
       </c>
       <c r="Y35" t="n">
-        <v>862.185561730184</v>
+        <v>1239.918914184336</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>51.49312613042969</v>
       </c>
       <c r="J36" t="n">
-        <v>222.1781455547732</v>
+        <v>97.34802056776846</v>
       </c>
       <c r="K36" t="n">
-        <v>640.5268731756904</v>
+        <v>253.8761635462328</v>
       </c>
       <c r="L36" t="n">
-        <v>897.320819338012</v>
+        <v>877.8020515589791</v>
       </c>
       <c r="M36" t="n">
-        <v>1216.344110493762</v>
+        <v>1196.825342714729</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.219643798722</v>
+        <v>1538.700876019689</v>
       </c>
       <c r="O36" t="n">
-        <v>1848.749170767252</v>
+        <v>1829.230402988219</v>
       </c>
       <c r="P36" t="n">
-        <v>2260.153182981647</v>
+        <v>2358.35103662627</v>
       </c>
       <c r="Q36" t="n">
-        <v>2561.15854467709</v>
+        <v>2574.656306521485</v>
       </c>
       <c r="R36" t="n">
         <v>2574.656306521485</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>51.49312613042969</v>
+        <v>814.6153541422357</v>
       </c>
       <c r="C37" t="n">
-        <v>51.49312613042969</v>
+        <v>814.6153541422357</v>
       </c>
       <c r="D37" t="n">
-        <v>51.49312613042969</v>
+        <v>664.4987147298999</v>
       </c>
       <c r="E37" t="n">
-        <v>51.49312613042969</v>
+        <v>516.5856211475068</v>
       </c>
       <c r="F37" t="n">
-        <v>51.49312613042969</v>
+        <v>369.6956736495964</v>
       </c>
       <c r="G37" t="n">
-        <v>51.49312613042969</v>
+        <v>201.559861240959</v>
       </c>
       <c r="H37" t="n">
         <v>51.49312613042969</v>
@@ -7122,25 +7122,25 @@
         <v>1491.580916037331</v>
       </c>
       <c r="S37" t="n">
-        <v>1491.580916037331</v>
+        <v>1292.349444803301</v>
       </c>
       <c r="T37" t="n">
-        <v>1333.503398150091</v>
+        <v>1292.349444803301</v>
       </c>
       <c r="U37" t="n">
-        <v>1044.376914414825</v>
+        <v>1292.349444803301</v>
       </c>
       <c r="V37" t="n">
-        <v>789.6924262089378</v>
+        <v>1217.056398116006</v>
       </c>
       <c r="W37" t="n">
-        <v>500.2752561719772</v>
+        <v>1217.056398116006</v>
       </c>
       <c r="X37" t="n">
-        <v>272.2857052739598</v>
+        <v>1217.056398116006</v>
       </c>
       <c r="Y37" t="n">
-        <v>51.49312613042969</v>
+        <v>996.2638189724754</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1194.759037069132</v>
+        <v>1059.254588565861</v>
       </c>
       <c r="C38" t="n">
-        <v>825.7965201287207</v>
+        <v>1059.254588565861</v>
       </c>
       <c r="D38" t="n">
-        <v>467.5308215219702</v>
+        <v>700.9888899591101</v>
       </c>
       <c r="E38" t="n">
-        <v>467.5308215219702</v>
+        <v>700.9888899591101</v>
       </c>
       <c r="F38" t="n">
-        <v>467.5308215219702</v>
+        <v>290.0029851695026</v>
       </c>
       <c r="G38" t="n">
-        <v>51.49312613042969</v>
+        <v>290.0029851695026</v>
       </c>
       <c r="H38" t="n">
         <v>51.49312613042969</v>
@@ -7174,25 +7174,25 @@
         <v>51.49312613042969</v>
       </c>
       <c r="J38" t="n">
-        <v>327.4842104748832</v>
+        <v>290.7669734693698</v>
       </c>
       <c r="K38" t="n">
-        <v>714.4387521491547</v>
+        <v>504.2469113958492</v>
       </c>
       <c r="L38" t="n">
-        <v>1016.181254192292</v>
+        <v>805.9894134389865</v>
       </c>
       <c r="M38" t="n">
-        <v>1383.597364715189</v>
+        <v>1173.405523961884</v>
       </c>
       <c r="N38" t="n">
-        <v>1761.572460406897</v>
+        <v>1551.380619653592</v>
       </c>
       <c r="O38" t="n">
-        <v>2105.148363909289</v>
+        <v>1894.956523155984</v>
       </c>
       <c r="P38" t="n">
-        <v>2363.881447780166</v>
+        <v>2153.68960702686</v>
       </c>
       <c r="Q38" t="n">
         <v>2510.006471966859</v>
@@ -7201,25 +7201,25 @@
         <v>2574.656306521485</v>
       </c>
       <c r="S38" t="n">
-        <v>2522.337608003715</v>
+        <v>2442.370112220995</v>
       </c>
       <c r="T38" t="n">
-        <v>2522.337608003715</v>
+        <v>2442.370112220995</v>
       </c>
       <c r="U38" t="n">
-        <v>2268.729911658629</v>
+        <v>2188.762415875908</v>
       </c>
       <c r="V38" t="n">
-        <v>1937.667024315058</v>
+        <v>2188.762415875908</v>
       </c>
       <c r="W38" t="n">
-        <v>1584.898369044944</v>
+        <v>1835.993760605794</v>
       </c>
       <c r="X38" t="n">
-        <v>1584.898369044944</v>
+        <v>1835.993760605794</v>
       </c>
       <c r="Y38" t="n">
-        <v>1194.759037069132</v>
+        <v>1445.854428629982</v>
       </c>
     </row>
     <row r="39">
@@ -7256,25 +7256,25 @@
         <v>222.1781455547732</v>
       </c>
       <c r="K39" t="n">
-        <v>640.5268731756904</v>
+        <v>536.3080135964294</v>
       </c>
       <c r="L39" t="n">
-        <v>897.320819338012</v>
+        <v>793.101959758751</v>
       </c>
       <c r="M39" t="n">
-        <v>1216.344110493762</v>
+        <v>1112.125250914501</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.219643798722</v>
+        <v>1454.000784219461</v>
       </c>
       <c r="O39" t="n">
-        <v>1848.749170767252</v>
+        <v>1744.530311187991</v>
       </c>
       <c r="P39" t="n">
-        <v>2260.153182981647</v>
+        <v>2273.650944826042</v>
       </c>
       <c r="Q39" t="n">
-        <v>2561.15854467709</v>
+        <v>2574.656306521485</v>
       </c>
       <c r="R39" t="n">
         <v>2574.656306521485</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>51.49312613042969</v>
+        <v>792.8164165738075</v>
       </c>
       <c r="C40" t="n">
-        <v>51.49312613042969</v>
+        <v>623.8802336459006</v>
       </c>
       <c r="D40" t="n">
-        <v>51.49312613042969</v>
+        <v>473.7635942335648</v>
       </c>
       <c r="E40" t="n">
-        <v>51.49312613042969</v>
+        <v>325.8505006511717</v>
       </c>
       <c r="F40" t="n">
-        <v>51.49312613042969</v>
+        <v>178.9605531532614</v>
       </c>
       <c r="G40" t="n">
         <v>51.49312613042969</v>
@@ -7362,22 +7362,22 @@
         <v>1491.580916037331</v>
       </c>
       <c r="T40" t="n">
-        <v>1294.359283836801</v>
+        <v>1491.580916037331</v>
       </c>
       <c r="U40" t="n">
-        <v>1005.232800101534</v>
+        <v>1202.454432302065</v>
       </c>
       <c r="V40" t="n">
-        <v>750.5483118956474</v>
+        <v>1202.454432302065</v>
       </c>
       <c r="W40" t="n">
-        <v>461.1311418586868</v>
+        <v>1202.454432302065</v>
       </c>
       <c r="X40" t="n">
-        <v>233.1415909606694</v>
+        <v>974.4648814040472</v>
       </c>
       <c r="Y40" t="n">
-        <v>233.1415909606694</v>
+        <v>974.4648814040472</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>853.3190741202144</v>
+        <v>1294.727764623505</v>
       </c>
       <c r="C41" t="n">
-        <v>853.3190741202144</v>
+        <v>925.7652476830933</v>
       </c>
       <c r="D41" t="n">
-        <v>853.3190741202144</v>
+        <v>774.9997396918868</v>
       </c>
       <c r="E41" t="n">
-        <v>467.5308215219702</v>
+        <v>774.9997396918868</v>
       </c>
       <c r="F41" t="n">
-        <v>467.5308215219702</v>
+        <v>774.9997396918868</v>
       </c>
       <c r="G41" t="n">
-        <v>51.49312613042969</v>
+        <v>358.9620443003463</v>
       </c>
       <c r="H41" t="n">
         <v>51.49312613042969</v>
@@ -7441,22 +7441,22 @@
         <v>2442.370112220995</v>
       </c>
       <c r="T41" t="n">
-        <v>2236.434597775349</v>
+        <v>2232.167003582276</v>
       </c>
       <c r="U41" t="n">
-        <v>1982.826901430262</v>
+        <v>1978.55930723719</v>
       </c>
       <c r="V41" t="n">
-        <v>1982.826901430262</v>
+        <v>1647.496419893619</v>
       </c>
       <c r="W41" t="n">
-        <v>1630.058246160148</v>
+        <v>1294.727764623505</v>
       </c>
       <c r="X41" t="n">
-        <v>1630.058246160148</v>
+        <v>1294.727764623505</v>
       </c>
       <c r="Y41" t="n">
-        <v>1239.918914184336</v>
+        <v>1294.727764623505</v>
       </c>
     </row>
     <row r="42">
@@ -7472,19 +7472,19 @@
         <v>765.1294381981542</v>
       </c>
       <c r="D42" t="n">
-        <v>616.195028536903</v>
+        <v>616.1950285369029</v>
       </c>
       <c r="E42" t="n">
-        <v>456.9575735314475</v>
+        <v>456.9575735314474</v>
       </c>
       <c r="F42" t="n">
-        <v>310.4230155583325</v>
+        <v>310.4230155583324</v>
       </c>
       <c r="G42" t="n">
-        <v>173.543463658968</v>
+        <v>173.5434636589675</v>
       </c>
       <c r="H42" t="n">
-        <v>78.05373283268455</v>
+        <v>78.05373283268402</v>
       </c>
       <c r="I42" t="n">
         <v>51.49312613042969</v>
@@ -7505,13 +7505,13 @@
         <v>1558.219643798722</v>
       </c>
       <c r="O42" t="n">
-        <v>1848.749170767252</v>
+        <v>1939.009064202087</v>
       </c>
       <c r="P42" t="n">
-        <v>2273.650944826042</v>
+        <v>2468.129697840138</v>
       </c>
       <c r="Q42" t="n">
-        <v>2574.656306521485</v>
+        <v>2561.15854467709</v>
       </c>
       <c r="R42" t="n">
         <v>2574.656306521485</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>51.49312613042969</v>
+        <v>308.5407233323825</v>
       </c>
       <c r="C43" t="n">
-        <v>51.49312613042969</v>
+        <v>308.5407233323825</v>
       </c>
       <c r="D43" t="n">
-        <v>51.49312613042969</v>
+        <v>308.5407233323825</v>
       </c>
       <c r="E43" t="n">
-        <v>51.49312613042969</v>
+        <v>308.5407233323825</v>
       </c>
       <c r="F43" t="n">
-        <v>51.49312613042969</v>
+        <v>308.5407233323825</v>
       </c>
       <c r="G43" t="n">
-        <v>51.49312613042969</v>
+        <v>140.4049109237451</v>
       </c>
       <c r="H43" t="n">
         <v>51.49312613042969</v>
@@ -7596,25 +7596,25 @@
         <v>1491.580916037331</v>
       </c>
       <c r="S43" t="n">
-        <v>1336.327421875013</v>
+        <v>1292.349444803301</v>
       </c>
       <c r="T43" t="n">
-        <v>1112.710819006561</v>
+        <v>1068.73284193485</v>
       </c>
       <c r="U43" t="n">
-        <v>823.5843352712944</v>
+        <v>779.6063581995828</v>
       </c>
       <c r="V43" t="n">
-        <v>568.8998470654076</v>
+        <v>779.6063581995828</v>
       </c>
       <c r="W43" t="n">
-        <v>279.482677028447</v>
+        <v>490.1891881626222</v>
       </c>
       <c r="X43" t="n">
-        <v>51.49312613042969</v>
+        <v>490.1891881626222</v>
       </c>
       <c r="Y43" t="n">
-        <v>51.49312613042969</v>
+        <v>490.1891881626222</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>998.0112479423642</v>
+        <v>1053.548200662915</v>
       </c>
       <c r="C44" t="n">
-        <v>998.0112479423642</v>
+        <v>684.5856837225035</v>
       </c>
       <c r="D44" t="n">
-        <v>998.0112479423642</v>
+        <v>326.319985115753</v>
       </c>
       <c r="E44" t="n">
-        <v>612.2229953441199</v>
+        <v>51.49312613042969</v>
       </c>
       <c r="F44" t="n">
-        <v>467.5308215219702</v>
+        <v>51.49312613042969</v>
       </c>
       <c r="G44" t="n">
         <v>51.49312613042969</v>
@@ -7684,16 +7684,16 @@
         <v>2110.84550153768</v>
       </c>
       <c r="V44" t="n">
-        <v>2110.84550153768</v>
+        <v>1779.782614194109</v>
       </c>
       <c r="W44" t="n">
-        <v>1758.076846267566</v>
+        <v>1427.013958923995</v>
       </c>
       <c r="X44" t="n">
-        <v>1384.611088006486</v>
+        <v>1053.548200662915</v>
       </c>
       <c r="Y44" t="n">
-        <v>1384.611088006486</v>
+        <v>1053.548200662915</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>939.5824674792815</v>
+        <v>939.5824674792811</v>
       </c>
       <c r="C45" t="n">
-        <v>765.1294381981545</v>
+        <v>765.1294381981542</v>
       </c>
       <c r="D45" t="n">
-        <v>616.1950285369032</v>
+        <v>616.195028536903</v>
       </c>
       <c r="E45" t="n">
-        <v>456.9575735314478</v>
+        <v>456.9575735314475</v>
       </c>
       <c r="F45" t="n">
-        <v>310.4230155583327</v>
+        <v>310.4230155583325</v>
       </c>
       <c r="G45" t="n">
-        <v>173.5434636589679</v>
+        <v>173.543463658968</v>
       </c>
       <c r="H45" t="n">
-        <v>78.05373283268435</v>
+        <v>78.05373283268455</v>
       </c>
       <c r="I45" t="n">
         <v>51.49312613042969</v>
@@ -7733,19 +7733,19 @@
         <v>640.5268731756904</v>
       </c>
       <c r="L45" t="n">
-        <v>1001.078474617242</v>
+        <v>897.320819338012</v>
       </c>
       <c r="M45" t="n">
-        <v>1320.101765772991</v>
+        <v>1216.344110493762</v>
       </c>
       <c r="N45" t="n">
-        <v>1661.977299077951</v>
+        <v>1558.219643798722</v>
       </c>
       <c r="O45" t="n">
-        <v>1952.506826046482</v>
+        <v>1848.749170767252</v>
       </c>
       <c r="P45" t="n">
-        <v>2481.627459684532</v>
+        <v>2273.650944826042</v>
       </c>
       <c r="Q45" t="n">
         <v>2574.656306521485</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>686.5948544617029</v>
+        <v>835.6384434877494</v>
       </c>
       <c r="C46" t="n">
-        <v>517.658671533796</v>
+        <v>666.7022605598426</v>
       </c>
       <c r="D46" t="n">
-        <v>367.5420321214602</v>
+        <v>516.5856211475068</v>
       </c>
       <c r="E46" t="n">
-        <v>219.6289385390671</v>
+        <v>516.5856211475068</v>
       </c>
       <c r="F46" t="n">
-        <v>219.6289385390671</v>
+        <v>369.6956736495964</v>
       </c>
       <c r="G46" t="n">
-        <v>51.49312613042969</v>
+        <v>201.559861240959</v>
       </c>
       <c r="H46" t="n">
         <v>51.49312613042969</v>
@@ -7833,25 +7833,25 @@
         <v>1491.580916037331</v>
       </c>
       <c r="S46" t="n">
-        <v>1317.02544933349</v>
+        <v>1348.381530091468</v>
       </c>
       <c r="T46" t="n">
-        <v>1317.02544933349</v>
+        <v>1124.764927223016</v>
       </c>
       <c r="U46" t="n">
-        <v>1317.02544933349</v>
+        <v>835.6384434877494</v>
       </c>
       <c r="V46" t="n">
-        <v>1317.02544933349</v>
+        <v>835.6384434877494</v>
       </c>
       <c r="W46" t="n">
-        <v>1317.02544933349</v>
+        <v>835.6384434877494</v>
       </c>
       <c r="X46" t="n">
-        <v>1089.035898435473</v>
+        <v>835.6384434877494</v>
       </c>
       <c r="Y46" t="n">
-        <v>868.2433192919426</v>
+        <v>835.6384434877494</v>
       </c>
     </row>
   </sheetData>
@@ -8060,13 +8060,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>184.6294155606472</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>233.6791982203443</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N9" t="n">
-        <v>371.3463732493024</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8692,7 +8692,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>175.2268724725172</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8707,13 +8707,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>28.21474499910369</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0.4135566864917735</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8771,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>159.1936616799917</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>124.9332259329902</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>298.3352551102097</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>31.88756693819498</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>132.0084969846864</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>28.62830168559522</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>91.171609530137</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>350.1999079752898</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>145.1620767809597</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>31.88756693819498</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9166,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9181,13 +9181,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>20.17807507342644</v>
       </c>
       <c r="Q17" t="n">
-        <v>87.82764265959892</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0.4135566864917735</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9248,7 +9248,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>199.557090434225</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>52.42813573974041</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>31.88756693819498</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9406,7 +9406,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>20.17807507342627</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9418,13 +9418,13 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>85.48093825991651</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0.4135566864917735</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>213.1911933073503</v>
+        <v>104.8057124032628</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>31.88756693819498</v>
@@ -9640,7 +9640,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>175.2268724725172</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>175.2268724725178</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9716,19 +9716,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>213.1911933073508</v>
+        <v>194.0711702977779</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>321.4183279881997</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>298.3352551102097</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>31.88756693819498</v>
@@ -9895,10 +9895,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>175.2268724725174</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>28.62830168559568</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>5.43693856742567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>92.7845001174378</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>350.1999079752898</v>
+        <v>350.1999079752899</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>31.88756693819498</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10132,10 +10132,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>175.2268724725174</v>
       </c>
       <c r="R29" t="n">
-        <v>28.62830168559522</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,16 +10190,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>91.17160953013655</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>124.5216394527903</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>31.88756693819498</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>22.52477947310808</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10366,10 +10366,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>175.2268724725174</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>213.1911933073504</v>
+        <v>199.5570904342247</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>31.88756693819498</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10606,10 +10606,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>175.2268724725174</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>28.62830168559522</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>199.5570904342247</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>124.5216394527903</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>31.88756693819498</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>132.0084969846864</v>
       </c>
       <c r="K38" t="n">
-        <v>175.2268724725172</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10843,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>159.1936616799917</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>199.5570904342247</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>31.88756693819498</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11153,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>91.17160953013655</v>
       </c>
       <c r="P42" t="n">
-        <v>213.1911933073504</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>31.88756693819498</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11381,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>104.8057124032623</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>213.1911933073504</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>31.88756693819498</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22564,7 +22564,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>137.1801156868699</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22600,7 +22600,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -22609,13 +22609,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>156.0341136990839</v>
       </c>
     </row>
     <row r="3">
@@ -22628,7 +22628,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22640,16 +22640,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>133.9816434800589</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>81.52250697870524</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22761,13 +22761,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,22 +22783,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
         <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22807,7 +22807,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22831,10 +22831,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>168.5437904531102</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22849,7 +22849,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22868,16 +22868,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>79.73543429794213</v>
       </c>
       <c r="E6" t="n">
-        <v>48.7188976927589</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -22886,7 +22886,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22919,7 +22919,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22928,7 +22928,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22959,7 +22959,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23029,7 +23029,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>331.463391724582</v>
+        <v>239.063044457775</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -23038,13 +23038,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23071,10 +23071,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23111,10 +23111,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -23123,7 +23123,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>11.23894902822551</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23159,10 +23159,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>70.78519439239753</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23178,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -23196,7 +23196,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>285.5797045386374</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>304.3942289882174</v>
       </c>
       <c r="I11" t="n">
         <v>78.4174205846999</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>130.9633323574852</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0716193816357</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>361.0816399448626</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,16 +23424,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>27.5068791062468</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4544542845511</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.566067759424</v>
       </c>
       <c r="I13" t="n">
         <v>109.2429754319254</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>108.205636690375</v>
       </c>
       <c r="S13" t="n">
-        <v>40.79052250689509</v>
+        <v>197.2391565216902</v>
       </c>
       <c r="T13" t="n">
-        <v>221.3804368397668</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2352188979141</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23548,22 +23548,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>123.8682635437835</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0716193816357</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>312.3652143703436</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23655,7 +23655,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23706,10 +23706,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>26.97424072790079</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2352188979141</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>17.78650947249102</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>128.3264724512444</v>
       </c>
       <c r="E17" t="n">
-        <v>225.9608089078857</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>304.3942289882174</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>78.4174205846999</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,13 +23785,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>208.1010775523311</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.0716193816357</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23895,16 +23895,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>80.81677267650342</v>
+        <v>110.2934512060916</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4544542845511</v>
       </c>
       <c r="H19" t="n">
         <v>148.566067759424</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>108.205636690375</v>
       </c>
       <c r="S19" t="n">
         <v>197.2391565216902</v>
@@ -23946,16 +23946,16 @@
         <v>221.3804368397668</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2352188979141</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23977,19 +23977,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>102.9833354882285</v>
       </c>
       <c r="H20" t="n">
-        <v>304.3942289882174</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>78.4174205846999</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>130.9633323574852</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>9.31408350265508</v>
+        <v>251.0716193816357</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24034,7 +24034,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,13 +24138,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4544542845511</v>
       </c>
       <c r="H22" t="n">
-        <v>148.566067759424</v>
+        <v>57.68204195317372</v>
       </c>
       <c r="I22" t="n">
         <v>109.2429754319254</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>43.53819730099457</v>
+        <v>221.3804368397668</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24208,13 +24208,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>130.9633323574852</v>
+        <v>127.8567279533486</v>
       </c>
       <c r="T23" t="n">
         <v>208.1010775523311</v>
       </c>
       <c r="U23" t="n">
-        <v>92.52668604409249</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4544542845511</v>
       </c>
       <c r="H25" t="n">
-        <v>148.566067759424</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>109.2429754319254</v>
@@ -24417,22 +24417,22 @@
         <v>197.2391565216902</v>
       </c>
       <c r="T25" t="n">
-        <v>64.88369413139927</v>
+        <v>221.3804368397668</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>22.37331500682052</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24451,13 +24451,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>216.5692608848191</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.877318437625</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>304.3942289882174</v>
@@ -24496,22 +24496,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>208.1010775523311</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0716193816357</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>302.3169574350104</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4544542845511</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>108.205636690375</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.2391565216902</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.3804368397668</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>6.926253336841171</v>
+        <v>286.2352188979141</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>179.0344264022875</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>383.2741389504251</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>304.3942289882174</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>78.4174205846999</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24736,16 +24736,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.0716193816357</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>209.5304899650932</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24840,10 +24840,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>133.2105597835056</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4544542845511</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.566067759424</v>
+        <v>86.51675035802323</v>
       </c>
       <c r="I31" t="n">
         <v>109.2429754319254</v>
@@ -24888,13 +24888,13 @@
         <v>108.205636690375</v>
       </c>
       <c r="S31" t="n">
-        <v>197.2391565216902</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.3804368397668</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2352188979141</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24919,25 +24919,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>166.9583440249872</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>51.50222275918415</v>
+        <v>304.3942289882174</v>
       </c>
       <c r="I32" t="n">
-        <v>78.4174205846999</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,19 +24970,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>208.1010775523311</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.0716193816357</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -25077,16 +25077,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>141.3484764440859</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4544542845511</v>
@@ -25131,19 +25131,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2352188979141</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>99.84278168323462</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25174,7 +25174,7 @@
         <v>304.3942289882174</v>
       </c>
       <c r="I35" t="n">
-        <v>69.63959785083003</v>
+        <v>78.4174205846999</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,16 +25207,16 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>208.1010775523311</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.0716193816357</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>242.535580465779</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4544542845511</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.566067759424</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>109.2429754319254</v>
@@ -25362,22 +25362,22 @@
         <v>108.205636690375</v>
       </c>
       <c r="S37" t="n">
-        <v>197.2391565216902</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>64.88369413139927</v>
+        <v>221.3804368397668</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2352188979141</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>177.5975271034056</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25402,13 +25402,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>411.877318437625</v>
       </c>
       <c r="H38" t="n">
-        <v>304.3942289882174</v>
+        <v>68.26946853953532</v>
       </c>
       <c r="I38" t="n">
         <v>78.4174205846999</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>79.1678208248934</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>208.1010775523311</v>
@@ -25450,7 +25450,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25551,19 +25551,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4544542845511</v>
+        <v>40.26170153194772</v>
       </c>
       <c r="H40" t="n">
         <v>148.566067759424</v>
@@ -25602,16 +25602,16 @@
         <v>197.2391565216902</v>
       </c>
       <c r="T40" t="n">
-        <v>26.13102096124177</v>
+        <v>221.3804368397668</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25627,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>205.4251887093885</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>304.3942289882174</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>78.4174205846999</v>
@@ -25681,13 +25681,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>4.224918251141787</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25800,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4544542845511</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.566067759424</v>
+        <v>60.54340081404177</v>
       </c>
       <c r="I43" t="n">
         <v>109.2429754319254</v>
@@ -25836,7 +25836,7 @@
         <v>108.205636690375</v>
       </c>
       <c r="S43" t="n">
-        <v>43.53819730099448</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>109.8517796767917</v>
       </c>
       <c r="F44" t="n">
-        <v>263.6307936577832</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>411.877318437625</v>
       </c>
       <c r="H44" t="n">
         <v>304.3942289882174</v>
@@ -25924,7 +25924,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26031,16 +26031,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.566067759424</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>109.2429754319254</v>
@@ -26073,13 +26073,13 @@
         <v>108.205636690375</v>
       </c>
       <c r="S46" t="n">
-        <v>24.42924448488725</v>
+        <v>55.47176443528494</v>
       </c>
       <c r="T46" t="n">
-        <v>221.3804368397668</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2352188979141</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26088,10 +26088,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>490590.7985829336</v>
+        <v>490590.7985829337</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>805492.5800898683</v>
+        <v>805492.5800898685</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>805492.5800898684</v>
+        <v>805492.5800898683</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>805492.5800898684</v>
+        <v>805492.5800898683</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>805492.5800898684</v>
+        <v>805492.5800898683</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>805492.5800898684</v>
+        <v>805492.5800898683</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>805492.5800898684</v>
+        <v>805492.5800898683</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>805492.5800898683</v>
+        <v>805492.5800898684</v>
       </c>
     </row>
   </sheetData>
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>149544.6052781992</v>
+        <v>149544.6052781991</v>
       </c>
       <c r="C2" t="n">
         <v>149544.6052781992</v>
       </c>
       <c r="D2" t="n">
-        <v>149544.6052781992</v>
+        <v>149544.6052781991</v>
       </c>
       <c r="E2" t="n">
-        <v>273171.0454485015</v>
+        <v>273171.0454485018</v>
       </c>
       <c r="F2" t="n">
+        <v>273171.0454485017</v>
+      </c>
+      <c r="G2" t="n">
         <v>273171.0454485016</v>
       </c>
-      <c r="G2" t="n">
-        <v>273171.0454485015</v>
-      </c>
       <c r="H2" t="n">
-        <v>273171.0454485015</v>
+        <v>273171.0454485017</v>
       </c>
       <c r="I2" t="n">
         <v>273171.0454485017</v>
       </c>
       <c r="J2" t="n">
-        <v>273171.0454485017</v>
+        <v>273171.0454485016</v>
       </c>
       <c r="K2" t="n">
         <v>273171.0454485017</v>
       </c>
       <c r="L2" t="n">
-        <v>273171.0454485016</v>
+        <v>273171.0454485017</v>
       </c>
       <c r="M2" t="n">
-        <v>273171.0454485017</v>
+        <v>273171.0454485015</v>
       </c>
       <c r="N2" t="n">
         <v>273171.0454485017</v>
@@ -26355,7 +26355,7 @@
         <v>273171.0454485016</v>
       </c>
       <c r="P2" t="n">
-        <v>273171.0454485017</v>
+        <v>273171.0454485018</v>
       </c>
     </row>
     <row r="3">
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910619</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>58752.58249917302</v>
       </c>
       <c r="E4" t="n">
-        <v>16850.55184717423</v>
+        <v>16850.55184717424</v>
       </c>
       <c r="F4" t="n">
         <v>16850.55184717423</v>
@@ -26435,19 +26435,19 @@
         <v>16850.55184717423</v>
       </c>
       <c r="H4" t="n">
-        <v>16850.55184717422</v>
+        <v>16850.55184717423</v>
       </c>
       <c r="I4" t="n">
-        <v>16850.55184717423</v>
+        <v>16850.55184717424</v>
       </c>
       <c r="J4" t="n">
-        <v>16850.55184717423</v>
+        <v>16850.55184717424</v>
       </c>
       <c r="K4" t="n">
         <v>16850.55184717423</v>
       </c>
       <c r="L4" t="n">
-        <v>16850.55184717422</v>
+        <v>16850.55184717423</v>
       </c>
       <c r="M4" t="n">
         <v>16850.55184717423</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-50476.68813632372</v>
+        <v>-39480.47857828733</v>
       </c>
       <c r="C6" t="n">
-        <v>30292.74339522401</v>
+        <v>41288.95295326046</v>
       </c>
       <c r="D6" t="n">
-        <v>30292.74339522404</v>
+        <v>41288.9529532604</v>
       </c>
       <c r="E6" t="n">
-        <v>-611519.7177713094</v>
+        <v>-606704.8302217879</v>
       </c>
       <c r="F6" t="n">
-        <v>193260.6513846095</v>
+        <v>198075.5389341309</v>
       </c>
       <c r="G6" t="n">
-        <v>193260.6513846095</v>
+        <v>198075.5389341308</v>
       </c>
       <c r="H6" t="n">
-        <v>193260.6513846095</v>
+        <v>198075.5389341309</v>
       </c>
       <c r="I6" t="n">
-        <v>193260.6513846097</v>
+        <v>198075.5389341309</v>
       </c>
       <c r="J6" t="n">
-        <v>130200.7087855034</v>
+        <v>135015.5963350246</v>
       </c>
       <c r="K6" t="n">
-        <v>193260.6513846096</v>
+        <v>198075.5389341309</v>
       </c>
       <c r="L6" t="n">
-        <v>193260.6513846096</v>
+        <v>198075.5389341309</v>
       </c>
       <c r="M6" t="n">
-        <v>92918.71367748275</v>
+        <v>97733.60122700388</v>
       </c>
       <c r="N6" t="n">
-        <v>193260.6513846097</v>
+        <v>198075.5389341309</v>
       </c>
       <c r="O6" t="n">
-        <v>193260.6513846095</v>
+        <v>198075.5389341308</v>
       </c>
       <c r="P6" t="n">
-        <v>193260.6513846097</v>
+        <v>198075.538934131</v>
       </c>
     </row>
   </sheetData>
@@ -26798,22 +26798,22 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>643.6640766303711</v>
+        <v>643.6640766303713</v>
       </c>
       <c r="F4" t="n">
-        <v>643.6640766303711</v>
+        <v>643.6640766303713</v>
       </c>
       <c r="G4" t="n">
         <v>643.6640766303713</v>
       </c>
       <c r="H4" t="n">
-        <v>643.6640766303711</v>
+        <v>643.6640766303713</v>
       </c>
       <c r="I4" t="n">
         <v>643.6640766303713</v>
       </c>
       <c r="J4" t="n">
-        <v>643.6640766303711</v>
+        <v>643.6640766303713</v>
       </c>
       <c r="K4" t="n">
         <v>643.6640766303711</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776589</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34780,13 +34780,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
@@ -34798,7 +34798,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N9" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35412,7 +35412,7 @@
         <v>278.7788730752056</v>
       </c>
       <c r="K11" t="n">
-        <v>390.863173408355</v>
+        <v>215.6363009358378</v>
       </c>
       <c r="L11" t="n">
         <v>304.7904061041791</v>
@@ -35427,13 +35427,13 @@
         <v>347.0463671741337</v>
       </c>
       <c r="P11" t="n">
-        <v>261.3465493645217</v>
+        <v>289.5612943636254</v>
       </c>
       <c r="Q11" t="n">
-        <v>147.6010345320133</v>
+        <v>359.916025191918</v>
       </c>
       <c r="R11" t="n">
-        <v>65.30286318649067</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>172.4091105296399</v>
       </c>
       <c r="K12" t="n">
-        <v>317.302897011774</v>
+        <v>422.5744723443608</v>
       </c>
       <c r="L12" t="n">
-        <v>259.3878244063854</v>
+        <v>384.3210503393756</v>
       </c>
       <c r="M12" t="n">
         <v>322.2457486421715</v>
       </c>
       <c r="N12" t="n">
-        <v>345.3288215201615</v>
+        <v>643.6640766303713</v>
       </c>
       <c r="O12" t="n">
         <v>293.4641686550814</v>
       </c>
       <c r="P12" t="n">
-        <v>534.4652865030814</v>
+        <v>216.0025178631442</v>
       </c>
       <c r="Q12" t="n">
-        <v>304.0458198943867</v>
+        <v>93.96853215853764</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>278.7788730752056</v>
+        <v>241.6907548878183</v>
       </c>
       <c r="K14" t="n">
         <v>215.6363009358378</v>
@@ -35670,7 +35670,7 @@
         <v>359.916025191918</v>
       </c>
       <c r="R14" t="n">
-        <v>28.21474499910345</v>
+        <v>65.30286318649067</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>46.31807518923108</v>
+        <v>172.4091105296399</v>
       </c>
       <c r="K15" t="n">
-        <v>158.1092353317822</v>
+        <v>422.5744723443608</v>
       </c>
       <c r="L15" t="n">
-        <v>259.3878244063854</v>
+        <v>350.5594339365225</v>
       </c>
       <c r="M15" t="n">
         <v>322.2457486421715</v>
@@ -35740,16 +35740,16 @@
         <v>345.3288215201615</v>
       </c>
       <c r="O15" t="n">
-        <v>643.6640766303711</v>
+        <v>293.4641686550814</v>
       </c>
       <c r="P15" t="n">
         <v>534.4652865030814</v>
       </c>
       <c r="Q15" t="n">
-        <v>239.1306089394974</v>
+        <v>93.96853215853764</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>13.63410287312584</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35886,7 +35886,7 @@
         <v>109.6822579031319</v>
       </c>
       <c r="K17" t="n">
-        <v>215.6363009358378</v>
+        <v>539.7817135070025</v>
       </c>
       <c r="L17" t="n">
         <v>304.7904061041791</v>
@@ -35901,13 +35901,13 @@
         <v>347.0463671741337</v>
       </c>
       <c r="P17" t="n">
-        <v>583.1452575360044</v>
+        <v>281.5246244379481</v>
       </c>
       <c r="Q17" t="n">
-        <v>235.4286771916122</v>
+        <v>147.6010345320133</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.30286318649067</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,7 +35968,7 @@
         <v>422.5744723443608</v>
       </c>
       <c r="L18" t="n">
-        <v>630.2281697098447</v>
+        <v>458.9449148406105</v>
       </c>
       <c r="M18" t="n">
         <v>322.2457486421715</v>
@@ -35983,10 +35983,10 @@
         <v>216.0025178631442</v>
       </c>
       <c r="Q18" t="n">
-        <v>146.3966678982781</v>
+        <v>304.0458198943867</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>13.63410287312584</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36126,7 +36126,7 @@
         <v>539.7817135070025</v>
       </c>
       <c r="L20" t="n">
-        <v>304.7904061041791</v>
+        <v>324.9684811776054</v>
       </c>
       <c r="M20" t="n">
         <v>371.1273843665629</v>
@@ -36138,13 +36138,13 @@
         <v>347.0463671741337</v>
       </c>
       <c r="P20" t="n">
-        <v>346.8274876244382</v>
+        <v>261.3465493645217</v>
       </c>
       <c r="Q20" t="n">
         <v>147.6010345320133</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.30286318649067</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,7 +36205,7 @@
         <v>422.5744723443608</v>
       </c>
       <c r="L21" t="n">
-        <v>472.5790177137358</v>
+        <v>364.1935368096482</v>
       </c>
       <c r="M21" t="n">
         <v>322.2457486421715</v>
@@ -36217,10 +36217,10 @@
         <v>293.4641686550814</v>
       </c>
       <c r="P21" t="n">
-        <v>216.0025178631442</v>
+        <v>534.4652865030814</v>
       </c>
       <c r="Q21" t="n">
-        <v>304.0458198943867</v>
+        <v>93.96853215853764</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36360,7 +36360,7 @@
         <v>278.7788730752056</v>
       </c>
       <c r="K23" t="n">
-        <v>390.863173408355</v>
+        <v>215.6363009358378</v>
       </c>
       <c r="L23" t="n">
         <v>304.7904061041791</v>
@@ -36378,7 +36378,7 @@
         <v>261.3465493645217</v>
       </c>
       <c r="Q23" t="n">
-        <v>147.6010345320133</v>
+        <v>322.8279070045311</v>
       </c>
       <c r="R23" t="n">
         <v>65.30286318649067</v>
@@ -36436,19 +36436,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>172.4091105296399</v>
+        <v>46.31807518923108</v>
       </c>
       <c r="K24" t="n">
-        <v>422.5744723443608</v>
+        <v>158.1092353317822</v>
       </c>
       <c r="L24" t="n">
-        <v>472.5790177137362</v>
+        <v>453.4589947041633</v>
       </c>
       <c r="M24" t="n">
-        <v>322.2457486421715</v>
+        <v>643.6640766303713</v>
       </c>
       <c r="N24" t="n">
-        <v>345.3288215201615</v>
+        <v>643.6640766303713</v>
       </c>
       <c r="O24" t="n">
         <v>293.4641686550814</v>
@@ -36457,7 +36457,7 @@
         <v>216.0025178631442</v>
       </c>
       <c r="Q24" t="n">
-        <v>304.0458198943867</v>
+        <v>93.96853215853764</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36615,10 +36615,10 @@
         <v>261.3465493645217</v>
       </c>
       <c r="Q26" t="n">
-        <v>322.8279070045307</v>
+        <v>359.916025191918</v>
       </c>
       <c r="R26" t="n">
-        <v>65.30286318649067</v>
+        <v>28.21474499910391</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>46.31807518923108</v>
+        <v>172.4091105296399</v>
       </c>
       <c r="K27" t="n">
-        <v>158.1092353317822</v>
+        <v>163.5461738992079</v>
       </c>
       <c r="L27" t="n">
-        <v>630.2281697098447</v>
+        <v>259.3878244063854</v>
       </c>
       <c r="M27" t="n">
-        <v>415.0302487596093</v>
+        <v>322.2457486421715</v>
       </c>
       <c r="N27" t="n">
         <v>345.3288215201615</v>
       </c>
       <c r="O27" t="n">
-        <v>643.6640766303711</v>
+        <v>643.6640766303713</v>
       </c>
       <c r="P27" t="n">
-        <v>216.0025178631442</v>
+        <v>534.4652865030814</v>
       </c>
       <c r="Q27" t="n">
         <v>93.96853215853764</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>13.63410287312584</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36852,10 +36852,10 @@
         <v>261.3465493645217</v>
       </c>
       <c r="Q29" t="n">
-        <v>359.916025191918</v>
+        <v>322.8279070045307</v>
       </c>
       <c r="R29" t="n">
-        <v>28.21474499910345</v>
+        <v>65.30286318649067</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>172.4091105296399</v>
+        <v>46.31807518923108</v>
       </c>
       <c r="K30" t="n">
-        <v>422.5744723443608</v>
+        <v>158.1092353317822</v>
       </c>
       <c r="L30" t="n">
-        <v>259.3878244063854</v>
+        <v>630.2281697098447</v>
       </c>
       <c r="M30" t="n">
-        <v>413.417358172308</v>
+        <v>322.2457486421715</v>
       </c>
       <c r="N30" t="n">
         <v>345.3288215201615</v>
@@ -36931,10 +36931,10 @@
         <v>534.4652865030814</v>
       </c>
       <c r="Q30" t="n">
-        <v>93.96853215853764</v>
+        <v>218.490171611328</v>
       </c>
       <c r="R30" t="n">
-        <v>13.63410287312584</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>109.6822579031319</v>
+        <v>278.7788730752056</v>
       </c>
       <c r="K32" t="n">
-        <v>238.1610804089458</v>
+        <v>215.6363009358378</v>
       </c>
       <c r="L32" t="n">
         <v>304.7904061041791</v>
@@ -37086,10 +37086,10 @@
         <v>347.0463671741337</v>
       </c>
       <c r="P32" t="n">
-        <v>583.1452575360044</v>
+        <v>261.3465493645217</v>
       </c>
       <c r="Q32" t="n">
-        <v>147.6010345320133</v>
+        <v>322.8279070045307</v>
       </c>
       <c r="R32" t="n">
         <v>65.30286318649067</v>
@@ -37165,13 +37165,13 @@
         <v>293.4641686550814</v>
       </c>
       <c r="P33" t="n">
-        <v>429.1937111704946</v>
+        <v>415.5596082973689</v>
       </c>
       <c r="Q33" t="n">
         <v>304.0458198943867</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>13.63410287312584</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37326,10 +37326,10 @@
         <v>261.3465493645217</v>
       </c>
       <c r="Q35" t="n">
-        <v>322.8279070045307</v>
+        <v>359.916025191918</v>
       </c>
       <c r="R35" t="n">
-        <v>65.30286318649067</v>
+        <v>28.21474499910345</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>172.4091105296399</v>
+        <v>46.31807518923108</v>
       </c>
       <c r="K36" t="n">
-        <v>422.5744723443608</v>
+        <v>158.1092353317822</v>
       </c>
       <c r="L36" t="n">
-        <v>259.3878244063854</v>
+        <v>630.2281697098447</v>
       </c>
       <c r="M36" t="n">
         <v>322.2457486421715</v>
@@ -37402,13 +37402,13 @@
         <v>293.4641686550814</v>
       </c>
       <c r="P36" t="n">
-        <v>415.5596082973689</v>
+        <v>534.4652865030814</v>
       </c>
       <c r="Q36" t="n">
-        <v>304.0458198943867</v>
+        <v>218.490171611328</v>
       </c>
       <c r="R36" t="n">
-        <v>13.63410287312584</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>278.7788730752056</v>
+        <v>241.6907548878183</v>
       </c>
       <c r="K38" t="n">
-        <v>390.863173408355</v>
+        <v>215.6363009358378</v>
       </c>
       <c r="L38" t="n">
         <v>304.7904061041791</v>
@@ -37563,7 +37563,7 @@
         <v>261.3465493645217</v>
       </c>
       <c r="Q38" t="n">
-        <v>147.6010345320133</v>
+        <v>359.916025191918</v>
       </c>
       <c r="R38" t="n">
         <v>65.30286318649067</v>
@@ -37624,7 +37624,7 @@
         <v>172.4091105296399</v>
       </c>
       <c r="K39" t="n">
-        <v>422.5744723443608</v>
+        <v>317.302897011774</v>
       </c>
       <c r="L39" t="n">
         <v>259.3878244063854</v>
@@ -37639,13 +37639,13 @@
         <v>293.4641686550814</v>
       </c>
       <c r="P39" t="n">
-        <v>415.5596082973689</v>
+        <v>534.4652865030814</v>
       </c>
       <c r="Q39" t="n">
         <v>304.0458198943867</v>
       </c>
       <c r="R39" t="n">
-        <v>13.63410287312584</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37873,16 +37873,16 @@
         <v>345.3288215201615</v>
       </c>
       <c r="O42" t="n">
-        <v>293.4641686550814</v>
+        <v>384.6357781852179</v>
       </c>
       <c r="P42" t="n">
-        <v>429.1937111704946</v>
+        <v>534.4652865030814</v>
       </c>
       <c r="Q42" t="n">
-        <v>304.0458198943867</v>
+        <v>93.96853215853764</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>13.63410287312584</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38101,7 +38101,7 @@
         <v>422.5744723443608</v>
       </c>
       <c r="L45" t="n">
-        <v>364.1935368096478</v>
+        <v>259.3878244063854</v>
       </c>
       <c r="M45" t="n">
         <v>322.2457486421715</v>
@@ -38113,10 +38113,10 @@
         <v>293.4641686550814</v>
       </c>
       <c r="P45" t="n">
-        <v>534.4652865030814</v>
+        <v>429.1937111704946</v>
       </c>
       <c r="Q45" t="n">
-        <v>93.96853215853764</v>
+        <v>304.0458198943867</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
